--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Il s’agit du titre de la page qui apparait dans le moteur de recherche </t>
   </si>
   <si>
-    <t xml:space="preserve">Indiquer un titre clair pour donner envie au visiteur de cliquer</t>
+    <t xml:space="preserve">Indiquer en titre le nom de l agence</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Il s’agit du descriptif de la page qui apparait en dessous du titre dans le moteur de recherche </t>
   </si>
   <si>
-    <t xml:space="preserve"> Description avec un mot clefs</t>
+    <t xml:space="preserve"> Description  avec mot clefs clair pour donner envie au visiteur de cliquer</t>
   </si>
   <si>
     <t xml:space="preserve">Atribut ALT des images incoherent</t>
@@ -213,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -251,6 +251,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -308,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,6 +332,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,7 +427,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,7 +1480,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2514,7 +2528,7 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -11857,7 +11871,7 @@
       <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -12895,7 +12909,7 @@
       <c r="D13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -107,10 +107,34 @@
     <t xml:space="preserve">Les images sont trop volumineuses</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapter la taillle de l’imnage a la taille du contenant</t>
+    <t xml:space="preserve">Adapter la taillle de l’image a la taille du contenant</t>
   </si>
   <si>
     <t xml:space="preserve">https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation d’image pour du texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ne faut pas utiliser d’image pour du texte  sur mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser des balise &lt;p&gt; ou &lt;h&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couleur du texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le contraste n’est pas optimum en comparaison du background sur les liens et les textes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un contraste dont le ratio est de 4.5:1 pour les textes ,de 3:1 pour les grands textes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couleur du texte liens bas de pages</t>
   </si>
   <si>
     <t xml:space="preserve">DIV CACHE </t>
@@ -137,15 +161,6 @@
     <t xml:space="preserve">open classroom creer son site web </t>
   </si>
   <si>
-    <t xml:space="preserve">barre de navigation differente sur page 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utiliser un header commun a toute les pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom du lien vers contact</t>
   </si>
   <si>
@@ -158,6 +173,15 @@
     <t xml:space="preserve">https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible</t>
   </si>
   <si>
+    <t xml:space="preserve">barre de navigation differente sur page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utiliser un header commun a toute les pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mauvaise couleur texte / background</t>
   </si>
   <si>
@@ -167,7 +191,13 @@
     <t xml:space="preserve">utiliser une couleur differente du fond</t>
   </si>
   <si>
-    <t xml:space="preserve">Champs de remplissage </t>
+    <t xml:space="preserve">MANQUE ETIQUETTE LABEL FORMULAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champs de remplissage mal position</t>
   </si>
   <si>
     <t xml:space="preserve">zone de remplissage sont soit a droite soit en dessous du titre</t>
@@ -255,15 +285,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -314,7 +344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,12 +369,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -424,10 +450,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -435,7 +461,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
@@ -2528,7 +2554,7 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4594,7 +4620,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -5632,9 +5658,9 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -5645,11 +5671,9 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
@@ -6670,9 +6694,9 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>28</v>
@@ -6684,8 +6708,8 @@
         <v>30</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -7706,24 +7730,22 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -8746,22 +8768,22 @@
     </row>
     <row r="9" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
@@ -9782,24 +9804,22 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
@@ -10825,19 +10845,19 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -11858,24 +11878,24 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -12896,24 +12916,24 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -13934,27 +13954,4171 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
+      <c r="AK14" s="0"/>
+      <c r="AL14" s="0"/>
+      <c r="AM14" s="0"/>
+      <c r="AN14" s="0"/>
+      <c r="AO14" s="0"/>
+      <c r="AP14" s="0"/>
+      <c r="AQ14" s="0"/>
+      <c r="AR14" s="0"/>
+      <c r="AS14" s="0"/>
+      <c r="AT14" s="0"/>
+      <c r="AU14" s="0"/>
+      <c r="AV14" s="0"/>
+      <c r="AW14" s="0"/>
+      <c r="AX14" s="0"/>
+      <c r="AY14" s="0"/>
+      <c r="AZ14" s="0"/>
+      <c r="BA14" s="0"/>
+      <c r="BB14" s="0"/>
+      <c r="BC14" s="0"/>
+      <c r="BD14" s="0"/>
+      <c r="BE14" s="0"/>
+      <c r="BF14" s="0"/>
+      <c r="BG14" s="0"/>
+      <c r="BH14" s="0"/>
+      <c r="BI14" s="0"/>
+      <c r="BJ14" s="0"/>
+      <c r="BK14" s="0"/>
+      <c r="BL14" s="0"/>
+      <c r="BM14" s="0"/>
+      <c r="BN14" s="0"/>
+      <c r="BO14" s="0"/>
+      <c r="BP14" s="0"/>
+      <c r="BQ14" s="0"/>
+      <c r="BR14" s="0"/>
+      <c r="BS14" s="0"/>
+      <c r="BT14" s="0"/>
+      <c r="BU14" s="0"/>
+      <c r="BV14" s="0"/>
+      <c r="BW14" s="0"/>
+      <c r="BX14" s="0"/>
+      <c r="BY14" s="0"/>
+      <c r="BZ14" s="0"/>
+      <c r="CA14" s="0"/>
+      <c r="CB14" s="0"/>
+      <c r="CC14" s="0"/>
+      <c r="CD14" s="0"/>
+      <c r="CE14" s="0"/>
+      <c r="CF14" s="0"/>
+      <c r="CG14" s="0"/>
+      <c r="CH14" s="0"/>
+      <c r="CI14" s="0"/>
+      <c r="CJ14" s="0"/>
+      <c r="CK14" s="0"/>
+      <c r="CL14" s="0"/>
+      <c r="CM14" s="0"/>
+      <c r="CN14" s="0"/>
+      <c r="CO14" s="0"/>
+      <c r="CP14" s="0"/>
+      <c r="CQ14" s="0"/>
+      <c r="CR14" s="0"/>
+      <c r="CS14" s="0"/>
+      <c r="CT14" s="0"/>
+      <c r="CU14" s="0"/>
+      <c r="CV14" s="0"/>
+      <c r="CW14" s="0"/>
+      <c r="CX14" s="0"/>
+      <c r="CY14" s="0"/>
+      <c r="CZ14" s="0"/>
+      <c r="DA14" s="0"/>
+      <c r="DB14" s="0"/>
+      <c r="DC14" s="0"/>
+      <c r="DD14" s="0"/>
+      <c r="DE14" s="0"/>
+      <c r="DF14" s="0"/>
+      <c r="DG14" s="0"/>
+      <c r="DH14" s="0"/>
+      <c r="DI14" s="0"/>
+      <c r="DJ14" s="0"/>
+      <c r="DK14" s="0"/>
+      <c r="DL14" s="0"/>
+      <c r="DM14" s="0"/>
+      <c r="DN14" s="0"/>
+      <c r="DO14" s="0"/>
+      <c r="DP14" s="0"/>
+      <c r="DQ14" s="0"/>
+      <c r="DR14" s="0"/>
+      <c r="DS14" s="0"/>
+      <c r="DT14" s="0"/>
+      <c r="DU14" s="0"/>
+      <c r="DV14" s="0"/>
+      <c r="DW14" s="0"/>
+      <c r="DX14" s="0"/>
+      <c r="DY14" s="0"/>
+      <c r="DZ14" s="0"/>
+      <c r="EA14" s="0"/>
+      <c r="EB14" s="0"/>
+      <c r="EC14" s="0"/>
+      <c r="ED14" s="0"/>
+      <c r="EE14" s="0"/>
+      <c r="EF14" s="0"/>
+      <c r="EG14" s="0"/>
+      <c r="EH14" s="0"/>
+      <c r="EI14" s="0"/>
+      <c r="EJ14" s="0"/>
+      <c r="EK14" s="0"/>
+      <c r="EL14" s="0"/>
+      <c r="EM14" s="0"/>
+      <c r="EN14" s="0"/>
+      <c r="EO14" s="0"/>
+      <c r="EP14" s="0"/>
+      <c r="EQ14" s="0"/>
+      <c r="ER14" s="0"/>
+      <c r="ES14" s="0"/>
+      <c r="ET14" s="0"/>
+      <c r="EU14" s="0"/>
+      <c r="EV14" s="0"/>
+      <c r="EW14" s="0"/>
+      <c r="EX14" s="0"/>
+      <c r="EY14" s="0"/>
+      <c r="EZ14" s="0"/>
+      <c r="FA14" s="0"/>
+      <c r="FB14" s="0"/>
+      <c r="FC14" s="0"/>
+      <c r="FD14" s="0"/>
+      <c r="FE14" s="0"/>
+      <c r="FF14" s="0"/>
+      <c r="FG14" s="0"/>
+      <c r="FH14" s="0"/>
+      <c r="FI14" s="0"/>
+      <c r="FJ14" s="0"/>
+      <c r="FK14" s="0"/>
+      <c r="FL14" s="0"/>
+      <c r="FM14" s="0"/>
+      <c r="FN14" s="0"/>
+      <c r="FO14" s="0"/>
+      <c r="FP14" s="0"/>
+      <c r="FQ14" s="0"/>
+      <c r="FR14" s="0"/>
+      <c r="FS14" s="0"/>
+      <c r="FT14" s="0"/>
+      <c r="FU14" s="0"/>
+      <c r="FV14" s="0"/>
+      <c r="FW14" s="0"/>
+      <c r="FX14" s="0"/>
+      <c r="FY14" s="0"/>
+      <c r="FZ14" s="0"/>
+      <c r="GA14" s="0"/>
+      <c r="GB14" s="0"/>
+      <c r="GC14" s="0"/>
+      <c r="GD14" s="0"/>
+      <c r="GE14" s="0"/>
+      <c r="GF14" s="0"/>
+      <c r="GG14" s="0"/>
+      <c r="GH14" s="0"/>
+      <c r="GI14" s="0"/>
+      <c r="GJ14" s="0"/>
+      <c r="GK14" s="0"/>
+      <c r="GL14" s="0"/>
+      <c r="GM14" s="0"/>
+      <c r="GN14" s="0"/>
+      <c r="GO14" s="0"/>
+      <c r="GP14" s="0"/>
+      <c r="GQ14" s="0"/>
+      <c r="GR14" s="0"/>
+      <c r="GS14" s="0"/>
+      <c r="GT14" s="0"/>
+      <c r="GU14" s="0"/>
+      <c r="GV14" s="0"/>
+      <c r="GW14" s="0"/>
+      <c r="GX14" s="0"/>
+      <c r="GY14" s="0"/>
+      <c r="GZ14" s="0"/>
+      <c r="HA14" s="0"/>
+      <c r="HB14" s="0"/>
+      <c r="HC14" s="0"/>
+      <c r="HD14" s="0"/>
+      <c r="HE14" s="0"/>
+      <c r="HF14" s="0"/>
+      <c r="HG14" s="0"/>
+      <c r="HH14" s="0"/>
+      <c r="HI14" s="0"/>
+      <c r="HJ14" s="0"/>
+      <c r="HK14" s="0"/>
+      <c r="HL14" s="0"/>
+      <c r="HM14" s="0"/>
+      <c r="HN14" s="0"/>
+      <c r="HO14" s="0"/>
+      <c r="HP14" s="0"/>
+      <c r="HQ14" s="0"/>
+      <c r="HR14" s="0"/>
+      <c r="HS14" s="0"/>
+      <c r="HT14" s="0"/>
+      <c r="HU14" s="0"/>
+      <c r="HV14" s="0"/>
+      <c r="HW14" s="0"/>
+      <c r="HX14" s="0"/>
+      <c r="HY14" s="0"/>
+      <c r="HZ14" s="0"/>
+      <c r="IA14" s="0"/>
+      <c r="IB14" s="0"/>
+      <c r="IC14" s="0"/>
+      <c r="ID14" s="0"/>
+      <c r="IE14" s="0"/>
+      <c r="IF14" s="0"/>
+      <c r="IG14" s="0"/>
+      <c r="IH14" s="0"/>
+      <c r="II14" s="0"/>
+      <c r="IJ14" s="0"/>
+      <c r="IK14" s="0"/>
+      <c r="IL14" s="0"/>
+      <c r="IM14" s="0"/>
+      <c r="IN14" s="0"/>
+      <c r="IO14" s="0"/>
+      <c r="IP14" s="0"/>
+      <c r="IQ14" s="0"/>
+      <c r="IR14" s="0"/>
+      <c r="IS14" s="0"/>
+      <c r="IT14" s="0"/>
+      <c r="IU14" s="0"/>
+      <c r="IV14" s="0"/>
+      <c r="IW14" s="0"/>
+      <c r="IX14" s="0"/>
+      <c r="IY14" s="0"/>
+      <c r="IZ14" s="0"/>
+      <c r="JA14" s="0"/>
+      <c r="JB14" s="0"/>
+      <c r="JC14" s="0"/>
+      <c r="JD14" s="0"/>
+      <c r="JE14" s="0"/>
+      <c r="JF14" s="0"/>
+      <c r="JG14" s="0"/>
+      <c r="JH14" s="0"/>
+      <c r="JI14" s="0"/>
+      <c r="JJ14" s="0"/>
+      <c r="JK14" s="0"/>
+      <c r="JL14" s="0"/>
+      <c r="JM14" s="0"/>
+      <c r="JN14" s="0"/>
+      <c r="JO14" s="0"/>
+      <c r="JP14" s="0"/>
+      <c r="JQ14" s="0"/>
+      <c r="JR14" s="0"/>
+      <c r="JS14" s="0"/>
+      <c r="JT14" s="0"/>
+      <c r="JU14" s="0"/>
+      <c r="JV14" s="0"/>
+      <c r="JW14" s="0"/>
+      <c r="JX14" s="0"/>
+      <c r="JY14" s="0"/>
+      <c r="JZ14" s="0"/>
+      <c r="KA14" s="0"/>
+      <c r="KB14" s="0"/>
+      <c r="KC14" s="0"/>
+      <c r="KD14" s="0"/>
+      <c r="KE14" s="0"/>
+      <c r="KF14" s="0"/>
+      <c r="KG14" s="0"/>
+      <c r="KH14" s="0"/>
+      <c r="KI14" s="0"/>
+      <c r="KJ14" s="0"/>
+      <c r="KK14" s="0"/>
+      <c r="KL14" s="0"/>
+      <c r="KM14" s="0"/>
+      <c r="KN14" s="0"/>
+      <c r="KO14" s="0"/>
+      <c r="KP14" s="0"/>
+      <c r="KQ14" s="0"/>
+      <c r="KR14" s="0"/>
+      <c r="KS14" s="0"/>
+      <c r="KT14" s="0"/>
+      <c r="KU14" s="0"/>
+      <c r="KV14" s="0"/>
+      <c r="KW14" s="0"/>
+      <c r="KX14" s="0"/>
+      <c r="KY14" s="0"/>
+      <c r="KZ14" s="0"/>
+      <c r="LA14" s="0"/>
+      <c r="LB14" s="0"/>
+      <c r="LC14" s="0"/>
+      <c r="LD14" s="0"/>
+      <c r="LE14" s="0"/>
+      <c r="LF14" s="0"/>
+      <c r="LG14" s="0"/>
+      <c r="LH14" s="0"/>
+      <c r="LI14" s="0"/>
+      <c r="LJ14" s="0"/>
+      <c r="LK14" s="0"/>
+      <c r="LL14" s="0"/>
+      <c r="LM14" s="0"/>
+      <c r="LN14" s="0"/>
+      <c r="LO14" s="0"/>
+      <c r="LP14" s="0"/>
+      <c r="LQ14" s="0"/>
+      <c r="LR14" s="0"/>
+      <c r="LS14" s="0"/>
+      <c r="LT14" s="0"/>
+      <c r="LU14" s="0"/>
+      <c r="LV14" s="0"/>
+      <c r="LW14" s="0"/>
+      <c r="LX14" s="0"/>
+      <c r="LY14" s="0"/>
+      <c r="LZ14" s="0"/>
+      <c r="MA14" s="0"/>
+      <c r="MB14" s="0"/>
+      <c r="MC14" s="0"/>
+      <c r="MD14" s="0"/>
+      <c r="ME14" s="0"/>
+      <c r="MF14" s="0"/>
+      <c r="MG14" s="0"/>
+      <c r="MH14" s="0"/>
+      <c r="MI14" s="0"/>
+      <c r="MJ14" s="0"/>
+      <c r="MK14" s="0"/>
+      <c r="ML14" s="0"/>
+      <c r="MM14" s="0"/>
+      <c r="MN14" s="0"/>
+      <c r="MO14" s="0"/>
+      <c r="MP14" s="0"/>
+      <c r="MQ14" s="0"/>
+      <c r="MR14" s="0"/>
+      <c r="MS14" s="0"/>
+      <c r="MT14" s="0"/>
+      <c r="MU14" s="0"/>
+      <c r="MV14" s="0"/>
+      <c r="MW14" s="0"/>
+      <c r="MX14" s="0"/>
+      <c r="MY14" s="0"/>
+      <c r="MZ14" s="0"/>
+      <c r="NA14" s="0"/>
+      <c r="NB14" s="0"/>
+      <c r="NC14" s="0"/>
+      <c r="ND14" s="0"/>
+      <c r="NE14" s="0"/>
+      <c r="NF14" s="0"/>
+      <c r="NG14" s="0"/>
+      <c r="NH14" s="0"/>
+      <c r="NI14" s="0"/>
+      <c r="NJ14" s="0"/>
+      <c r="NK14" s="0"/>
+      <c r="NL14" s="0"/>
+      <c r="NM14" s="0"/>
+      <c r="NN14" s="0"/>
+      <c r="NO14" s="0"/>
+      <c r="NP14" s="0"/>
+      <c r="NQ14" s="0"/>
+      <c r="NR14" s="0"/>
+      <c r="NS14" s="0"/>
+      <c r="NT14" s="0"/>
+      <c r="NU14" s="0"/>
+      <c r="NV14" s="0"/>
+      <c r="NW14" s="0"/>
+      <c r="NX14" s="0"/>
+      <c r="NY14" s="0"/>
+      <c r="NZ14" s="0"/>
+      <c r="OA14" s="0"/>
+      <c r="OB14" s="0"/>
+      <c r="OC14" s="0"/>
+      <c r="OD14" s="0"/>
+      <c r="OE14" s="0"/>
+      <c r="OF14" s="0"/>
+      <c r="OG14" s="0"/>
+      <c r="OH14" s="0"/>
+      <c r="OI14" s="0"/>
+      <c r="OJ14" s="0"/>
+      <c r="OK14" s="0"/>
+      <c r="OL14" s="0"/>
+      <c r="OM14" s="0"/>
+      <c r="ON14" s="0"/>
+      <c r="OO14" s="0"/>
+      <c r="OP14" s="0"/>
+      <c r="OQ14" s="0"/>
+      <c r="OR14" s="0"/>
+      <c r="OS14" s="0"/>
+      <c r="OT14" s="0"/>
+      <c r="OU14" s="0"/>
+      <c r="OV14" s="0"/>
+      <c r="OW14" s="0"/>
+      <c r="OX14" s="0"/>
+      <c r="OY14" s="0"/>
+      <c r="OZ14" s="0"/>
+      <c r="PA14" s="0"/>
+      <c r="PB14" s="0"/>
+      <c r="PC14" s="0"/>
+      <c r="PD14" s="0"/>
+      <c r="PE14" s="0"/>
+      <c r="PF14" s="0"/>
+      <c r="PG14" s="0"/>
+      <c r="PH14" s="0"/>
+      <c r="PI14" s="0"/>
+      <c r="PJ14" s="0"/>
+      <c r="PK14" s="0"/>
+      <c r="PL14" s="0"/>
+      <c r="PM14" s="0"/>
+      <c r="PN14" s="0"/>
+      <c r="PO14" s="0"/>
+      <c r="PP14" s="0"/>
+      <c r="PQ14" s="0"/>
+      <c r="PR14" s="0"/>
+      <c r="PS14" s="0"/>
+      <c r="PT14" s="0"/>
+      <c r="PU14" s="0"/>
+      <c r="PV14" s="0"/>
+      <c r="PW14" s="0"/>
+      <c r="PX14" s="0"/>
+      <c r="PY14" s="0"/>
+      <c r="PZ14" s="0"/>
+      <c r="QA14" s="0"/>
+      <c r="QB14" s="0"/>
+      <c r="QC14" s="0"/>
+      <c r="QD14" s="0"/>
+      <c r="QE14" s="0"/>
+      <c r="QF14" s="0"/>
+      <c r="QG14" s="0"/>
+      <c r="QH14" s="0"/>
+      <c r="QI14" s="0"/>
+      <c r="QJ14" s="0"/>
+      <c r="QK14" s="0"/>
+      <c r="QL14" s="0"/>
+      <c r="QM14" s="0"/>
+      <c r="QN14" s="0"/>
+      <c r="QO14" s="0"/>
+      <c r="QP14" s="0"/>
+      <c r="QQ14" s="0"/>
+      <c r="QR14" s="0"/>
+      <c r="QS14" s="0"/>
+      <c r="QT14" s="0"/>
+      <c r="QU14" s="0"/>
+      <c r="QV14" s="0"/>
+      <c r="QW14" s="0"/>
+      <c r="QX14" s="0"/>
+      <c r="QY14" s="0"/>
+      <c r="QZ14" s="0"/>
+      <c r="RA14" s="0"/>
+      <c r="RB14" s="0"/>
+      <c r="RC14" s="0"/>
+      <c r="RD14" s="0"/>
+      <c r="RE14" s="0"/>
+      <c r="RF14" s="0"/>
+      <c r="RG14" s="0"/>
+      <c r="RH14" s="0"/>
+      <c r="RI14" s="0"/>
+      <c r="RJ14" s="0"/>
+      <c r="RK14" s="0"/>
+      <c r="RL14" s="0"/>
+      <c r="RM14" s="0"/>
+      <c r="RN14" s="0"/>
+      <c r="RO14" s="0"/>
+      <c r="RP14" s="0"/>
+      <c r="RQ14" s="0"/>
+      <c r="RR14" s="0"/>
+      <c r="RS14" s="0"/>
+      <c r="RT14" s="0"/>
+      <c r="RU14" s="0"/>
+      <c r="RV14" s="0"/>
+      <c r="RW14" s="0"/>
+      <c r="RX14" s="0"/>
+      <c r="RY14" s="0"/>
+      <c r="RZ14" s="0"/>
+      <c r="SA14" s="0"/>
+      <c r="SB14" s="0"/>
+      <c r="SC14" s="0"/>
+      <c r="SD14" s="0"/>
+      <c r="SE14" s="0"/>
+      <c r="SF14" s="0"/>
+      <c r="SG14" s="0"/>
+      <c r="SH14" s="0"/>
+      <c r="SI14" s="0"/>
+      <c r="SJ14" s="0"/>
+      <c r="SK14" s="0"/>
+      <c r="SL14" s="0"/>
+      <c r="SM14" s="0"/>
+      <c r="SN14" s="0"/>
+      <c r="SO14" s="0"/>
+      <c r="SP14" s="0"/>
+      <c r="SQ14" s="0"/>
+      <c r="SR14" s="0"/>
+      <c r="SS14" s="0"/>
+      <c r="ST14" s="0"/>
+      <c r="SU14" s="0"/>
+      <c r="SV14" s="0"/>
+      <c r="SW14" s="0"/>
+      <c r="SX14" s="0"/>
+      <c r="SY14" s="0"/>
+      <c r="SZ14" s="0"/>
+      <c r="TA14" s="0"/>
+      <c r="TB14" s="0"/>
+      <c r="TC14" s="0"/>
+      <c r="TD14" s="0"/>
+      <c r="TE14" s="0"/>
+      <c r="TF14" s="0"/>
+      <c r="TG14" s="0"/>
+      <c r="TH14" s="0"/>
+      <c r="TI14" s="0"/>
+      <c r="TJ14" s="0"/>
+      <c r="TK14" s="0"/>
+      <c r="TL14" s="0"/>
+      <c r="TM14" s="0"/>
+      <c r="TN14" s="0"/>
+      <c r="TO14" s="0"/>
+      <c r="TP14" s="0"/>
+      <c r="TQ14" s="0"/>
+      <c r="TR14" s="0"/>
+      <c r="TS14" s="0"/>
+      <c r="TT14" s="0"/>
+      <c r="TU14" s="0"/>
+      <c r="TV14" s="0"/>
+      <c r="TW14" s="0"/>
+      <c r="TX14" s="0"/>
+      <c r="TY14" s="0"/>
+      <c r="TZ14" s="0"/>
+      <c r="UA14" s="0"/>
+      <c r="UB14" s="0"/>
+      <c r="UC14" s="0"/>
+      <c r="UD14" s="0"/>
+      <c r="UE14" s="0"/>
+      <c r="UF14" s="0"/>
+      <c r="UG14" s="0"/>
+      <c r="UH14" s="0"/>
+      <c r="UI14" s="0"/>
+      <c r="UJ14" s="0"/>
+      <c r="UK14" s="0"/>
+      <c r="UL14" s="0"/>
+      <c r="UM14" s="0"/>
+      <c r="UN14" s="0"/>
+      <c r="UO14" s="0"/>
+      <c r="UP14" s="0"/>
+      <c r="UQ14" s="0"/>
+      <c r="UR14" s="0"/>
+      <c r="US14" s="0"/>
+      <c r="UT14" s="0"/>
+      <c r="UU14" s="0"/>
+      <c r="UV14" s="0"/>
+      <c r="UW14" s="0"/>
+      <c r="UX14" s="0"/>
+      <c r="UY14" s="0"/>
+      <c r="UZ14" s="0"/>
+      <c r="VA14" s="0"/>
+      <c r="VB14" s="0"/>
+      <c r="VC14" s="0"/>
+      <c r="VD14" s="0"/>
+      <c r="VE14" s="0"/>
+      <c r="VF14" s="0"/>
+      <c r="VG14" s="0"/>
+      <c r="VH14" s="0"/>
+      <c r="VI14" s="0"/>
+      <c r="VJ14" s="0"/>
+      <c r="VK14" s="0"/>
+      <c r="VL14" s="0"/>
+      <c r="VM14" s="0"/>
+      <c r="VN14" s="0"/>
+      <c r="VO14" s="0"/>
+      <c r="VP14" s="0"/>
+      <c r="VQ14" s="0"/>
+      <c r="VR14" s="0"/>
+      <c r="VS14" s="0"/>
+      <c r="VT14" s="0"/>
+      <c r="VU14" s="0"/>
+      <c r="VV14" s="0"/>
+      <c r="VW14" s="0"/>
+      <c r="VX14" s="0"/>
+      <c r="VY14" s="0"/>
+      <c r="VZ14" s="0"/>
+      <c r="WA14" s="0"/>
+      <c r="WB14" s="0"/>
+      <c r="WC14" s="0"/>
+      <c r="WD14" s="0"/>
+      <c r="WE14" s="0"/>
+      <c r="WF14" s="0"/>
+      <c r="WG14" s="0"/>
+      <c r="WH14" s="0"/>
+      <c r="WI14" s="0"/>
+      <c r="WJ14" s="0"/>
+      <c r="WK14" s="0"/>
+      <c r="WL14" s="0"/>
+      <c r="WM14" s="0"/>
+      <c r="WN14" s="0"/>
+      <c r="WO14" s="0"/>
+      <c r="WP14" s="0"/>
+      <c r="WQ14" s="0"/>
+      <c r="WR14" s="0"/>
+      <c r="WS14" s="0"/>
+      <c r="WT14" s="0"/>
+      <c r="WU14" s="0"/>
+      <c r="WV14" s="0"/>
+      <c r="WW14" s="0"/>
+      <c r="WX14" s="0"/>
+      <c r="WY14" s="0"/>
+      <c r="WZ14" s="0"/>
+      <c r="XA14" s="0"/>
+      <c r="XB14" s="0"/>
+      <c r="XC14" s="0"/>
+      <c r="XD14" s="0"/>
+      <c r="XE14" s="0"/>
+      <c r="XF14" s="0"/>
+      <c r="XG14" s="0"/>
+      <c r="XH14" s="0"/>
+      <c r="XI14" s="0"/>
+      <c r="XJ14" s="0"/>
+      <c r="XK14" s="0"/>
+      <c r="XL14" s="0"/>
+      <c r="XM14" s="0"/>
+      <c r="XN14" s="0"/>
+      <c r="XO14" s="0"/>
+      <c r="XP14" s="0"/>
+      <c r="XQ14" s="0"/>
+      <c r="XR14" s="0"/>
+      <c r="XS14" s="0"/>
+      <c r="XT14" s="0"/>
+      <c r="XU14" s="0"/>
+      <c r="XV14" s="0"/>
+      <c r="XW14" s="0"/>
+      <c r="XX14" s="0"/>
+      <c r="XY14" s="0"/>
+      <c r="XZ14" s="0"/>
+      <c r="YA14" s="0"/>
+      <c r="YB14" s="0"/>
+      <c r="YC14" s="0"/>
+      <c r="YD14" s="0"/>
+      <c r="YE14" s="0"/>
+      <c r="YF14" s="0"/>
+      <c r="YG14" s="0"/>
+      <c r="YH14" s="0"/>
+      <c r="YI14" s="0"/>
+      <c r="YJ14" s="0"/>
+      <c r="YK14" s="0"/>
+      <c r="YL14" s="0"/>
+      <c r="YM14" s="0"/>
+      <c r="YN14" s="0"/>
+      <c r="YO14" s="0"/>
+      <c r="YP14" s="0"/>
+      <c r="YQ14" s="0"/>
+      <c r="YR14" s="0"/>
+      <c r="YS14" s="0"/>
+      <c r="YT14" s="0"/>
+      <c r="YU14" s="0"/>
+      <c r="YV14" s="0"/>
+      <c r="YW14" s="0"/>
+      <c r="YX14" s="0"/>
+      <c r="YY14" s="0"/>
+      <c r="YZ14" s="0"/>
+      <c r="ZA14" s="0"/>
+      <c r="ZB14" s="0"/>
+      <c r="ZC14" s="0"/>
+      <c r="ZD14" s="0"/>
+      <c r="ZE14" s="0"/>
+      <c r="ZF14" s="0"/>
+      <c r="ZG14" s="0"/>
+      <c r="ZH14" s="0"/>
+      <c r="ZI14" s="0"/>
+      <c r="ZJ14" s="0"/>
+      <c r="ZK14" s="0"/>
+      <c r="ZL14" s="0"/>
+      <c r="ZM14" s="0"/>
+      <c r="ZN14" s="0"/>
+      <c r="ZO14" s="0"/>
+      <c r="ZP14" s="0"/>
+      <c r="ZQ14" s="0"/>
+      <c r="ZR14" s="0"/>
+      <c r="ZS14" s="0"/>
+      <c r="ZT14" s="0"/>
+      <c r="ZU14" s="0"/>
+      <c r="ZV14" s="0"/>
+      <c r="ZW14" s="0"/>
+      <c r="ZX14" s="0"/>
+      <c r="ZY14" s="0"/>
+      <c r="ZZ14" s="0"/>
+      <c r="AAA14" s="0"/>
+      <c r="AAB14" s="0"/>
+      <c r="AAC14" s="0"/>
+      <c r="AAD14" s="0"/>
+      <c r="AAE14" s="0"/>
+      <c r="AAF14" s="0"/>
+      <c r="AAG14" s="0"/>
+      <c r="AAH14" s="0"/>
+      <c r="AAI14" s="0"/>
+      <c r="AAJ14" s="0"/>
+      <c r="AAK14" s="0"/>
+      <c r="AAL14" s="0"/>
+      <c r="AAM14" s="0"/>
+      <c r="AAN14" s="0"/>
+      <c r="AAO14" s="0"/>
+      <c r="AAP14" s="0"/>
+      <c r="AAQ14" s="0"/>
+      <c r="AAR14" s="0"/>
+      <c r="AAS14" s="0"/>
+      <c r="AAT14" s="0"/>
+      <c r="AAU14" s="0"/>
+      <c r="AAV14" s="0"/>
+      <c r="AAW14" s="0"/>
+      <c r="AAX14" s="0"/>
+      <c r="AAY14" s="0"/>
+      <c r="AAZ14" s="0"/>
+      <c r="ABA14" s="0"/>
+      <c r="ABB14" s="0"/>
+      <c r="ABC14" s="0"/>
+      <c r="ABD14" s="0"/>
+      <c r="ABE14" s="0"/>
+      <c r="ABF14" s="0"/>
+      <c r="ABG14" s="0"/>
+      <c r="ABH14" s="0"/>
+      <c r="ABI14" s="0"/>
+      <c r="ABJ14" s="0"/>
+      <c r="ABK14" s="0"/>
+      <c r="ABL14" s="0"/>
+      <c r="ABM14" s="0"/>
+      <c r="ABN14" s="0"/>
+      <c r="ABO14" s="0"/>
+      <c r="ABP14" s="0"/>
+      <c r="ABQ14" s="0"/>
+      <c r="ABR14" s="0"/>
+      <c r="ABS14" s="0"/>
+      <c r="ABT14" s="0"/>
+      <c r="ABU14" s="0"/>
+      <c r="ABV14" s="0"/>
+      <c r="ABW14" s="0"/>
+      <c r="ABX14" s="0"/>
+      <c r="ABY14" s="0"/>
+      <c r="ABZ14" s="0"/>
+      <c r="ACA14" s="0"/>
+      <c r="ACB14" s="0"/>
+      <c r="ACC14" s="0"/>
+      <c r="ACD14" s="0"/>
+      <c r="ACE14" s="0"/>
+      <c r="ACF14" s="0"/>
+      <c r="ACG14" s="0"/>
+      <c r="ACH14" s="0"/>
+      <c r="ACI14" s="0"/>
+      <c r="ACJ14" s="0"/>
+      <c r="ACK14" s="0"/>
+      <c r="ACL14" s="0"/>
+      <c r="ACM14" s="0"/>
+      <c r="ACN14" s="0"/>
+      <c r="ACO14" s="0"/>
+      <c r="ACP14" s="0"/>
+      <c r="ACQ14" s="0"/>
+      <c r="ACR14" s="0"/>
+      <c r="ACS14" s="0"/>
+      <c r="ACT14" s="0"/>
+      <c r="ACU14" s="0"/>
+      <c r="ACV14" s="0"/>
+      <c r="ACW14" s="0"/>
+      <c r="ACX14" s="0"/>
+      <c r="ACY14" s="0"/>
+      <c r="ACZ14" s="0"/>
+      <c r="ADA14" s="0"/>
+      <c r="ADB14" s="0"/>
+      <c r="ADC14" s="0"/>
+      <c r="ADD14" s="0"/>
+      <c r="ADE14" s="0"/>
+      <c r="ADF14" s="0"/>
+      <c r="ADG14" s="0"/>
+      <c r="ADH14" s="0"/>
+      <c r="ADI14" s="0"/>
+      <c r="ADJ14" s="0"/>
+      <c r="ADK14" s="0"/>
+      <c r="ADL14" s="0"/>
+      <c r="ADM14" s="0"/>
+      <c r="ADN14" s="0"/>
+      <c r="ADO14" s="0"/>
+      <c r="ADP14" s="0"/>
+      <c r="ADQ14" s="0"/>
+      <c r="ADR14" s="0"/>
+      <c r="ADS14" s="0"/>
+      <c r="ADT14" s="0"/>
+      <c r="ADU14" s="0"/>
+      <c r="ADV14" s="0"/>
+      <c r="ADW14" s="0"/>
+      <c r="ADX14" s="0"/>
+      <c r="ADY14" s="0"/>
+      <c r="ADZ14" s="0"/>
+      <c r="AEA14" s="0"/>
+      <c r="AEB14" s="0"/>
+      <c r="AEC14" s="0"/>
+      <c r="AED14" s="0"/>
+      <c r="AEE14" s="0"/>
+      <c r="AEF14" s="0"/>
+      <c r="AEG14" s="0"/>
+      <c r="AEH14" s="0"/>
+      <c r="AEI14" s="0"/>
+      <c r="AEJ14" s="0"/>
+      <c r="AEK14" s="0"/>
+      <c r="AEL14" s="0"/>
+      <c r="AEM14" s="0"/>
+      <c r="AEN14" s="0"/>
+      <c r="AEO14" s="0"/>
+      <c r="AEP14" s="0"/>
+      <c r="AEQ14" s="0"/>
+      <c r="AER14" s="0"/>
+      <c r="AES14" s="0"/>
+      <c r="AET14" s="0"/>
+      <c r="AEU14" s="0"/>
+      <c r="AEV14" s="0"/>
+      <c r="AEW14" s="0"/>
+      <c r="AEX14" s="0"/>
+      <c r="AEY14" s="0"/>
+      <c r="AEZ14" s="0"/>
+      <c r="AFA14" s="0"/>
+      <c r="AFB14" s="0"/>
+      <c r="AFC14" s="0"/>
+      <c r="AFD14" s="0"/>
+      <c r="AFE14" s="0"/>
+      <c r="AFF14" s="0"/>
+      <c r="AFG14" s="0"/>
+      <c r="AFH14" s="0"/>
+      <c r="AFI14" s="0"/>
+      <c r="AFJ14" s="0"/>
+      <c r="AFK14" s="0"/>
+      <c r="AFL14" s="0"/>
+      <c r="AFM14" s="0"/>
+      <c r="AFN14" s="0"/>
+      <c r="AFO14" s="0"/>
+      <c r="AFP14" s="0"/>
+      <c r="AFQ14" s="0"/>
+      <c r="AFR14" s="0"/>
+      <c r="AFS14" s="0"/>
+      <c r="AFT14" s="0"/>
+      <c r="AFU14" s="0"/>
+      <c r="AFV14" s="0"/>
+      <c r="AFW14" s="0"/>
+      <c r="AFX14" s="0"/>
+      <c r="AFY14" s="0"/>
+      <c r="AFZ14" s="0"/>
+      <c r="AGA14" s="0"/>
+      <c r="AGB14" s="0"/>
+      <c r="AGC14" s="0"/>
+      <c r="AGD14" s="0"/>
+      <c r="AGE14" s="0"/>
+      <c r="AGF14" s="0"/>
+      <c r="AGG14" s="0"/>
+      <c r="AGH14" s="0"/>
+      <c r="AGI14" s="0"/>
+      <c r="AGJ14" s="0"/>
+      <c r="AGK14" s="0"/>
+      <c r="AGL14" s="0"/>
+      <c r="AGM14" s="0"/>
+      <c r="AGN14" s="0"/>
+      <c r="AGO14" s="0"/>
+      <c r="AGP14" s="0"/>
+      <c r="AGQ14" s="0"/>
+      <c r="AGR14" s="0"/>
+      <c r="AGS14" s="0"/>
+      <c r="AGT14" s="0"/>
+      <c r="AGU14" s="0"/>
+      <c r="AGV14" s="0"/>
+      <c r="AGW14" s="0"/>
+      <c r="AGX14" s="0"/>
+      <c r="AGY14" s="0"/>
+      <c r="AGZ14" s="0"/>
+      <c r="AHA14" s="0"/>
+      <c r="AHB14" s="0"/>
+      <c r="AHC14" s="0"/>
+      <c r="AHD14" s="0"/>
+      <c r="AHE14" s="0"/>
+      <c r="AHF14" s="0"/>
+      <c r="AHG14" s="0"/>
+      <c r="AHH14" s="0"/>
+      <c r="AHI14" s="0"/>
+      <c r="AHJ14" s="0"/>
+      <c r="AHK14" s="0"/>
+      <c r="AHL14" s="0"/>
+      <c r="AHM14" s="0"/>
+      <c r="AHN14" s="0"/>
+      <c r="AHO14" s="0"/>
+      <c r="AHP14" s="0"/>
+      <c r="AHQ14" s="0"/>
+      <c r="AHR14" s="0"/>
+      <c r="AHS14" s="0"/>
+      <c r="AHT14" s="0"/>
+      <c r="AHU14" s="0"/>
+      <c r="AHV14" s="0"/>
+      <c r="AHW14" s="0"/>
+      <c r="AHX14" s="0"/>
+      <c r="AHY14" s="0"/>
+      <c r="AHZ14" s="0"/>
+      <c r="AIA14" s="0"/>
+      <c r="AIB14" s="0"/>
+      <c r="AIC14" s="0"/>
+      <c r="AID14" s="0"/>
+      <c r="AIE14" s="0"/>
+      <c r="AIF14" s="0"/>
+      <c r="AIG14" s="0"/>
+      <c r="AIH14" s="0"/>
+      <c r="AII14" s="0"/>
+      <c r="AIJ14" s="0"/>
+      <c r="AIK14" s="0"/>
+      <c r="AIL14" s="0"/>
+      <c r="AIM14" s="0"/>
+      <c r="AIN14" s="0"/>
+      <c r="AIO14" s="0"/>
+      <c r="AIP14" s="0"/>
+      <c r="AIQ14" s="0"/>
+      <c r="AIR14" s="0"/>
+      <c r="AIS14" s="0"/>
+      <c r="AIT14" s="0"/>
+      <c r="AIU14" s="0"/>
+      <c r="AIV14" s="0"/>
+      <c r="AIW14" s="0"/>
+      <c r="AIX14" s="0"/>
+      <c r="AIY14" s="0"/>
+      <c r="AIZ14" s="0"/>
+      <c r="AJA14" s="0"/>
+      <c r="AJB14" s="0"/>
+      <c r="AJC14" s="0"/>
+      <c r="AJD14" s="0"/>
+      <c r="AJE14" s="0"/>
+      <c r="AJF14" s="0"/>
+      <c r="AJG14" s="0"/>
+      <c r="AJH14" s="0"/>
+      <c r="AJI14" s="0"/>
+      <c r="AJJ14" s="0"/>
+      <c r="AJK14" s="0"/>
+      <c r="AJL14" s="0"/>
+      <c r="AJM14" s="0"/>
+      <c r="AJN14" s="0"/>
+      <c r="AJO14" s="0"/>
+      <c r="AJP14" s="0"/>
+      <c r="AJQ14" s="0"/>
+      <c r="AJR14" s="0"/>
+      <c r="AJS14" s="0"/>
+      <c r="AJT14" s="0"/>
+      <c r="AJU14" s="0"/>
+      <c r="AJV14" s="0"/>
+      <c r="AJW14" s="0"/>
+      <c r="AJX14" s="0"/>
+      <c r="AJY14" s="0"/>
+      <c r="AJZ14" s="0"/>
+      <c r="AKA14" s="0"/>
+      <c r="AKB14" s="0"/>
+      <c r="AKC14" s="0"/>
+      <c r="AKD14" s="0"/>
+      <c r="AKE14" s="0"/>
+      <c r="AKF14" s="0"/>
+      <c r="AKG14" s="0"/>
+      <c r="AKH14" s="0"/>
+      <c r="AKI14" s="0"/>
+      <c r="AKJ14" s="0"/>
+      <c r="AKK14" s="0"/>
+      <c r="AKL14" s="0"/>
+      <c r="AKM14" s="0"/>
+      <c r="AKN14" s="0"/>
+      <c r="AKO14" s="0"/>
+      <c r="AKP14" s="0"/>
+      <c r="AKQ14" s="0"/>
+      <c r="AKR14" s="0"/>
+      <c r="AKS14" s="0"/>
+      <c r="AKT14" s="0"/>
+      <c r="AKU14" s="0"/>
+      <c r="AKV14" s="0"/>
+      <c r="AKW14" s="0"/>
+      <c r="AKX14" s="0"/>
+      <c r="AKY14" s="0"/>
+      <c r="AKZ14" s="0"/>
+      <c r="ALA14" s="0"/>
+      <c r="ALB14" s="0"/>
+      <c r="ALC14" s="0"/>
+      <c r="ALD14" s="0"/>
+      <c r="ALE14" s="0"/>
+      <c r="ALF14" s="0"/>
+      <c r="ALG14" s="0"/>
+      <c r="ALH14" s="0"/>
+      <c r="ALI14" s="0"/>
+      <c r="ALJ14" s="0"/>
+      <c r="ALK14" s="0"/>
+      <c r="ALL14" s="0"/>
+      <c r="ALM14" s="0"/>
+      <c r="ALN14" s="0"/>
+      <c r="ALO14" s="0"/>
+      <c r="ALP14" s="0"/>
+      <c r="ALQ14" s="0"/>
+      <c r="ALR14" s="0"/>
+      <c r="ALS14" s="0"/>
+      <c r="ALT14" s="0"/>
+      <c r="ALU14" s="0"/>
+      <c r="ALV14" s="0"/>
+      <c r="ALW14" s="0"/>
+      <c r="ALX14" s="0"/>
+      <c r="ALY14" s="0"/>
+      <c r="ALZ14" s="0"/>
+      <c r="AMA14" s="0"/>
+      <c r="AMB14" s="0"/>
+      <c r="AMC14" s="0"/>
+      <c r="AMD14" s="0"/>
+      <c r="AME14" s="0"/>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+      <c r="AD15" s="0"/>
+      <c r="AE15" s="0"/>
+      <c r="AF15" s="0"/>
+      <c r="AG15" s="0"/>
+      <c r="AH15" s="0"/>
+      <c r="AI15" s="0"/>
+      <c r="AJ15" s="0"/>
+      <c r="AK15" s="0"/>
+      <c r="AL15" s="0"/>
+      <c r="AM15" s="0"/>
+      <c r="AN15" s="0"/>
+      <c r="AO15" s="0"/>
+      <c r="AP15" s="0"/>
+      <c r="AQ15" s="0"/>
+      <c r="AR15" s="0"/>
+      <c r="AS15" s="0"/>
+      <c r="AT15" s="0"/>
+      <c r="AU15" s="0"/>
+      <c r="AV15" s="0"/>
+      <c r="AW15" s="0"/>
+      <c r="AX15" s="0"/>
+      <c r="AY15" s="0"/>
+      <c r="AZ15" s="0"/>
+      <c r="BA15" s="0"/>
+      <c r="BB15" s="0"/>
+      <c r="BC15" s="0"/>
+      <c r="BD15" s="0"/>
+      <c r="BE15" s="0"/>
+      <c r="BF15" s="0"/>
+      <c r="BG15" s="0"/>
+      <c r="BH15" s="0"/>
+      <c r="BI15" s="0"/>
+      <c r="BJ15" s="0"/>
+      <c r="BK15" s="0"/>
+      <c r="BL15" s="0"/>
+      <c r="BM15" s="0"/>
+      <c r="BN15" s="0"/>
+      <c r="BO15" s="0"/>
+      <c r="BP15" s="0"/>
+      <c r="BQ15" s="0"/>
+      <c r="BR15" s="0"/>
+      <c r="BS15" s="0"/>
+      <c r="BT15" s="0"/>
+      <c r="BU15" s="0"/>
+      <c r="BV15" s="0"/>
+      <c r="BW15" s="0"/>
+      <c r="BX15" s="0"/>
+      <c r="BY15" s="0"/>
+      <c r="BZ15" s="0"/>
+      <c r="CA15" s="0"/>
+      <c r="CB15" s="0"/>
+      <c r="CC15" s="0"/>
+      <c r="CD15" s="0"/>
+      <c r="CE15" s="0"/>
+      <c r="CF15" s="0"/>
+      <c r="CG15" s="0"/>
+      <c r="CH15" s="0"/>
+      <c r="CI15" s="0"/>
+      <c r="CJ15" s="0"/>
+      <c r="CK15" s="0"/>
+      <c r="CL15" s="0"/>
+      <c r="CM15" s="0"/>
+      <c r="CN15" s="0"/>
+      <c r="CO15" s="0"/>
+      <c r="CP15" s="0"/>
+      <c r="CQ15" s="0"/>
+      <c r="CR15" s="0"/>
+      <c r="CS15" s="0"/>
+      <c r="CT15" s="0"/>
+      <c r="CU15" s="0"/>
+      <c r="CV15" s="0"/>
+      <c r="CW15" s="0"/>
+      <c r="CX15" s="0"/>
+      <c r="CY15" s="0"/>
+      <c r="CZ15" s="0"/>
+      <c r="DA15" s="0"/>
+      <c r="DB15" s="0"/>
+      <c r="DC15" s="0"/>
+      <c r="DD15" s="0"/>
+      <c r="DE15" s="0"/>
+      <c r="DF15" s="0"/>
+      <c r="DG15" s="0"/>
+      <c r="DH15" s="0"/>
+      <c r="DI15" s="0"/>
+      <c r="DJ15" s="0"/>
+      <c r="DK15" s="0"/>
+      <c r="DL15" s="0"/>
+      <c r="DM15" s="0"/>
+      <c r="DN15" s="0"/>
+      <c r="DO15" s="0"/>
+      <c r="DP15" s="0"/>
+      <c r="DQ15" s="0"/>
+      <c r="DR15" s="0"/>
+      <c r="DS15" s="0"/>
+      <c r="DT15" s="0"/>
+      <c r="DU15" s="0"/>
+      <c r="DV15" s="0"/>
+      <c r="DW15" s="0"/>
+      <c r="DX15" s="0"/>
+      <c r="DY15" s="0"/>
+      <c r="DZ15" s="0"/>
+      <c r="EA15" s="0"/>
+      <c r="EB15" s="0"/>
+      <c r="EC15" s="0"/>
+      <c r="ED15" s="0"/>
+      <c r="EE15" s="0"/>
+      <c r="EF15" s="0"/>
+      <c r="EG15" s="0"/>
+      <c r="EH15" s="0"/>
+      <c r="EI15" s="0"/>
+      <c r="EJ15" s="0"/>
+      <c r="EK15" s="0"/>
+      <c r="EL15" s="0"/>
+      <c r="EM15" s="0"/>
+      <c r="EN15" s="0"/>
+      <c r="EO15" s="0"/>
+      <c r="EP15" s="0"/>
+      <c r="EQ15" s="0"/>
+      <c r="ER15" s="0"/>
+      <c r="ES15" s="0"/>
+      <c r="ET15" s="0"/>
+      <c r="EU15" s="0"/>
+      <c r="EV15" s="0"/>
+      <c r="EW15" s="0"/>
+      <c r="EX15" s="0"/>
+      <c r="EY15" s="0"/>
+      <c r="EZ15" s="0"/>
+      <c r="FA15" s="0"/>
+      <c r="FB15" s="0"/>
+      <c r="FC15" s="0"/>
+      <c r="FD15" s="0"/>
+      <c r="FE15" s="0"/>
+      <c r="FF15" s="0"/>
+      <c r="FG15" s="0"/>
+      <c r="FH15" s="0"/>
+      <c r="FI15" s="0"/>
+      <c r="FJ15" s="0"/>
+      <c r="FK15" s="0"/>
+      <c r="FL15" s="0"/>
+      <c r="FM15" s="0"/>
+      <c r="FN15" s="0"/>
+      <c r="FO15" s="0"/>
+      <c r="FP15" s="0"/>
+      <c r="FQ15" s="0"/>
+      <c r="FR15" s="0"/>
+      <c r="FS15" s="0"/>
+      <c r="FT15" s="0"/>
+      <c r="FU15" s="0"/>
+      <c r="FV15" s="0"/>
+      <c r="FW15" s="0"/>
+      <c r="FX15" s="0"/>
+      <c r="FY15" s="0"/>
+      <c r="FZ15" s="0"/>
+      <c r="GA15" s="0"/>
+      <c r="GB15" s="0"/>
+      <c r="GC15" s="0"/>
+      <c r="GD15" s="0"/>
+      <c r="GE15" s="0"/>
+      <c r="GF15" s="0"/>
+      <c r="GG15" s="0"/>
+      <c r="GH15" s="0"/>
+      <c r="GI15" s="0"/>
+      <c r="GJ15" s="0"/>
+      <c r="GK15" s="0"/>
+      <c r="GL15" s="0"/>
+      <c r="GM15" s="0"/>
+      <c r="GN15" s="0"/>
+      <c r="GO15" s="0"/>
+      <c r="GP15" s="0"/>
+      <c r="GQ15" s="0"/>
+      <c r="GR15" s="0"/>
+      <c r="GS15" s="0"/>
+      <c r="GT15" s="0"/>
+      <c r="GU15" s="0"/>
+      <c r="GV15" s="0"/>
+      <c r="GW15" s="0"/>
+      <c r="GX15" s="0"/>
+      <c r="GY15" s="0"/>
+      <c r="GZ15" s="0"/>
+      <c r="HA15" s="0"/>
+      <c r="HB15" s="0"/>
+      <c r="HC15" s="0"/>
+      <c r="HD15" s="0"/>
+      <c r="HE15" s="0"/>
+      <c r="HF15" s="0"/>
+      <c r="HG15" s="0"/>
+      <c r="HH15" s="0"/>
+      <c r="HI15" s="0"/>
+      <c r="HJ15" s="0"/>
+      <c r="HK15" s="0"/>
+      <c r="HL15" s="0"/>
+      <c r="HM15" s="0"/>
+      <c r="HN15" s="0"/>
+      <c r="HO15" s="0"/>
+      <c r="HP15" s="0"/>
+      <c r="HQ15" s="0"/>
+      <c r="HR15" s="0"/>
+      <c r="HS15" s="0"/>
+      <c r="HT15" s="0"/>
+      <c r="HU15" s="0"/>
+      <c r="HV15" s="0"/>
+      <c r="HW15" s="0"/>
+      <c r="HX15" s="0"/>
+      <c r="HY15" s="0"/>
+      <c r="HZ15" s="0"/>
+      <c r="IA15" s="0"/>
+      <c r="IB15" s="0"/>
+      <c r="IC15" s="0"/>
+      <c r="ID15" s="0"/>
+      <c r="IE15" s="0"/>
+      <c r="IF15" s="0"/>
+      <c r="IG15" s="0"/>
+      <c r="IH15" s="0"/>
+      <c r="II15" s="0"/>
+      <c r="IJ15" s="0"/>
+      <c r="IK15" s="0"/>
+      <c r="IL15" s="0"/>
+      <c r="IM15" s="0"/>
+      <c r="IN15" s="0"/>
+      <c r="IO15" s="0"/>
+      <c r="IP15" s="0"/>
+      <c r="IQ15" s="0"/>
+      <c r="IR15" s="0"/>
+      <c r="IS15" s="0"/>
+      <c r="IT15" s="0"/>
+      <c r="IU15" s="0"/>
+      <c r="IV15" s="0"/>
+      <c r="IW15" s="0"/>
+      <c r="IX15" s="0"/>
+      <c r="IY15" s="0"/>
+      <c r="IZ15" s="0"/>
+      <c r="JA15" s="0"/>
+      <c r="JB15" s="0"/>
+      <c r="JC15" s="0"/>
+      <c r="JD15" s="0"/>
+      <c r="JE15" s="0"/>
+      <c r="JF15" s="0"/>
+      <c r="JG15" s="0"/>
+      <c r="JH15" s="0"/>
+      <c r="JI15" s="0"/>
+      <c r="JJ15" s="0"/>
+      <c r="JK15" s="0"/>
+      <c r="JL15" s="0"/>
+      <c r="JM15" s="0"/>
+      <c r="JN15" s="0"/>
+      <c r="JO15" s="0"/>
+      <c r="JP15" s="0"/>
+      <c r="JQ15" s="0"/>
+      <c r="JR15" s="0"/>
+      <c r="JS15" s="0"/>
+      <c r="JT15" s="0"/>
+      <c r="JU15" s="0"/>
+      <c r="JV15" s="0"/>
+      <c r="JW15" s="0"/>
+      <c r="JX15" s="0"/>
+      <c r="JY15" s="0"/>
+      <c r="JZ15" s="0"/>
+      <c r="KA15" s="0"/>
+      <c r="KB15" s="0"/>
+      <c r="KC15" s="0"/>
+      <c r="KD15" s="0"/>
+      <c r="KE15" s="0"/>
+      <c r="KF15" s="0"/>
+      <c r="KG15" s="0"/>
+      <c r="KH15" s="0"/>
+      <c r="KI15" s="0"/>
+      <c r="KJ15" s="0"/>
+      <c r="KK15" s="0"/>
+      <c r="KL15" s="0"/>
+      <c r="KM15" s="0"/>
+      <c r="KN15" s="0"/>
+      <c r="KO15" s="0"/>
+      <c r="KP15" s="0"/>
+      <c r="KQ15" s="0"/>
+      <c r="KR15" s="0"/>
+      <c r="KS15" s="0"/>
+      <c r="KT15" s="0"/>
+      <c r="KU15" s="0"/>
+      <c r="KV15" s="0"/>
+      <c r="KW15" s="0"/>
+      <c r="KX15" s="0"/>
+      <c r="KY15" s="0"/>
+      <c r="KZ15" s="0"/>
+      <c r="LA15" s="0"/>
+      <c r="LB15" s="0"/>
+      <c r="LC15" s="0"/>
+      <c r="LD15" s="0"/>
+      <c r="LE15" s="0"/>
+      <c r="LF15" s="0"/>
+      <c r="LG15" s="0"/>
+      <c r="LH15" s="0"/>
+      <c r="LI15" s="0"/>
+      <c r="LJ15" s="0"/>
+      <c r="LK15" s="0"/>
+      <c r="LL15" s="0"/>
+      <c r="LM15" s="0"/>
+      <c r="LN15" s="0"/>
+      <c r="LO15" s="0"/>
+      <c r="LP15" s="0"/>
+      <c r="LQ15" s="0"/>
+      <c r="LR15" s="0"/>
+      <c r="LS15" s="0"/>
+      <c r="LT15" s="0"/>
+      <c r="LU15" s="0"/>
+      <c r="LV15" s="0"/>
+      <c r="LW15" s="0"/>
+      <c r="LX15" s="0"/>
+      <c r="LY15" s="0"/>
+      <c r="LZ15" s="0"/>
+      <c r="MA15" s="0"/>
+      <c r="MB15" s="0"/>
+      <c r="MC15" s="0"/>
+      <c r="MD15" s="0"/>
+      <c r="ME15" s="0"/>
+      <c r="MF15" s="0"/>
+      <c r="MG15" s="0"/>
+      <c r="MH15" s="0"/>
+      <c r="MI15" s="0"/>
+      <c r="MJ15" s="0"/>
+      <c r="MK15" s="0"/>
+      <c r="ML15" s="0"/>
+      <c r="MM15" s="0"/>
+      <c r="MN15" s="0"/>
+      <c r="MO15" s="0"/>
+      <c r="MP15" s="0"/>
+      <c r="MQ15" s="0"/>
+      <c r="MR15" s="0"/>
+      <c r="MS15" s="0"/>
+      <c r="MT15" s="0"/>
+      <c r="MU15" s="0"/>
+      <c r="MV15" s="0"/>
+      <c r="MW15" s="0"/>
+      <c r="MX15" s="0"/>
+      <c r="MY15" s="0"/>
+      <c r="MZ15" s="0"/>
+      <c r="NA15" s="0"/>
+      <c r="NB15" s="0"/>
+      <c r="NC15" s="0"/>
+      <c r="ND15" s="0"/>
+      <c r="NE15" s="0"/>
+      <c r="NF15" s="0"/>
+      <c r="NG15" s="0"/>
+      <c r="NH15" s="0"/>
+      <c r="NI15" s="0"/>
+      <c r="NJ15" s="0"/>
+      <c r="NK15" s="0"/>
+      <c r="NL15" s="0"/>
+      <c r="NM15" s="0"/>
+      <c r="NN15" s="0"/>
+      <c r="NO15" s="0"/>
+      <c r="NP15" s="0"/>
+      <c r="NQ15" s="0"/>
+      <c r="NR15" s="0"/>
+      <c r="NS15" s="0"/>
+      <c r="NT15" s="0"/>
+      <c r="NU15" s="0"/>
+      <c r="NV15" s="0"/>
+      <c r="NW15" s="0"/>
+      <c r="NX15" s="0"/>
+      <c r="NY15" s="0"/>
+      <c r="NZ15" s="0"/>
+      <c r="OA15" s="0"/>
+      <c r="OB15" s="0"/>
+      <c r="OC15" s="0"/>
+      <c r="OD15" s="0"/>
+      <c r="OE15" s="0"/>
+      <c r="OF15" s="0"/>
+      <c r="OG15" s="0"/>
+      <c r="OH15" s="0"/>
+      <c r="OI15" s="0"/>
+      <c r="OJ15" s="0"/>
+      <c r="OK15" s="0"/>
+      <c r="OL15" s="0"/>
+      <c r="OM15" s="0"/>
+      <c r="ON15" s="0"/>
+      <c r="OO15" s="0"/>
+      <c r="OP15" s="0"/>
+      <c r="OQ15" s="0"/>
+      <c r="OR15" s="0"/>
+      <c r="OS15" s="0"/>
+      <c r="OT15" s="0"/>
+      <c r="OU15" s="0"/>
+      <c r="OV15" s="0"/>
+      <c r="OW15" s="0"/>
+      <c r="OX15" s="0"/>
+      <c r="OY15" s="0"/>
+      <c r="OZ15" s="0"/>
+      <c r="PA15" s="0"/>
+      <c r="PB15" s="0"/>
+      <c r="PC15" s="0"/>
+      <c r="PD15" s="0"/>
+      <c r="PE15" s="0"/>
+      <c r="PF15" s="0"/>
+      <c r="PG15" s="0"/>
+      <c r="PH15" s="0"/>
+      <c r="PI15" s="0"/>
+      <c r="PJ15" s="0"/>
+      <c r="PK15" s="0"/>
+      <c r="PL15" s="0"/>
+      <c r="PM15" s="0"/>
+      <c r="PN15" s="0"/>
+      <c r="PO15" s="0"/>
+      <c r="PP15" s="0"/>
+      <c r="PQ15" s="0"/>
+      <c r="PR15" s="0"/>
+      <c r="PS15" s="0"/>
+      <c r="PT15" s="0"/>
+      <c r="PU15" s="0"/>
+      <c r="PV15" s="0"/>
+      <c r="PW15" s="0"/>
+      <c r="PX15" s="0"/>
+      <c r="PY15" s="0"/>
+      <c r="PZ15" s="0"/>
+      <c r="QA15" s="0"/>
+      <c r="QB15" s="0"/>
+      <c r="QC15" s="0"/>
+      <c r="QD15" s="0"/>
+      <c r="QE15" s="0"/>
+      <c r="QF15" s="0"/>
+      <c r="QG15" s="0"/>
+      <c r="QH15" s="0"/>
+      <c r="QI15" s="0"/>
+      <c r="QJ15" s="0"/>
+      <c r="QK15" s="0"/>
+      <c r="QL15" s="0"/>
+      <c r="QM15" s="0"/>
+      <c r="QN15" s="0"/>
+      <c r="QO15" s="0"/>
+      <c r="QP15" s="0"/>
+      <c r="QQ15" s="0"/>
+      <c r="QR15" s="0"/>
+      <c r="QS15" s="0"/>
+      <c r="QT15" s="0"/>
+      <c r="QU15" s="0"/>
+      <c r="QV15" s="0"/>
+      <c r="QW15" s="0"/>
+      <c r="QX15" s="0"/>
+      <c r="QY15" s="0"/>
+      <c r="QZ15" s="0"/>
+      <c r="RA15" s="0"/>
+      <c r="RB15" s="0"/>
+      <c r="RC15" s="0"/>
+      <c r="RD15" s="0"/>
+      <c r="RE15" s="0"/>
+      <c r="RF15" s="0"/>
+      <c r="RG15" s="0"/>
+      <c r="RH15" s="0"/>
+      <c r="RI15" s="0"/>
+      <c r="RJ15" s="0"/>
+      <c r="RK15" s="0"/>
+      <c r="RL15" s="0"/>
+      <c r="RM15" s="0"/>
+      <c r="RN15" s="0"/>
+      <c r="RO15" s="0"/>
+      <c r="RP15" s="0"/>
+      <c r="RQ15" s="0"/>
+      <c r="RR15" s="0"/>
+      <c r="RS15" s="0"/>
+      <c r="RT15" s="0"/>
+      <c r="RU15" s="0"/>
+      <c r="RV15" s="0"/>
+      <c r="RW15" s="0"/>
+      <c r="RX15" s="0"/>
+      <c r="RY15" s="0"/>
+      <c r="RZ15" s="0"/>
+      <c r="SA15" s="0"/>
+      <c r="SB15" s="0"/>
+      <c r="SC15" s="0"/>
+      <c r="SD15" s="0"/>
+      <c r="SE15" s="0"/>
+      <c r="SF15" s="0"/>
+      <c r="SG15" s="0"/>
+      <c r="SH15" s="0"/>
+      <c r="SI15" s="0"/>
+      <c r="SJ15" s="0"/>
+      <c r="SK15" s="0"/>
+      <c r="SL15" s="0"/>
+      <c r="SM15" s="0"/>
+      <c r="SN15" s="0"/>
+      <c r="SO15" s="0"/>
+      <c r="SP15" s="0"/>
+      <c r="SQ15" s="0"/>
+      <c r="SR15" s="0"/>
+      <c r="SS15" s="0"/>
+      <c r="ST15" s="0"/>
+      <c r="SU15" s="0"/>
+      <c r="SV15" s="0"/>
+      <c r="SW15" s="0"/>
+      <c r="SX15" s="0"/>
+      <c r="SY15" s="0"/>
+      <c r="SZ15" s="0"/>
+      <c r="TA15" s="0"/>
+      <c r="TB15" s="0"/>
+      <c r="TC15" s="0"/>
+      <c r="TD15" s="0"/>
+      <c r="TE15" s="0"/>
+      <c r="TF15" s="0"/>
+      <c r="TG15" s="0"/>
+      <c r="TH15" s="0"/>
+      <c r="TI15" s="0"/>
+      <c r="TJ15" s="0"/>
+      <c r="TK15" s="0"/>
+      <c r="TL15" s="0"/>
+      <c r="TM15" s="0"/>
+      <c r="TN15" s="0"/>
+      <c r="TO15" s="0"/>
+      <c r="TP15" s="0"/>
+      <c r="TQ15" s="0"/>
+      <c r="TR15" s="0"/>
+      <c r="TS15" s="0"/>
+      <c r="TT15" s="0"/>
+      <c r="TU15" s="0"/>
+      <c r="TV15" s="0"/>
+      <c r="TW15" s="0"/>
+      <c r="TX15" s="0"/>
+      <c r="TY15" s="0"/>
+      <c r="TZ15" s="0"/>
+      <c r="UA15" s="0"/>
+      <c r="UB15" s="0"/>
+      <c r="UC15" s="0"/>
+      <c r="UD15" s="0"/>
+      <c r="UE15" s="0"/>
+      <c r="UF15" s="0"/>
+      <c r="UG15" s="0"/>
+      <c r="UH15" s="0"/>
+      <c r="UI15" s="0"/>
+      <c r="UJ15" s="0"/>
+      <c r="UK15" s="0"/>
+      <c r="UL15" s="0"/>
+      <c r="UM15" s="0"/>
+      <c r="UN15" s="0"/>
+      <c r="UO15" s="0"/>
+      <c r="UP15" s="0"/>
+      <c r="UQ15" s="0"/>
+      <c r="UR15" s="0"/>
+      <c r="US15" s="0"/>
+      <c r="UT15" s="0"/>
+      <c r="UU15" s="0"/>
+      <c r="UV15" s="0"/>
+      <c r="UW15" s="0"/>
+      <c r="UX15" s="0"/>
+      <c r="UY15" s="0"/>
+      <c r="UZ15" s="0"/>
+      <c r="VA15" s="0"/>
+      <c r="VB15" s="0"/>
+      <c r="VC15" s="0"/>
+      <c r="VD15" s="0"/>
+      <c r="VE15" s="0"/>
+      <c r="VF15" s="0"/>
+      <c r="VG15" s="0"/>
+      <c r="VH15" s="0"/>
+      <c r="VI15" s="0"/>
+      <c r="VJ15" s="0"/>
+      <c r="VK15" s="0"/>
+      <c r="VL15" s="0"/>
+      <c r="VM15" s="0"/>
+      <c r="VN15" s="0"/>
+      <c r="VO15" s="0"/>
+      <c r="VP15" s="0"/>
+      <c r="VQ15" s="0"/>
+      <c r="VR15" s="0"/>
+      <c r="VS15" s="0"/>
+      <c r="VT15" s="0"/>
+      <c r="VU15" s="0"/>
+      <c r="VV15" s="0"/>
+      <c r="VW15" s="0"/>
+      <c r="VX15" s="0"/>
+      <c r="VY15" s="0"/>
+      <c r="VZ15" s="0"/>
+      <c r="WA15" s="0"/>
+      <c r="WB15" s="0"/>
+      <c r="WC15" s="0"/>
+      <c r="WD15" s="0"/>
+      <c r="WE15" s="0"/>
+      <c r="WF15" s="0"/>
+      <c r="WG15" s="0"/>
+      <c r="WH15" s="0"/>
+      <c r="WI15" s="0"/>
+      <c r="WJ15" s="0"/>
+      <c r="WK15" s="0"/>
+      <c r="WL15" s="0"/>
+      <c r="WM15" s="0"/>
+      <c r="WN15" s="0"/>
+      <c r="WO15" s="0"/>
+      <c r="WP15" s="0"/>
+      <c r="WQ15" s="0"/>
+      <c r="WR15" s="0"/>
+      <c r="WS15" s="0"/>
+      <c r="WT15" s="0"/>
+      <c r="WU15" s="0"/>
+      <c r="WV15" s="0"/>
+      <c r="WW15" s="0"/>
+      <c r="WX15" s="0"/>
+      <c r="WY15" s="0"/>
+      <c r="WZ15" s="0"/>
+      <c r="XA15" s="0"/>
+      <c r="XB15" s="0"/>
+      <c r="XC15" s="0"/>
+      <c r="XD15" s="0"/>
+      <c r="XE15" s="0"/>
+      <c r="XF15" s="0"/>
+      <c r="XG15" s="0"/>
+      <c r="XH15" s="0"/>
+      <c r="XI15" s="0"/>
+      <c r="XJ15" s="0"/>
+      <c r="XK15" s="0"/>
+      <c r="XL15" s="0"/>
+      <c r="XM15" s="0"/>
+      <c r="XN15" s="0"/>
+      <c r="XO15" s="0"/>
+      <c r="XP15" s="0"/>
+      <c r="XQ15" s="0"/>
+      <c r="XR15" s="0"/>
+      <c r="XS15" s="0"/>
+      <c r="XT15" s="0"/>
+      <c r="XU15" s="0"/>
+      <c r="XV15" s="0"/>
+      <c r="XW15" s="0"/>
+      <c r="XX15" s="0"/>
+      <c r="XY15" s="0"/>
+      <c r="XZ15" s="0"/>
+      <c r="YA15" s="0"/>
+      <c r="YB15" s="0"/>
+      <c r="YC15" s="0"/>
+      <c r="YD15" s="0"/>
+      <c r="YE15" s="0"/>
+      <c r="YF15" s="0"/>
+      <c r="YG15" s="0"/>
+      <c r="YH15" s="0"/>
+      <c r="YI15" s="0"/>
+      <c r="YJ15" s="0"/>
+      <c r="YK15" s="0"/>
+      <c r="YL15" s="0"/>
+      <c r="YM15" s="0"/>
+      <c r="YN15" s="0"/>
+      <c r="YO15" s="0"/>
+      <c r="YP15" s="0"/>
+      <c r="YQ15" s="0"/>
+      <c r="YR15" s="0"/>
+      <c r="YS15" s="0"/>
+      <c r="YT15" s="0"/>
+      <c r="YU15" s="0"/>
+      <c r="YV15" s="0"/>
+      <c r="YW15" s="0"/>
+      <c r="YX15" s="0"/>
+      <c r="YY15" s="0"/>
+      <c r="YZ15" s="0"/>
+      <c r="ZA15" s="0"/>
+      <c r="ZB15" s="0"/>
+      <c r="ZC15" s="0"/>
+      <c r="ZD15" s="0"/>
+      <c r="ZE15" s="0"/>
+      <c r="ZF15" s="0"/>
+      <c r="ZG15" s="0"/>
+      <c r="ZH15" s="0"/>
+      <c r="ZI15" s="0"/>
+      <c r="ZJ15" s="0"/>
+      <c r="ZK15" s="0"/>
+      <c r="ZL15" s="0"/>
+      <c r="ZM15" s="0"/>
+      <c r="ZN15" s="0"/>
+      <c r="ZO15" s="0"/>
+      <c r="ZP15" s="0"/>
+      <c r="ZQ15" s="0"/>
+      <c r="ZR15" s="0"/>
+      <c r="ZS15" s="0"/>
+      <c r="ZT15" s="0"/>
+      <c r="ZU15" s="0"/>
+      <c r="ZV15" s="0"/>
+      <c r="ZW15" s="0"/>
+      <c r="ZX15" s="0"/>
+      <c r="ZY15" s="0"/>
+      <c r="ZZ15" s="0"/>
+      <c r="AAA15" s="0"/>
+      <c r="AAB15" s="0"/>
+      <c r="AAC15" s="0"/>
+      <c r="AAD15" s="0"/>
+      <c r="AAE15" s="0"/>
+      <c r="AAF15" s="0"/>
+      <c r="AAG15" s="0"/>
+      <c r="AAH15" s="0"/>
+      <c r="AAI15" s="0"/>
+      <c r="AAJ15" s="0"/>
+      <c r="AAK15" s="0"/>
+      <c r="AAL15" s="0"/>
+      <c r="AAM15" s="0"/>
+      <c r="AAN15" s="0"/>
+      <c r="AAO15" s="0"/>
+      <c r="AAP15" s="0"/>
+      <c r="AAQ15" s="0"/>
+      <c r="AAR15" s="0"/>
+      <c r="AAS15" s="0"/>
+      <c r="AAT15" s="0"/>
+      <c r="AAU15" s="0"/>
+      <c r="AAV15" s="0"/>
+      <c r="AAW15" s="0"/>
+      <c r="AAX15" s="0"/>
+      <c r="AAY15" s="0"/>
+      <c r="AAZ15" s="0"/>
+      <c r="ABA15" s="0"/>
+      <c r="ABB15" s="0"/>
+      <c r="ABC15" s="0"/>
+      <c r="ABD15" s="0"/>
+      <c r="ABE15" s="0"/>
+      <c r="ABF15" s="0"/>
+      <c r="ABG15" s="0"/>
+      <c r="ABH15" s="0"/>
+      <c r="ABI15" s="0"/>
+      <c r="ABJ15" s="0"/>
+      <c r="ABK15" s="0"/>
+      <c r="ABL15" s="0"/>
+      <c r="ABM15" s="0"/>
+      <c r="ABN15" s="0"/>
+      <c r="ABO15" s="0"/>
+      <c r="ABP15" s="0"/>
+      <c r="ABQ15" s="0"/>
+      <c r="ABR15" s="0"/>
+      <c r="ABS15" s="0"/>
+      <c r="ABT15" s="0"/>
+      <c r="ABU15" s="0"/>
+      <c r="ABV15" s="0"/>
+      <c r="ABW15" s="0"/>
+      <c r="ABX15" s="0"/>
+      <c r="ABY15" s="0"/>
+      <c r="ABZ15" s="0"/>
+      <c r="ACA15" s="0"/>
+      <c r="ACB15" s="0"/>
+      <c r="ACC15" s="0"/>
+      <c r="ACD15" s="0"/>
+      <c r="ACE15" s="0"/>
+      <c r="ACF15" s="0"/>
+      <c r="ACG15" s="0"/>
+      <c r="ACH15" s="0"/>
+      <c r="ACI15" s="0"/>
+      <c r="ACJ15" s="0"/>
+      <c r="ACK15" s="0"/>
+      <c r="ACL15" s="0"/>
+      <c r="ACM15" s="0"/>
+      <c r="ACN15" s="0"/>
+      <c r="ACO15" s="0"/>
+      <c r="ACP15" s="0"/>
+      <c r="ACQ15" s="0"/>
+      <c r="ACR15" s="0"/>
+      <c r="ACS15" s="0"/>
+      <c r="ACT15" s="0"/>
+      <c r="ACU15" s="0"/>
+      <c r="ACV15" s="0"/>
+      <c r="ACW15" s="0"/>
+      <c r="ACX15" s="0"/>
+      <c r="ACY15" s="0"/>
+      <c r="ACZ15" s="0"/>
+      <c r="ADA15" s="0"/>
+      <c r="ADB15" s="0"/>
+      <c r="ADC15" s="0"/>
+      <c r="ADD15" s="0"/>
+      <c r="ADE15" s="0"/>
+      <c r="ADF15" s="0"/>
+      <c r="ADG15" s="0"/>
+      <c r="ADH15" s="0"/>
+      <c r="ADI15" s="0"/>
+      <c r="ADJ15" s="0"/>
+      <c r="ADK15" s="0"/>
+      <c r="ADL15" s="0"/>
+      <c r="ADM15" s="0"/>
+      <c r="ADN15" s="0"/>
+      <c r="ADO15" s="0"/>
+      <c r="ADP15" s="0"/>
+      <c r="ADQ15" s="0"/>
+      <c r="ADR15" s="0"/>
+      <c r="ADS15" s="0"/>
+      <c r="ADT15" s="0"/>
+      <c r="ADU15" s="0"/>
+      <c r="ADV15" s="0"/>
+      <c r="ADW15" s="0"/>
+      <c r="ADX15" s="0"/>
+      <c r="ADY15" s="0"/>
+      <c r="ADZ15" s="0"/>
+      <c r="AEA15" s="0"/>
+      <c r="AEB15" s="0"/>
+      <c r="AEC15" s="0"/>
+      <c r="AED15" s="0"/>
+      <c r="AEE15" s="0"/>
+      <c r="AEF15" s="0"/>
+      <c r="AEG15" s="0"/>
+      <c r="AEH15" s="0"/>
+      <c r="AEI15" s="0"/>
+      <c r="AEJ15" s="0"/>
+      <c r="AEK15" s="0"/>
+      <c r="AEL15" s="0"/>
+      <c r="AEM15" s="0"/>
+      <c r="AEN15" s="0"/>
+      <c r="AEO15" s="0"/>
+      <c r="AEP15" s="0"/>
+      <c r="AEQ15" s="0"/>
+      <c r="AER15" s="0"/>
+      <c r="AES15" s="0"/>
+      <c r="AET15" s="0"/>
+      <c r="AEU15" s="0"/>
+      <c r="AEV15" s="0"/>
+      <c r="AEW15" s="0"/>
+      <c r="AEX15" s="0"/>
+      <c r="AEY15" s="0"/>
+      <c r="AEZ15" s="0"/>
+      <c r="AFA15" s="0"/>
+      <c r="AFB15" s="0"/>
+      <c r="AFC15" s="0"/>
+      <c r="AFD15" s="0"/>
+      <c r="AFE15" s="0"/>
+      <c r="AFF15" s="0"/>
+      <c r="AFG15" s="0"/>
+      <c r="AFH15" s="0"/>
+      <c r="AFI15" s="0"/>
+      <c r="AFJ15" s="0"/>
+      <c r="AFK15" s="0"/>
+      <c r="AFL15" s="0"/>
+      <c r="AFM15" s="0"/>
+      <c r="AFN15" s="0"/>
+      <c r="AFO15" s="0"/>
+      <c r="AFP15" s="0"/>
+      <c r="AFQ15" s="0"/>
+      <c r="AFR15" s="0"/>
+      <c r="AFS15" s="0"/>
+      <c r="AFT15" s="0"/>
+      <c r="AFU15" s="0"/>
+      <c r="AFV15" s="0"/>
+      <c r="AFW15" s="0"/>
+      <c r="AFX15" s="0"/>
+      <c r="AFY15" s="0"/>
+      <c r="AFZ15" s="0"/>
+      <c r="AGA15" s="0"/>
+      <c r="AGB15" s="0"/>
+      <c r="AGC15" s="0"/>
+      <c r="AGD15" s="0"/>
+      <c r="AGE15" s="0"/>
+      <c r="AGF15" s="0"/>
+      <c r="AGG15" s="0"/>
+      <c r="AGH15" s="0"/>
+      <c r="AGI15" s="0"/>
+      <c r="AGJ15" s="0"/>
+      <c r="AGK15" s="0"/>
+      <c r="AGL15" s="0"/>
+      <c r="AGM15" s="0"/>
+      <c r="AGN15" s="0"/>
+      <c r="AGO15" s="0"/>
+      <c r="AGP15" s="0"/>
+      <c r="AGQ15" s="0"/>
+      <c r="AGR15" s="0"/>
+      <c r="AGS15" s="0"/>
+      <c r="AGT15" s="0"/>
+      <c r="AGU15" s="0"/>
+      <c r="AGV15" s="0"/>
+      <c r="AGW15" s="0"/>
+      <c r="AGX15" s="0"/>
+      <c r="AGY15" s="0"/>
+      <c r="AGZ15" s="0"/>
+      <c r="AHA15" s="0"/>
+      <c r="AHB15" s="0"/>
+      <c r="AHC15" s="0"/>
+      <c r="AHD15" s="0"/>
+      <c r="AHE15" s="0"/>
+      <c r="AHF15" s="0"/>
+      <c r="AHG15" s="0"/>
+      <c r="AHH15" s="0"/>
+      <c r="AHI15" s="0"/>
+      <c r="AHJ15" s="0"/>
+      <c r="AHK15" s="0"/>
+      <c r="AHL15" s="0"/>
+      <c r="AHM15" s="0"/>
+      <c r="AHN15" s="0"/>
+      <c r="AHO15" s="0"/>
+      <c r="AHP15" s="0"/>
+      <c r="AHQ15" s="0"/>
+      <c r="AHR15" s="0"/>
+      <c r="AHS15" s="0"/>
+      <c r="AHT15" s="0"/>
+      <c r="AHU15" s="0"/>
+      <c r="AHV15" s="0"/>
+      <c r="AHW15" s="0"/>
+      <c r="AHX15" s="0"/>
+      <c r="AHY15" s="0"/>
+      <c r="AHZ15" s="0"/>
+      <c r="AIA15" s="0"/>
+      <c r="AIB15" s="0"/>
+      <c r="AIC15" s="0"/>
+      <c r="AID15" s="0"/>
+      <c r="AIE15" s="0"/>
+      <c r="AIF15" s="0"/>
+      <c r="AIG15" s="0"/>
+      <c r="AIH15" s="0"/>
+      <c r="AII15" s="0"/>
+      <c r="AIJ15" s="0"/>
+      <c r="AIK15" s="0"/>
+      <c r="AIL15" s="0"/>
+      <c r="AIM15" s="0"/>
+      <c r="AIN15" s="0"/>
+      <c r="AIO15" s="0"/>
+      <c r="AIP15" s="0"/>
+      <c r="AIQ15" s="0"/>
+      <c r="AIR15" s="0"/>
+      <c r="AIS15" s="0"/>
+      <c r="AIT15" s="0"/>
+      <c r="AIU15" s="0"/>
+      <c r="AIV15" s="0"/>
+      <c r="AIW15" s="0"/>
+      <c r="AIX15" s="0"/>
+      <c r="AIY15" s="0"/>
+      <c r="AIZ15" s="0"/>
+      <c r="AJA15" s="0"/>
+      <c r="AJB15" s="0"/>
+      <c r="AJC15" s="0"/>
+      <c r="AJD15" s="0"/>
+      <c r="AJE15" s="0"/>
+      <c r="AJF15" s="0"/>
+      <c r="AJG15" s="0"/>
+      <c r="AJH15" s="0"/>
+      <c r="AJI15" s="0"/>
+      <c r="AJJ15" s="0"/>
+      <c r="AJK15" s="0"/>
+      <c r="AJL15" s="0"/>
+      <c r="AJM15" s="0"/>
+      <c r="AJN15" s="0"/>
+      <c r="AJO15" s="0"/>
+      <c r="AJP15" s="0"/>
+      <c r="AJQ15" s="0"/>
+      <c r="AJR15" s="0"/>
+      <c r="AJS15" s="0"/>
+      <c r="AJT15" s="0"/>
+      <c r="AJU15" s="0"/>
+      <c r="AJV15" s="0"/>
+      <c r="AJW15" s="0"/>
+      <c r="AJX15" s="0"/>
+      <c r="AJY15" s="0"/>
+      <c r="AJZ15" s="0"/>
+      <c r="AKA15" s="0"/>
+      <c r="AKB15" s="0"/>
+      <c r="AKC15" s="0"/>
+      <c r="AKD15" s="0"/>
+      <c r="AKE15" s="0"/>
+      <c r="AKF15" s="0"/>
+      <c r="AKG15" s="0"/>
+      <c r="AKH15" s="0"/>
+      <c r="AKI15" s="0"/>
+      <c r="AKJ15" s="0"/>
+      <c r="AKK15" s="0"/>
+      <c r="AKL15" s="0"/>
+      <c r="AKM15" s="0"/>
+      <c r="AKN15" s="0"/>
+      <c r="AKO15" s="0"/>
+      <c r="AKP15" s="0"/>
+      <c r="AKQ15" s="0"/>
+      <c r="AKR15" s="0"/>
+      <c r="AKS15" s="0"/>
+      <c r="AKT15" s="0"/>
+      <c r="AKU15" s="0"/>
+      <c r="AKV15" s="0"/>
+      <c r="AKW15" s="0"/>
+      <c r="AKX15" s="0"/>
+      <c r="AKY15" s="0"/>
+      <c r="AKZ15" s="0"/>
+      <c r="ALA15" s="0"/>
+      <c r="ALB15" s="0"/>
+      <c r="ALC15" s="0"/>
+      <c r="ALD15" s="0"/>
+      <c r="ALE15" s="0"/>
+      <c r="ALF15" s="0"/>
+      <c r="ALG15" s="0"/>
+      <c r="ALH15" s="0"/>
+      <c r="ALI15" s="0"/>
+      <c r="ALJ15" s="0"/>
+      <c r="ALK15" s="0"/>
+      <c r="ALL15" s="0"/>
+      <c r="ALM15" s="0"/>
+      <c r="ALN15" s="0"/>
+      <c r="ALO15" s="0"/>
+      <c r="ALP15" s="0"/>
+      <c r="ALQ15" s="0"/>
+      <c r="ALR15" s="0"/>
+      <c r="ALS15" s="0"/>
+      <c r="ALT15" s="0"/>
+      <c r="ALU15" s="0"/>
+      <c r="ALV15" s="0"/>
+      <c r="ALW15" s="0"/>
+      <c r="ALX15" s="0"/>
+      <c r="ALY15" s="0"/>
+      <c r="ALZ15" s="0"/>
+      <c r="AMA15" s="0"/>
+      <c r="AMB15" s="0"/>
+      <c r="AMC15" s="0"/>
+      <c r="AMD15" s="0"/>
+      <c r="AME15" s="0"/>
+      <c r="AMF15" s="0"/>
+      <c r="AMG15" s="0"/>
+      <c r="AMH15" s="0"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+      <c r="AF16" s="0"/>
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="0"/>
+      <c r="AI16" s="0"/>
+      <c r="AJ16" s="0"/>
+      <c r="AK16" s="0"/>
+      <c r="AL16" s="0"/>
+      <c r="AM16" s="0"/>
+      <c r="AN16" s="0"/>
+      <c r="AO16" s="0"/>
+      <c r="AP16" s="0"/>
+      <c r="AQ16" s="0"/>
+      <c r="AR16" s="0"/>
+      <c r="AS16" s="0"/>
+      <c r="AT16" s="0"/>
+      <c r="AU16" s="0"/>
+      <c r="AV16" s="0"/>
+      <c r="AW16" s="0"/>
+      <c r="AX16" s="0"/>
+      <c r="AY16" s="0"/>
+      <c r="AZ16" s="0"/>
+      <c r="BA16" s="0"/>
+      <c r="BB16" s="0"/>
+      <c r="BC16" s="0"/>
+      <c r="BD16" s="0"/>
+      <c r="BE16" s="0"/>
+      <c r="BF16" s="0"/>
+      <c r="BG16" s="0"/>
+      <c r="BH16" s="0"/>
+      <c r="BI16" s="0"/>
+      <c r="BJ16" s="0"/>
+      <c r="BK16" s="0"/>
+      <c r="BL16" s="0"/>
+      <c r="BM16" s="0"/>
+      <c r="BN16" s="0"/>
+      <c r="BO16" s="0"/>
+      <c r="BP16" s="0"/>
+      <c r="BQ16" s="0"/>
+      <c r="BR16" s="0"/>
+      <c r="BS16" s="0"/>
+      <c r="BT16" s="0"/>
+      <c r="BU16" s="0"/>
+      <c r="BV16" s="0"/>
+      <c r="BW16" s="0"/>
+      <c r="BX16" s="0"/>
+      <c r="BY16" s="0"/>
+      <c r="BZ16" s="0"/>
+      <c r="CA16" s="0"/>
+      <c r="CB16" s="0"/>
+      <c r="CC16" s="0"/>
+      <c r="CD16" s="0"/>
+      <c r="CE16" s="0"/>
+      <c r="CF16" s="0"/>
+      <c r="CG16" s="0"/>
+      <c r="CH16" s="0"/>
+      <c r="CI16" s="0"/>
+      <c r="CJ16" s="0"/>
+      <c r="CK16" s="0"/>
+      <c r="CL16" s="0"/>
+      <c r="CM16" s="0"/>
+      <c r="CN16" s="0"/>
+      <c r="CO16" s="0"/>
+      <c r="CP16" s="0"/>
+      <c r="CQ16" s="0"/>
+      <c r="CR16" s="0"/>
+      <c r="CS16" s="0"/>
+      <c r="CT16" s="0"/>
+      <c r="CU16" s="0"/>
+      <c r="CV16" s="0"/>
+      <c r="CW16" s="0"/>
+      <c r="CX16" s="0"/>
+      <c r="CY16" s="0"/>
+      <c r="CZ16" s="0"/>
+      <c r="DA16" s="0"/>
+      <c r="DB16" s="0"/>
+      <c r="DC16" s="0"/>
+      <c r="DD16" s="0"/>
+      <c r="DE16" s="0"/>
+      <c r="DF16" s="0"/>
+      <c r="DG16" s="0"/>
+      <c r="DH16" s="0"/>
+      <c r="DI16" s="0"/>
+      <c r="DJ16" s="0"/>
+      <c r="DK16" s="0"/>
+      <c r="DL16" s="0"/>
+      <c r="DM16" s="0"/>
+      <c r="DN16" s="0"/>
+      <c r="DO16" s="0"/>
+      <c r="DP16" s="0"/>
+      <c r="DQ16" s="0"/>
+      <c r="DR16" s="0"/>
+      <c r="DS16" s="0"/>
+      <c r="DT16" s="0"/>
+      <c r="DU16" s="0"/>
+      <c r="DV16" s="0"/>
+      <c r="DW16" s="0"/>
+      <c r="DX16" s="0"/>
+      <c r="DY16" s="0"/>
+      <c r="DZ16" s="0"/>
+      <c r="EA16" s="0"/>
+      <c r="EB16" s="0"/>
+      <c r="EC16" s="0"/>
+      <c r="ED16" s="0"/>
+      <c r="EE16" s="0"/>
+      <c r="EF16" s="0"/>
+      <c r="EG16" s="0"/>
+      <c r="EH16" s="0"/>
+      <c r="EI16" s="0"/>
+      <c r="EJ16" s="0"/>
+      <c r="EK16" s="0"/>
+      <c r="EL16" s="0"/>
+      <c r="EM16" s="0"/>
+      <c r="EN16" s="0"/>
+      <c r="EO16" s="0"/>
+      <c r="EP16" s="0"/>
+      <c r="EQ16" s="0"/>
+      <c r="ER16" s="0"/>
+      <c r="ES16" s="0"/>
+      <c r="ET16" s="0"/>
+      <c r="EU16" s="0"/>
+      <c r="EV16" s="0"/>
+      <c r="EW16" s="0"/>
+      <c r="EX16" s="0"/>
+      <c r="EY16" s="0"/>
+      <c r="EZ16" s="0"/>
+      <c r="FA16" s="0"/>
+      <c r="FB16" s="0"/>
+      <c r="FC16" s="0"/>
+      <c r="FD16" s="0"/>
+      <c r="FE16" s="0"/>
+      <c r="FF16" s="0"/>
+      <c r="FG16" s="0"/>
+      <c r="FH16" s="0"/>
+      <c r="FI16" s="0"/>
+      <c r="FJ16" s="0"/>
+      <c r="FK16" s="0"/>
+      <c r="FL16" s="0"/>
+      <c r="FM16" s="0"/>
+      <c r="FN16" s="0"/>
+      <c r="FO16" s="0"/>
+      <c r="FP16" s="0"/>
+      <c r="FQ16" s="0"/>
+      <c r="FR16" s="0"/>
+      <c r="FS16" s="0"/>
+      <c r="FT16" s="0"/>
+      <c r="FU16" s="0"/>
+      <c r="FV16" s="0"/>
+      <c r="FW16" s="0"/>
+      <c r="FX16" s="0"/>
+      <c r="FY16" s="0"/>
+      <c r="FZ16" s="0"/>
+      <c r="GA16" s="0"/>
+      <c r="GB16" s="0"/>
+      <c r="GC16" s="0"/>
+      <c r="GD16" s="0"/>
+      <c r="GE16" s="0"/>
+      <c r="GF16" s="0"/>
+      <c r="GG16" s="0"/>
+      <c r="GH16" s="0"/>
+      <c r="GI16" s="0"/>
+      <c r="GJ16" s="0"/>
+      <c r="GK16" s="0"/>
+      <c r="GL16" s="0"/>
+      <c r="GM16" s="0"/>
+      <c r="GN16" s="0"/>
+      <c r="GO16" s="0"/>
+      <c r="GP16" s="0"/>
+      <c r="GQ16" s="0"/>
+      <c r="GR16" s="0"/>
+      <c r="GS16" s="0"/>
+      <c r="GT16" s="0"/>
+      <c r="GU16" s="0"/>
+      <c r="GV16" s="0"/>
+      <c r="GW16" s="0"/>
+      <c r="GX16" s="0"/>
+      <c r="GY16" s="0"/>
+      <c r="GZ16" s="0"/>
+      <c r="HA16" s="0"/>
+      <c r="HB16" s="0"/>
+      <c r="HC16" s="0"/>
+      <c r="HD16" s="0"/>
+      <c r="HE16" s="0"/>
+      <c r="HF16" s="0"/>
+      <c r="HG16" s="0"/>
+      <c r="HH16" s="0"/>
+      <c r="HI16" s="0"/>
+      <c r="HJ16" s="0"/>
+      <c r="HK16" s="0"/>
+      <c r="HL16" s="0"/>
+      <c r="HM16" s="0"/>
+      <c r="HN16" s="0"/>
+      <c r="HO16" s="0"/>
+      <c r="HP16" s="0"/>
+      <c r="HQ16" s="0"/>
+      <c r="HR16" s="0"/>
+      <c r="HS16" s="0"/>
+      <c r="HT16" s="0"/>
+      <c r="HU16" s="0"/>
+      <c r="HV16" s="0"/>
+      <c r="HW16" s="0"/>
+      <c r="HX16" s="0"/>
+      <c r="HY16" s="0"/>
+      <c r="HZ16" s="0"/>
+      <c r="IA16" s="0"/>
+      <c r="IB16" s="0"/>
+      <c r="IC16" s="0"/>
+      <c r="ID16" s="0"/>
+      <c r="IE16" s="0"/>
+      <c r="IF16" s="0"/>
+      <c r="IG16" s="0"/>
+      <c r="IH16" s="0"/>
+      <c r="II16" s="0"/>
+      <c r="IJ16" s="0"/>
+      <c r="IK16" s="0"/>
+      <c r="IL16" s="0"/>
+      <c r="IM16" s="0"/>
+      <c r="IN16" s="0"/>
+      <c r="IO16" s="0"/>
+      <c r="IP16" s="0"/>
+      <c r="IQ16" s="0"/>
+      <c r="IR16" s="0"/>
+      <c r="IS16" s="0"/>
+      <c r="IT16" s="0"/>
+      <c r="IU16" s="0"/>
+      <c r="IV16" s="0"/>
+      <c r="IW16" s="0"/>
+      <c r="IX16" s="0"/>
+      <c r="IY16" s="0"/>
+      <c r="IZ16" s="0"/>
+      <c r="JA16" s="0"/>
+      <c r="JB16" s="0"/>
+      <c r="JC16" s="0"/>
+      <c r="JD16" s="0"/>
+      <c r="JE16" s="0"/>
+      <c r="JF16" s="0"/>
+      <c r="JG16" s="0"/>
+      <c r="JH16" s="0"/>
+      <c r="JI16" s="0"/>
+      <c r="JJ16" s="0"/>
+      <c r="JK16" s="0"/>
+      <c r="JL16" s="0"/>
+      <c r="JM16" s="0"/>
+      <c r="JN16" s="0"/>
+      <c r="JO16" s="0"/>
+      <c r="JP16" s="0"/>
+      <c r="JQ16" s="0"/>
+      <c r="JR16" s="0"/>
+      <c r="JS16" s="0"/>
+      <c r="JT16" s="0"/>
+      <c r="JU16" s="0"/>
+      <c r="JV16" s="0"/>
+      <c r="JW16" s="0"/>
+      <c r="JX16" s="0"/>
+      <c r="JY16" s="0"/>
+      <c r="JZ16" s="0"/>
+      <c r="KA16" s="0"/>
+      <c r="KB16" s="0"/>
+      <c r="KC16" s="0"/>
+      <c r="KD16" s="0"/>
+      <c r="KE16" s="0"/>
+      <c r="KF16" s="0"/>
+      <c r="KG16" s="0"/>
+      <c r="KH16" s="0"/>
+      <c r="KI16" s="0"/>
+      <c r="KJ16" s="0"/>
+      <c r="KK16" s="0"/>
+      <c r="KL16" s="0"/>
+      <c r="KM16" s="0"/>
+      <c r="KN16" s="0"/>
+      <c r="KO16" s="0"/>
+      <c r="KP16" s="0"/>
+      <c r="KQ16" s="0"/>
+      <c r="KR16" s="0"/>
+      <c r="KS16" s="0"/>
+      <c r="KT16" s="0"/>
+      <c r="KU16" s="0"/>
+      <c r="KV16" s="0"/>
+      <c r="KW16" s="0"/>
+      <c r="KX16" s="0"/>
+      <c r="KY16" s="0"/>
+      <c r="KZ16" s="0"/>
+      <c r="LA16" s="0"/>
+      <c r="LB16" s="0"/>
+      <c r="LC16" s="0"/>
+      <c r="LD16" s="0"/>
+      <c r="LE16" s="0"/>
+      <c r="LF16" s="0"/>
+      <c r="LG16" s="0"/>
+      <c r="LH16" s="0"/>
+      <c r="LI16" s="0"/>
+      <c r="LJ16" s="0"/>
+      <c r="LK16" s="0"/>
+      <c r="LL16" s="0"/>
+      <c r="LM16" s="0"/>
+      <c r="LN16" s="0"/>
+      <c r="LO16" s="0"/>
+      <c r="LP16" s="0"/>
+      <c r="LQ16" s="0"/>
+      <c r="LR16" s="0"/>
+      <c r="LS16" s="0"/>
+      <c r="LT16" s="0"/>
+      <c r="LU16" s="0"/>
+      <c r="LV16" s="0"/>
+      <c r="LW16" s="0"/>
+      <c r="LX16" s="0"/>
+      <c r="LY16" s="0"/>
+      <c r="LZ16" s="0"/>
+      <c r="MA16" s="0"/>
+      <c r="MB16" s="0"/>
+      <c r="MC16" s="0"/>
+      <c r="MD16" s="0"/>
+      <c r="ME16" s="0"/>
+      <c r="MF16" s="0"/>
+      <c r="MG16" s="0"/>
+      <c r="MH16" s="0"/>
+      <c r="MI16" s="0"/>
+      <c r="MJ16" s="0"/>
+      <c r="MK16" s="0"/>
+      <c r="ML16" s="0"/>
+      <c r="MM16" s="0"/>
+      <c r="MN16" s="0"/>
+      <c r="MO16" s="0"/>
+      <c r="MP16" s="0"/>
+      <c r="MQ16" s="0"/>
+      <c r="MR16" s="0"/>
+      <c r="MS16" s="0"/>
+      <c r="MT16" s="0"/>
+      <c r="MU16" s="0"/>
+      <c r="MV16" s="0"/>
+      <c r="MW16" s="0"/>
+      <c r="MX16" s="0"/>
+      <c r="MY16" s="0"/>
+      <c r="MZ16" s="0"/>
+      <c r="NA16" s="0"/>
+      <c r="NB16" s="0"/>
+      <c r="NC16" s="0"/>
+      <c r="ND16" s="0"/>
+      <c r="NE16" s="0"/>
+      <c r="NF16" s="0"/>
+      <c r="NG16" s="0"/>
+      <c r="NH16" s="0"/>
+      <c r="NI16" s="0"/>
+      <c r="NJ16" s="0"/>
+      <c r="NK16" s="0"/>
+      <c r="NL16" s="0"/>
+      <c r="NM16" s="0"/>
+      <c r="NN16" s="0"/>
+      <c r="NO16" s="0"/>
+      <c r="NP16" s="0"/>
+      <c r="NQ16" s="0"/>
+      <c r="NR16" s="0"/>
+      <c r="NS16" s="0"/>
+      <c r="NT16" s="0"/>
+      <c r="NU16" s="0"/>
+      <c r="NV16" s="0"/>
+      <c r="NW16" s="0"/>
+      <c r="NX16" s="0"/>
+      <c r="NY16" s="0"/>
+      <c r="NZ16" s="0"/>
+      <c r="OA16" s="0"/>
+      <c r="OB16" s="0"/>
+      <c r="OC16" s="0"/>
+      <c r="OD16" s="0"/>
+      <c r="OE16" s="0"/>
+      <c r="OF16" s="0"/>
+      <c r="OG16" s="0"/>
+      <c r="OH16" s="0"/>
+      <c r="OI16" s="0"/>
+      <c r="OJ16" s="0"/>
+      <c r="OK16" s="0"/>
+      <c r="OL16" s="0"/>
+      <c r="OM16" s="0"/>
+      <c r="ON16" s="0"/>
+      <c r="OO16" s="0"/>
+      <c r="OP16" s="0"/>
+      <c r="OQ16" s="0"/>
+      <c r="OR16" s="0"/>
+      <c r="OS16" s="0"/>
+      <c r="OT16" s="0"/>
+      <c r="OU16" s="0"/>
+      <c r="OV16" s="0"/>
+      <c r="OW16" s="0"/>
+      <c r="OX16" s="0"/>
+      <c r="OY16" s="0"/>
+      <c r="OZ16" s="0"/>
+      <c r="PA16" s="0"/>
+      <c r="PB16" s="0"/>
+      <c r="PC16" s="0"/>
+      <c r="PD16" s="0"/>
+      <c r="PE16" s="0"/>
+      <c r="PF16" s="0"/>
+      <c r="PG16" s="0"/>
+      <c r="PH16" s="0"/>
+      <c r="PI16" s="0"/>
+      <c r="PJ16" s="0"/>
+      <c r="PK16" s="0"/>
+      <c r="PL16" s="0"/>
+      <c r="PM16" s="0"/>
+      <c r="PN16" s="0"/>
+      <c r="PO16" s="0"/>
+      <c r="PP16" s="0"/>
+      <c r="PQ16" s="0"/>
+      <c r="PR16" s="0"/>
+      <c r="PS16" s="0"/>
+      <c r="PT16" s="0"/>
+      <c r="PU16" s="0"/>
+      <c r="PV16" s="0"/>
+      <c r="PW16" s="0"/>
+      <c r="PX16" s="0"/>
+      <c r="PY16" s="0"/>
+      <c r="PZ16" s="0"/>
+      <c r="QA16" s="0"/>
+      <c r="QB16" s="0"/>
+      <c r="QC16" s="0"/>
+      <c r="QD16" s="0"/>
+      <c r="QE16" s="0"/>
+      <c r="QF16" s="0"/>
+      <c r="QG16" s="0"/>
+      <c r="QH16" s="0"/>
+      <c r="QI16" s="0"/>
+      <c r="QJ16" s="0"/>
+      <c r="QK16" s="0"/>
+      <c r="QL16" s="0"/>
+      <c r="QM16" s="0"/>
+      <c r="QN16" s="0"/>
+      <c r="QO16" s="0"/>
+      <c r="QP16" s="0"/>
+      <c r="QQ16" s="0"/>
+      <c r="QR16" s="0"/>
+      <c r="QS16" s="0"/>
+      <c r="QT16" s="0"/>
+      <c r="QU16" s="0"/>
+      <c r="QV16" s="0"/>
+      <c r="QW16" s="0"/>
+      <c r="QX16" s="0"/>
+      <c r="QY16" s="0"/>
+      <c r="QZ16" s="0"/>
+      <c r="RA16" s="0"/>
+      <c r="RB16" s="0"/>
+      <c r="RC16" s="0"/>
+      <c r="RD16" s="0"/>
+      <c r="RE16" s="0"/>
+      <c r="RF16" s="0"/>
+      <c r="RG16" s="0"/>
+      <c r="RH16" s="0"/>
+      <c r="RI16" s="0"/>
+      <c r="RJ16" s="0"/>
+      <c r="RK16" s="0"/>
+      <c r="RL16" s="0"/>
+      <c r="RM16" s="0"/>
+      <c r="RN16" s="0"/>
+      <c r="RO16" s="0"/>
+      <c r="RP16" s="0"/>
+      <c r="RQ16" s="0"/>
+      <c r="RR16" s="0"/>
+      <c r="RS16" s="0"/>
+      <c r="RT16" s="0"/>
+      <c r="RU16" s="0"/>
+      <c r="RV16" s="0"/>
+      <c r="RW16" s="0"/>
+      <c r="RX16" s="0"/>
+      <c r="RY16" s="0"/>
+      <c r="RZ16" s="0"/>
+      <c r="SA16" s="0"/>
+      <c r="SB16" s="0"/>
+      <c r="SC16" s="0"/>
+      <c r="SD16" s="0"/>
+      <c r="SE16" s="0"/>
+      <c r="SF16" s="0"/>
+      <c r="SG16" s="0"/>
+      <c r="SH16" s="0"/>
+      <c r="SI16" s="0"/>
+      <c r="SJ16" s="0"/>
+      <c r="SK16" s="0"/>
+      <c r="SL16" s="0"/>
+      <c r="SM16" s="0"/>
+      <c r="SN16" s="0"/>
+      <c r="SO16" s="0"/>
+      <c r="SP16" s="0"/>
+      <c r="SQ16" s="0"/>
+      <c r="SR16" s="0"/>
+      <c r="SS16" s="0"/>
+      <c r="ST16" s="0"/>
+      <c r="SU16" s="0"/>
+      <c r="SV16" s="0"/>
+      <c r="SW16" s="0"/>
+      <c r="SX16" s="0"/>
+      <c r="SY16" s="0"/>
+      <c r="SZ16" s="0"/>
+      <c r="TA16" s="0"/>
+      <c r="TB16" s="0"/>
+      <c r="TC16" s="0"/>
+      <c r="TD16" s="0"/>
+      <c r="TE16" s="0"/>
+      <c r="TF16" s="0"/>
+      <c r="TG16" s="0"/>
+      <c r="TH16" s="0"/>
+      <c r="TI16" s="0"/>
+      <c r="TJ16" s="0"/>
+      <c r="TK16" s="0"/>
+      <c r="TL16" s="0"/>
+      <c r="TM16" s="0"/>
+      <c r="TN16" s="0"/>
+      <c r="TO16" s="0"/>
+      <c r="TP16" s="0"/>
+      <c r="TQ16" s="0"/>
+      <c r="TR16" s="0"/>
+      <c r="TS16" s="0"/>
+      <c r="TT16" s="0"/>
+      <c r="TU16" s="0"/>
+      <c r="TV16" s="0"/>
+      <c r="TW16" s="0"/>
+      <c r="TX16" s="0"/>
+      <c r="TY16" s="0"/>
+      <c r="TZ16" s="0"/>
+      <c r="UA16" s="0"/>
+      <c r="UB16" s="0"/>
+      <c r="UC16" s="0"/>
+      <c r="UD16" s="0"/>
+      <c r="UE16" s="0"/>
+      <c r="UF16" s="0"/>
+      <c r="UG16" s="0"/>
+      <c r="UH16" s="0"/>
+      <c r="UI16" s="0"/>
+      <c r="UJ16" s="0"/>
+      <c r="UK16" s="0"/>
+      <c r="UL16" s="0"/>
+      <c r="UM16" s="0"/>
+      <c r="UN16" s="0"/>
+      <c r="UO16" s="0"/>
+      <c r="UP16" s="0"/>
+      <c r="UQ16" s="0"/>
+      <c r="UR16" s="0"/>
+      <c r="US16" s="0"/>
+      <c r="UT16" s="0"/>
+      <c r="UU16" s="0"/>
+      <c r="UV16" s="0"/>
+      <c r="UW16" s="0"/>
+      <c r="UX16" s="0"/>
+      <c r="UY16" s="0"/>
+      <c r="UZ16" s="0"/>
+      <c r="VA16" s="0"/>
+      <c r="VB16" s="0"/>
+      <c r="VC16" s="0"/>
+      <c r="VD16" s="0"/>
+      <c r="VE16" s="0"/>
+      <c r="VF16" s="0"/>
+      <c r="VG16" s="0"/>
+      <c r="VH16" s="0"/>
+      <c r="VI16" s="0"/>
+      <c r="VJ16" s="0"/>
+      <c r="VK16" s="0"/>
+      <c r="VL16" s="0"/>
+      <c r="VM16" s="0"/>
+      <c r="VN16" s="0"/>
+      <c r="VO16" s="0"/>
+      <c r="VP16" s="0"/>
+      <c r="VQ16" s="0"/>
+      <c r="VR16" s="0"/>
+      <c r="VS16" s="0"/>
+      <c r="VT16" s="0"/>
+      <c r="VU16" s="0"/>
+      <c r="VV16" s="0"/>
+      <c r="VW16" s="0"/>
+      <c r="VX16" s="0"/>
+      <c r="VY16" s="0"/>
+      <c r="VZ16" s="0"/>
+      <c r="WA16" s="0"/>
+      <c r="WB16" s="0"/>
+      <c r="WC16" s="0"/>
+      <c r="WD16" s="0"/>
+      <c r="WE16" s="0"/>
+      <c r="WF16" s="0"/>
+      <c r="WG16" s="0"/>
+      <c r="WH16" s="0"/>
+      <c r="WI16" s="0"/>
+      <c r="WJ16" s="0"/>
+      <c r="WK16" s="0"/>
+      <c r="WL16" s="0"/>
+      <c r="WM16" s="0"/>
+      <c r="WN16" s="0"/>
+      <c r="WO16" s="0"/>
+      <c r="WP16" s="0"/>
+      <c r="WQ16" s="0"/>
+      <c r="WR16" s="0"/>
+      <c r="WS16" s="0"/>
+      <c r="WT16" s="0"/>
+      <c r="WU16" s="0"/>
+      <c r="WV16" s="0"/>
+      <c r="WW16" s="0"/>
+      <c r="WX16" s="0"/>
+      <c r="WY16" s="0"/>
+      <c r="WZ16" s="0"/>
+      <c r="XA16" s="0"/>
+      <c r="XB16" s="0"/>
+      <c r="XC16" s="0"/>
+      <c r="XD16" s="0"/>
+      <c r="XE16" s="0"/>
+      <c r="XF16" s="0"/>
+      <c r="XG16" s="0"/>
+      <c r="XH16" s="0"/>
+      <c r="XI16" s="0"/>
+      <c r="XJ16" s="0"/>
+      <c r="XK16" s="0"/>
+      <c r="XL16" s="0"/>
+      <c r="XM16" s="0"/>
+      <c r="XN16" s="0"/>
+      <c r="XO16" s="0"/>
+      <c r="XP16" s="0"/>
+      <c r="XQ16" s="0"/>
+      <c r="XR16" s="0"/>
+      <c r="XS16" s="0"/>
+      <c r="XT16" s="0"/>
+      <c r="XU16" s="0"/>
+      <c r="XV16" s="0"/>
+      <c r="XW16" s="0"/>
+      <c r="XX16" s="0"/>
+      <c r="XY16" s="0"/>
+      <c r="XZ16" s="0"/>
+      <c r="YA16" s="0"/>
+      <c r="YB16" s="0"/>
+      <c r="YC16" s="0"/>
+      <c r="YD16" s="0"/>
+      <c r="YE16" s="0"/>
+      <c r="YF16" s="0"/>
+      <c r="YG16" s="0"/>
+      <c r="YH16" s="0"/>
+      <c r="YI16" s="0"/>
+      <c r="YJ16" s="0"/>
+      <c r="YK16" s="0"/>
+      <c r="YL16" s="0"/>
+      <c r="YM16" s="0"/>
+      <c r="YN16" s="0"/>
+      <c r="YO16" s="0"/>
+      <c r="YP16" s="0"/>
+      <c r="YQ16" s="0"/>
+      <c r="YR16" s="0"/>
+      <c r="YS16" s="0"/>
+      <c r="YT16" s="0"/>
+      <c r="YU16" s="0"/>
+      <c r="YV16" s="0"/>
+      <c r="YW16" s="0"/>
+      <c r="YX16" s="0"/>
+      <c r="YY16" s="0"/>
+      <c r="YZ16" s="0"/>
+      <c r="ZA16" s="0"/>
+      <c r="ZB16" s="0"/>
+      <c r="ZC16" s="0"/>
+      <c r="ZD16" s="0"/>
+      <c r="ZE16" s="0"/>
+      <c r="ZF16" s="0"/>
+      <c r="ZG16" s="0"/>
+      <c r="ZH16" s="0"/>
+      <c r="ZI16" s="0"/>
+      <c r="ZJ16" s="0"/>
+      <c r="ZK16" s="0"/>
+      <c r="ZL16" s="0"/>
+      <c r="ZM16" s="0"/>
+      <c r="ZN16" s="0"/>
+      <c r="ZO16" s="0"/>
+      <c r="ZP16" s="0"/>
+      <c r="ZQ16" s="0"/>
+      <c r="ZR16" s="0"/>
+      <c r="ZS16" s="0"/>
+      <c r="ZT16" s="0"/>
+      <c r="ZU16" s="0"/>
+      <c r="ZV16" s="0"/>
+      <c r="ZW16" s="0"/>
+      <c r="ZX16" s="0"/>
+      <c r="ZY16" s="0"/>
+      <c r="ZZ16" s="0"/>
+      <c r="AAA16" s="0"/>
+      <c r="AAB16" s="0"/>
+      <c r="AAC16" s="0"/>
+      <c r="AAD16" s="0"/>
+      <c r="AAE16" s="0"/>
+      <c r="AAF16" s="0"/>
+      <c r="AAG16" s="0"/>
+      <c r="AAH16" s="0"/>
+      <c r="AAI16" s="0"/>
+      <c r="AAJ16" s="0"/>
+      <c r="AAK16" s="0"/>
+      <c r="AAL16" s="0"/>
+      <c r="AAM16" s="0"/>
+      <c r="AAN16" s="0"/>
+      <c r="AAO16" s="0"/>
+      <c r="AAP16" s="0"/>
+      <c r="AAQ16" s="0"/>
+      <c r="AAR16" s="0"/>
+      <c r="AAS16" s="0"/>
+      <c r="AAT16" s="0"/>
+      <c r="AAU16" s="0"/>
+      <c r="AAV16" s="0"/>
+      <c r="AAW16" s="0"/>
+      <c r="AAX16" s="0"/>
+      <c r="AAY16" s="0"/>
+      <c r="AAZ16" s="0"/>
+      <c r="ABA16" s="0"/>
+      <c r="ABB16" s="0"/>
+      <c r="ABC16" s="0"/>
+      <c r="ABD16" s="0"/>
+      <c r="ABE16" s="0"/>
+      <c r="ABF16" s="0"/>
+      <c r="ABG16" s="0"/>
+      <c r="ABH16" s="0"/>
+      <c r="ABI16" s="0"/>
+      <c r="ABJ16" s="0"/>
+      <c r="ABK16" s="0"/>
+      <c r="ABL16" s="0"/>
+      <c r="ABM16" s="0"/>
+      <c r="ABN16" s="0"/>
+      <c r="ABO16" s="0"/>
+      <c r="ABP16" s="0"/>
+      <c r="ABQ16" s="0"/>
+      <c r="ABR16" s="0"/>
+      <c r="ABS16" s="0"/>
+      <c r="ABT16" s="0"/>
+      <c r="ABU16" s="0"/>
+      <c r="ABV16" s="0"/>
+      <c r="ABW16" s="0"/>
+      <c r="ABX16" s="0"/>
+      <c r="ABY16" s="0"/>
+      <c r="ABZ16" s="0"/>
+      <c r="ACA16" s="0"/>
+      <c r="ACB16" s="0"/>
+      <c r="ACC16" s="0"/>
+      <c r="ACD16" s="0"/>
+      <c r="ACE16" s="0"/>
+      <c r="ACF16" s="0"/>
+      <c r="ACG16" s="0"/>
+      <c r="ACH16" s="0"/>
+      <c r="ACI16" s="0"/>
+      <c r="ACJ16" s="0"/>
+      <c r="ACK16" s="0"/>
+      <c r="ACL16" s="0"/>
+      <c r="ACM16" s="0"/>
+      <c r="ACN16" s="0"/>
+      <c r="ACO16" s="0"/>
+      <c r="ACP16" s="0"/>
+      <c r="ACQ16" s="0"/>
+      <c r="ACR16" s="0"/>
+      <c r="ACS16" s="0"/>
+      <c r="ACT16" s="0"/>
+      <c r="ACU16" s="0"/>
+      <c r="ACV16" s="0"/>
+      <c r="ACW16" s="0"/>
+      <c r="ACX16" s="0"/>
+      <c r="ACY16" s="0"/>
+      <c r="ACZ16" s="0"/>
+      <c r="ADA16" s="0"/>
+      <c r="ADB16" s="0"/>
+      <c r="ADC16" s="0"/>
+      <c r="ADD16" s="0"/>
+      <c r="ADE16" s="0"/>
+      <c r="ADF16" s="0"/>
+      <c r="ADG16" s="0"/>
+      <c r="ADH16" s="0"/>
+      <c r="ADI16" s="0"/>
+      <c r="ADJ16" s="0"/>
+      <c r="ADK16" s="0"/>
+      <c r="ADL16" s="0"/>
+      <c r="ADM16" s="0"/>
+      <c r="ADN16" s="0"/>
+      <c r="ADO16" s="0"/>
+      <c r="ADP16" s="0"/>
+      <c r="ADQ16" s="0"/>
+      <c r="ADR16" s="0"/>
+      <c r="ADS16" s="0"/>
+      <c r="ADT16" s="0"/>
+      <c r="ADU16" s="0"/>
+      <c r="ADV16" s="0"/>
+      <c r="ADW16" s="0"/>
+      <c r="ADX16" s="0"/>
+      <c r="ADY16" s="0"/>
+      <c r="ADZ16" s="0"/>
+      <c r="AEA16" s="0"/>
+      <c r="AEB16" s="0"/>
+      <c r="AEC16" s="0"/>
+      <c r="AED16" s="0"/>
+      <c r="AEE16" s="0"/>
+      <c r="AEF16" s="0"/>
+      <c r="AEG16" s="0"/>
+      <c r="AEH16" s="0"/>
+      <c r="AEI16" s="0"/>
+      <c r="AEJ16" s="0"/>
+      <c r="AEK16" s="0"/>
+      <c r="AEL16" s="0"/>
+      <c r="AEM16" s="0"/>
+      <c r="AEN16" s="0"/>
+      <c r="AEO16" s="0"/>
+      <c r="AEP16" s="0"/>
+      <c r="AEQ16" s="0"/>
+      <c r="AER16" s="0"/>
+      <c r="AES16" s="0"/>
+      <c r="AET16" s="0"/>
+      <c r="AEU16" s="0"/>
+      <c r="AEV16" s="0"/>
+      <c r="AEW16" s="0"/>
+      <c r="AEX16" s="0"/>
+      <c r="AEY16" s="0"/>
+      <c r="AEZ16" s="0"/>
+      <c r="AFA16" s="0"/>
+      <c r="AFB16" s="0"/>
+      <c r="AFC16" s="0"/>
+      <c r="AFD16" s="0"/>
+      <c r="AFE16" s="0"/>
+      <c r="AFF16" s="0"/>
+      <c r="AFG16" s="0"/>
+      <c r="AFH16" s="0"/>
+      <c r="AFI16" s="0"/>
+      <c r="AFJ16" s="0"/>
+      <c r="AFK16" s="0"/>
+      <c r="AFL16" s="0"/>
+      <c r="AFM16" s="0"/>
+      <c r="AFN16" s="0"/>
+      <c r="AFO16" s="0"/>
+      <c r="AFP16" s="0"/>
+      <c r="AFQ16" s="0"/>
+      <c r="AFR16" s="0"/>
+      <c r="AFS16" s="0"/>
+      <c r="AFT16" s="0"/>
+      <c r="AFU16" s="0"/>
+      <c r="AFV16" s="0"/>
+      <c r="AFW16" s="0"/>
+      <c r="AFX16" s="0"/>
+      <c r="AFY16" s="0"/>
+      <c r="AFZ16" s="0"/>
+      <c r="AGA16" s="0"/>
+      <c r="AGB16" s="0"/>
+      <c r="AGC16" s="0"/>
+      <c r="AGD16" s="0"/>
+      <c r="AGE16" s="0"/>
+      <c r="AGF16" s="0"/>
+      <c r="AGG16" s="0"/>
+      <c r="AGH16" s="0"/>
+      <c r="AGI16" s="0"/>
+      <c r="AGJ16" s="0"/>
+      <c r="AGK16" s="0"/>
+      <c r="AGL16" s="0"/>
+      <c r="AGM16" s="0"/>
+      <c r="AGN16" s="0"/>
+      <c r="AGO16" s="0"/>
+      <c r="AGP16" s="0"/>
+      <c r="AGQ16" s="0"/>
+      <c r="AGR16" s="0"/>
+      <c r="AGS16" s="0"/>
+      <c r="AGT16" s="0"/>
+      <c r="AGU16" s="0"/>
+      <c r="AGV16" s="0"/>
+      <c r="AGW16" s="0"/>
+      <c r="AGX16" s="0"/>
+      <c r="AGY16" s="0"/>
+      <c r="AGZ16" s="0"/>
+      <c r="AHA16" s="0"/>
+      <c r="AHB16" s="0"/>
+      <c r="AHC16" s="0"/>
+      <c r="AHD16" s="0"/>
+      <c r="AHE16" s="0"/>
+      <c r="AHF16" s="0"/>
+      <c r="AHG16" s="0"/>
+      <c r="AHH16" s="0"/>
+      <c r="AHI16" s="0"/>
+      <c r="AHJ16" s="0"/>
+      <c r="AHK16" s="0"/>
+      <c r="AHL16" s="0"/>
+      <c r="AHM16" s="0"/>
+      <c r="AHN16" s="0"/>
+      <c r="AHO16" s="0"/>
+      <c r="AHP16" s="0"/>
+      <c r="AHQ16" s="0"/>
+      <c r="AHR16" s="0"/>
+      <c r="AHS16" s="0"/>
+      <c r="AHT16" s="0"/>
+      <c r="AHU16" s="0"/>
+      <c r="AHV16" s="0"/>
+      <c r="AHW16" s="0"/>
+      <c r="AHX16" s="0"/>
+      <c r="AHY16" s="0"/>
+      <c r="AHZ16" s="0"/>
+      <c r="AIA16" s="0"/>
+      <c r="AIB16" s="0"/>
+      <c r="AIC16" s="0"/>
+      <c r="AID16" s="0"/>
+      <c r="AIE16" s="0"/>
+      <c r="AIF16" s="0"/>
+      <c r="AIG16" s="0"/>
+      <c r="AIH16" s="0"/>
+      <c r="AII16" s="0"/>
+      <c r="AIJ16" s="0"/>
+      <c r="AIK16" s="0"/>
+      <c r="AIL16" s="0"/>
+      <c r="AIM16" s="0"/>
+      <c r="AIN16" s="0"/>
+      <c r="AIO16" s="0"/>
+      <c r="AIP16" s="0"/>
+      <c r="AIQ16" s="0"/>
+      <c r="AIR16" s="0"/>
+      <c r="AIS16" s="0"/>
+      <c r="AIT16" s="0"/>
+      <c r="AIU16" s="0"/>
+      <c r="AIV16" s="0"/>
+      <c r="AIW16" s="0"/>
+      <c r="AIX16" s="0"/>
+      <c r="AIY16" s="0"/>
+      <c r="AIZ16" s="0"/>
+      <c r="AJA16" s="0"/>
+      <c r="AJB16" s="0"/>
+      <c r="AJC16" s="0"/>
+      <c r="AJD16" s="0"/>
+      <c r="AJE16" s="0"/>
+      <c r="AJF16" s="0"/>
+      <c r="AJG16" s="0"/>
+      <c r="AJH16" s="0"/>
+      <c r="AJI16" s="0"/>
+      <c r="AJJ16" s="0"/>
+      <c r="AJK16" s="0"/>
+      <c r="AJL16" s="0"/>
+      <c r="AJM16" s="0"/>
+      <c r="AJN16" s="0"/>
+      <c r="AJO16" s="0"/>
+      <c r="AJP16" s="0"/>
+      <c r="AJQ16" s="0"/>
+      <c r="AJR16" s="0"/>
+      <c r="AJS16" s="0"/>
+      <c r="AJT16" s="0"/>
+      <c r="AJU16" s="0"/>
+      <c r="AJV16" s="0"/>
+      <c r="AJW16" s="0"/>
+      <c r="AJX16" s="0"/>
+      <c r="AJY16" s="0"/>
+      <c r="AJZ16" s="0"/>
+      <c r="AKA16" s="0"/>
+      <c r="AKB16" s="0"/>
+      <c r="AKC16" s="0"/>
+      <c r="AKD16" s="0"/>
+      <c r="AKE16" s="0"/>
+      <c r="AKF16" s="0"/>
+      <c r="AKG16" s="0"/>
+      <c r="AKH16" s="0"/>
+      <c r="AKI16" s="0"/>
+      <c r="AKJ16" s="0"/>
+      <c r="AKK16" s="0"/>
+      <c r="AKL16" s="0"/>
+      <c r="AKM16" s="0"/>
+      <c r="AKN16" s="0"/>
+      <c r="AKO16" s="0"/>
+      <c r="AKP16" s="0"/>
+      <c r="AKQ16" s="0"/>
+      <c r="AKR16" s="0"/>
+      <c r="AKS16" s="0"/>
+      <c r="AKT16" s="0"/>
+      <c r="AKU16" s="0"/>
+      <c r="AKV16" s="0"/>
+      <c r="AKW16" s="0"/>
+      <c r="AKX16" s="0"/>
+      <c r="AKY16" s="0"/>
+      <c r="AKZ16" s="0"/>
+      <c r="ALA16" s="0"/>
+      <c r="ALB16" s="0"/>
+      <c r="ALC16" s="0"/>
+      <c r="ALD16" s="0"/>
+      <c r="ALE16" s="0"/>
+      <c r="ALF16" s="0"/>
+      <c r="ALG16" s="0"/>
+      <c r="ALH16" s="0"/>
+      <c r="ALI16" s="0"/>
+      <c r="ALJ16" s="0"/>
+      <c r="ALK16" s="0"/>
+      <c r="ALL16" s="0"/>
+      <c r="ALM16" s="0"/>
+      <c r="ALN16" s="0"/>
+      <c r="ALO16" s="0"/>
+      <c r="ALP16" s="0"/>
+      <c r="ALQ16" s="0"/>
+      <c r="ALR16" s="0"/>
+      <c r="ALS16" s="0"/>
+      <c r="ALT16" s="0"/>
+      <c r="ALU16" s="0"/>
+      <c r="ALV16" s="0"/>
+      <c r="ALW16" s="0"/>
+      <c r="ALX16" s="0"/>
+      <c r="ALY16" s="0"/>
+      <c r="ALZ16" s="0"/>
+      <c r="AMA16" s="0"/>
+      <c r="AMB16" s="0"/>
+      <c r="AMC16" s="0"/>
+      <c r="AMD16" s="0"/>
+      <c r="AME16" s="0"/>
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="0"/>
+      <c r="AI17" s="0"/>
+      <c r="AJ17" s="0"/>
+      <c r="AK17" s="0"/>
+      <c r="AL17" s="0"/>
+      <c r="AM17" s="0"/>
+      <c r="AN17" s="0"/>
+      <c r="AO17" s="0"/>
+      <c r="AP17" s="0"/>
+      <c r="AQ17" s="0"/>
+      <c r="AR17" s="0"/>
+      <c r="AS17" s="0"/>
+      <c r="AT17" s="0"/>
+      <c r="AU17" s="0"/>
+      <c r="AV17" s="0"/>
+      <c r="AW17" s="0"/>
+      <c r="AX17" s="0"/>
+      <c r="AY17" s="0"/>
+      <c r="AZ17" s="0"/>
+      <c r="BA17" s="0"/>
+      <c r="BB17" s="0"/>
+      <c r="BC17" s="0"/>
+      <c r="BD17" s="0"/>
+      <c r="BE17" s="0"/>
+      <c r="BF17" s="0"/>
+      <c r="BG17" s="0"/>
+      <c r="BH17" s="0"/>
+      <c r="BI17" s="0"/>
+      <c r="BJ17" s="0"/>
+      <c r="BK17" s="0"/>
+      <c r="BL17" s="0"/>
+      <c r="BM17" s="0"/>
+      <c r="BN17" s="0"/>
+      <c r="BO17" s="0"/>
+      <c r="BP17" s="0"/>
+      <c r="BQ17" s="0"/>
+      <c r="BR17" s="0"/>
+      <c r="BS17" s="0"/>
+      <c r="BT17" s="0"/>
+      <c r="BU17" s="0"/>
+      <c r="BV17" s="0"/>
+      <c r="BW17" s="0"/>
+      <c r="BX17" s="0"/>
+      <c r="BY17" s="0"/>
+      <c r="BZ17" s="0"/>
+      <c r="CA17" s="0"/>
+      <c r="CB17" s="0"/>
+      <c r="CC17" s="0"/>
+      <c r="CD17" s="0"/>
+      <c r="CE17" s="0"/>
+      <c r="CF17" s="0"/>
+      <c r="CG17" s="0"/>
+      <c r="CH17" s="0"/>
+      <c r="CI17" s="0"/>
+      <c r="CJ17" s="0"/>
+      <c r="CK17" s="0"/>
+      <c r="CL17" s="0"/>
+      <c r="CM17" s="0"/>
+      <c r="CN17" s="0"/>
+      <c r="CO17" s="0"/>
+      <c r="CP17" s="0"/>
+      <c r="CQ17" s="0"/>
+      <c r="CR17" s="0"/>
+      <c r="CS17" s="0"/>
+      <c r="CT17" s="0"/>
+      <c r="CU17" s="0"/>
+      <c r="CV17" s="0"/>
+      <c r="CW17" s="0"/>
+      <c r="CX17" s="0"/>
+      <c r="CY17" s="0"/>
+      <c r="CZ17" s="0"/>
+      <c r="DA17" s="0"/>
+      <c r="DB17" s="0"/>
+      <c r="DC17" s="0"/>
+      <c r="DD17" s="0"/>
+      <c r="DE17" s="0"/>
+      <c r="DF17" s="0"/>
+      <c r="DG17" s="0"/>
+      <c r="DH17" s="0"/>
+      <c r="DI17" s="0"/>
+      <c r="DJ17" s="0"/>
+      <c r="DK17" s="0"/>
+      <c r="DL17" s="0"/>
+      <c r="DM17" s="0"/>
+      <c r="DN17" s="0"/>
+      <c r="DO17" s="0"/>
+      <c r="DP17" s="0"/>
+      <c r="DQ17" s="0"/>
+      <c r="DR17" s="0"/>
+      <c r="DS17" s="0"/>
+      <c r="DT17" s="0"/>
+      <c r="DU17" s="0"/>
+      <c r="DV17" s="0"/>
+      <c r="DW17" s="0"/>
+      <c r="DX17" s="0"/>
+      <c r="DY17" s="0"/>
+      <c r="DZ17" s="0"/>
+      <c r="EA17" s="0"/>
+      <c r="EB17" s="0"/>
+      <c r="EC17" s="0"/>
+      <c r="ED17" s="0"/>
+      <c r="EE17" s="0"/>
+      <c r="EF17" s="0"/>
+      <c r="EG17" s="0"/>
+      <c r="EH17" s="0"/>
+      <c r="EI17" s="0"/>
+      <c r="EJ17" s="0"/>
+      <c r="EK17" s="0"/>
+      <c r="EL17" s="0"/>
+      <c r="EM17" s="0"/>
+      <c r="EN17" s="0"/>
+      <c r="EO17" s="0"/>
+      <c r="EP17" s="0"/>
+      <c r="EQ17" s="0"/>
+      <c r="ER17" s="0"/>
+      <c r="ES17" s="0"/>
+      <c r="ET17" s="0"/>
+      <c r="EU17" s="0"/>
+      <c r="EV17" s="0"/>
+      <c r="EW17" s="0"/>
+      <c r="EX17" s="0"/>
+      <c r="EY17" s="0"/>
+      <c r="EZ17" s="0"/>
+      <c r="FA17" s="0"/>
+      <c r="FB17" s="0"/>
+      <c r="FC17" s="0"/>
+      <c r="FD17" s="0"/>
+      <c r="FE17" s="0"/>
+      <c r="FF17" s="0"/>
+      <c r="FG17" s="0"/>
+      <c r="FH17" s="0"/>
+      <c r="FI17" s="0"/>
+      <c r="FJ17" s="0"/>
+      <c r="FK17" s="0"/>
+      <c r="FL17" s="0"/>
+      <c r="FM17" s="0"/>
+      <c r="FN17" s="0"/>
+      <c r="FO17" s="0"/>
+      <c r="FP17" s="0"/>
+      <c r="FQ17" s="0"/>
+      <c r="FR17" s="0"/>
+      <c r="FS17" s="0"/>
+      <c r="FT17" s="0"/>
+      <c r="FU17" s="0"/>
+      <c r="FV17" s="0"/>
+      <c r="FW17" s="0"/>
+      <c r="FX17" s="0"/>
+      <c r="FY17" s="0"/>
+      <c r="FZ17" s="0"/>
+      <c r="GA17" s="0"/>
+      <c r="GB17" s="0"/>
+      <c r="GC17" s="0"/>
+      <c r="GD17" s="0"/>
+      <c r="GE17" s="0"/>
+      <c r="GF17" s="0"/>
+      <c r="GG17" s="0"/>
+      <c r="GH17" s="0"/>
+      <c r="GI17" s="0"/>
+      <c r="GJ17" s="0"/>
+      <c r="GK17" s="0"/>
+      <c r="GL17" s="0"/>
+      <c r="GM17" s="0"/>
+      <c r="GN17" s="0"/>
+      <c r="GO17" s="0"/>
+      <c r="GP17" s="0"/>
+      <c r="GQ17" s="0"/>
+      <c r="GR17" s="0"/>
+      <c r="GS17" s="0"/>
+      <c r="GT17" s="0"/>
+      <c r="GU17" s="0"/>
+      <c r="GV17" s="0"/>
+      <c r="GW17" s="0"/>
+      <c r="GX17" s="0"/>
+      <c r="GY17" s="0"/>
+      <c r="GZ17" s="0"/>
+      <c r="HA17" s="0"/>
+      <c r="HB17" s="0"/>
+      <c r="HC17" s="0"/>
+      <c r="HD17" s="0"/>
+      <c r="HE17" s="0"/>
+      <c r="HF17" s="0"/>
+      <c r="HG17" s="0"/>
+      <c r="HH17" s="0"/>
+      <c r="HI17" s="0"/>
+      <c r="HJ17" s="0"/>
+      <c r="HK17" s="0"/>
+      <c r="HL17" s="0"/>
+      <c r="HM17" s="0"/>
+      <c r="HN17" s="0"/>
+      <c r="HO17" s="0"/>
+      <c r="HP17" s="0"/>
+      <c r="HQ17" s="0"/>
+      <c r="HR17" s="0"/>
+      <c r="HS17" s="0"/>
+      <c r="HT17" s="0"/>
+      <c r="HU17" s="0"/>
+      <c r="HV17" s="0"/>
+      <c r="HW17" s="0"/>
+      <c r="HX17" s="0"/>
+      <c r="HY17" s="0"/>
+      <c r="HZ17" s="0"/>
+      <c r="IA17" s="0"/>
+      <c r="IB17" s="0"/>
+      <c r="IC17" s="0"/>
+      <c r="ID17" s="0"/>
+      <c r="IE17" s="0"/>
+      <c r="IF17" s="0"/>
+      <c r="IG17" s="0"/>
+      <c r="IH17" s="0"/>
+      <c r="II17" s="0"/>
+      <c r="IJ17" s="0"/>
+      <c r="IK17" s="0"/>
+      <c r="IL17" s="0"/>
+      <c r="IM17" s="0"/>
+      <c r="IN17" s="0"/>
+      <c r="IO17" s="0"/>
+      <c r="IP17" s="0"/>
+      <c r="IQ17" s="0"/>
+      <c r="IR17" s="0"/>
+      <c r="IS17" s="0"/>
+      <c r="IT17" s="0"/>
+      <c r="IU17" s="0"/>
+      <c r="IV17" s="0"/>
+      <c r="IW17" s="0"/>
+      <c r="IX17" s="0"/>
+      <c r="IY17" s="0"/>
+      <c r="IZ17" s="0"/>
+      <c r="JA17" s="0"/>
+      <c r="JB17" s="0"/>
+      <c r="JC17" s="0"/>
+      <c r="JD17" s="0"/>
+      <c r="JE17" s="0"/>
+      <c r="JF17" s="0"/>
+      <c r="JG17" s="0"/>
+      <c r="JH17" s="0"/>
+      <c r="JI17" s="0"/>
+      <c r="JJ17" s="0"/>
+      <c r="JK17" s="0"/>
+      <c r="JL17" s="0"/>
+      <c r="JM17" s="0"/>
+      <c r="JN17" s="0"/>
+      <c r="JO17" s="0"/>
+      <c r="JP17" s="0"/>
+      <c r="JQ17" s="0"/>
+      <c r="JR17" s="0"/>
+      <c r="JS17" s="0"/>
+      <c r="JT17" s="0"/>
+      <c r="JU17" s="0"/>
+      <c r="JV17" s="0"/>
+      <c r="JW17" s="0"/>
+      <c r="JX17" s="0"/>
+      <c r="JY17" s="0"/>
+      <c r="JZ17" s="0"/>
+      <c r="KA17" s="0"/>
+      <c r="KB17" s="0"/>
+      <c r="KC17" s="0"/>
+      <c r="KD17" s="0"/>
+      <c r="KE17" s="0"/>
+      <c r="KF17" s="0"/>
+      <c r="KG17" s="0"/>
+      <c r="KH17" s="0"/>
+      <c r="KI17" s="0"/>
+      <c r="KJ17" s="0"/>
+      <c r="KK17" s="0"/>
+      <c r="KL17" s="0"/>
+      <c r="KM17" s="0"/>
+      <c r="KN17" s="0"/>
+      <c r="KO17" s="0"/>
+      <c r="KP17" s="0"/>
+      <c r="KQ17" s="0"/>
+      <c r="KR17" s="0"/>
+      <c r="KS17" s="0"/>
+      <c r="KT17" s="0"/>
+      <c r="KU17" s="0"/>
+      <c r="KV17" s="0"/>
+      <c r="KW17" s="0"/>
+      <c r="KX17" s="0"/>
+      <c r="KY17" s="0"/>
+      <c r="KZ17" s="0"/>
+      <c r="LA17" s="0"/>
+      <c r="LB17" s="0"/>
+      <c r="LC17" s="0"/>
+      <c r="LD17" s="0"/>
+      <c r="LE17" s="0"/>
+      <c r="LF17" s="0"/>
+      <c r="LG17" s="0"/>
+      <c r="LH17" s="0"/>
+      <c r="LI17" s="0"/>
+      <c r="LJ17" s="0"/>
+      <c r="LK17" s="0"/>
+      <c r="LL17" s="0"/>
+      <c r="LM17" s="0"/>
+      <c r="LN17" s="0"/>
+      <c r="LO17" s="0"/>
+      <c r="LP17" s="0"/>
+      <c r="LQ17" s="0"/>
+      <c r="LR17" s="0"/>
+      <c r="LS17" s="0"/>
+      <c r="LT17" s="0"/>
+      <c r="LU17" s="0"/>
+      <c r="LV17" s="0"/>
+      <c r="LW17" s="0"/>
+      <c r="LX17" s="0"/>
+      <c r="LY17" s="0"/>
+      <c r="LZ17" s="0"/>
+      <c r="MA17" s="0"/>
+      <c r="MB17" s="0"/>
+      <c r="MC17" s="0"/>
+      <c r="MD17" s="0"/>
+      <c r="ME17" s="0"/>
+      <c r="MF17" s="0"/>
+      <c r="MG17" s="0"/>
+      <c r="MH17" s="0"/>
+      <c r="MI17" s="0"/>
+      <c r="MJ17" s="0"/>
+      <c r="MK17" s="0"/>
+      <c r="ML17" s="0"/>
+      <c r="MM17" s="0"/>
+      <c r="MN17" s="0"/>
+      <c r="MO17" s="0"/>
+      <c r="MP17" s="0"/>
+      <c r="MQ17" s="0"/>
+      <c r="MR17" s="0"/>
+      <c r="MS17" s="0"/>
+      <c r="MT17" s="0"/>
+      <c r="MU17" s="0"/>
+      <c r="MV17" s="0"/>
+      <c r="MW17" s="0"/>
+      <c r="MX17" s="0"/>
+      <c r="MY17" s="0"/>
+      <c r="MZ17" s="0"/>
+      <c r="NA17" s="0"/>
+      <c r="NB17" s="0"/>
+      <c r="NC17" s="0"/>
+      <c r="ND17" s="0"/>
+      <c r="NE17" s="0"/>
+      <c r="NF17" s="0"/>
+      <c r="NG17" s="0"/>
+      <c r="NH17" s="0"/>
+      <c r="NI17" s="0"/>
+      <c r="NJ17" s="0"/>
+      <c r="NK17" s="0"/>
+      <c r="NL17" s="0"/>
+      <c r="NM17" s="0"/>
+      <c r="NN17" s="0"/>
+      <c r="NO17" s="0"/>
+      <c r="NP17" s="0"/>
+      <c r="NQ17" s="0"/>
+      <c r="NR17" s="0"/>
+      <c r="NS17" s="0"/>
+      <c r="NT17" s="0"/>
+      <c r="NU17" s="0"/>
+      <c r="NV17" s="0"/>
+      <c r="NW17" s="0"/>
+      <c r="NX17" s="0"/>
+      <c r="NY17" s="0"/>
+      <c r="NZ17" s="0"/>
+      <c r="OA17" s="0"/>
+      <c r="OB17" s="0"/>
+      <c r="OC17" s="0"/>
+      <c r="OD17" s="0"/>
+      <c r="OE17" s="0"/>
+      <c r="OF17" s="0"/>
+      <c r="OG17" s="0"/>
+      <c r="OH17" s="0"/>
+      <c r="OI17" s="0"/>
+      <c r="OJ17" s="0"/>
+      <c r="OK17" s="0"/>
+      <c r="OL17" s="0"/>
+      <c r="OM17" s="0"/>
+      <c r="ON17" s="0"/>
+      <c r="OO17" s="0"/>
+      <c r="OP17" s="0"/>
+      <c r="OQ17" s="0"/>
+      <c r="OR17" s="0"/>
+      <c r="OS17" s="0"/>
+      <c r="OT17" s="0"/>
+      <c r="OU17" s="0"/>
+      <c r="OV17" s="0"/>
+      <c r="OW17" s="0"/>
+      <c r="OX17" s="0"/>
+      <c r="OY17" s="0"/>
+      <c r="OZ17" s="0"/>
+      <c r="PA17" s="0"/>
+      <c r="PB17" s="0"/>
+      <c r="PC17" s="0"/>
+      <c r="PD17" s="0"/>
+      <c r="PE17" s="0"/>
+      <c r="PF17" s="0"/>
+      <c r="PG17" s="0"/>
+      <c r="PH17" s="0"/>
+      <c r="PI17" s="0"/>
+      <c r="PJ17" s="0"/>
+      <c r="PK17" s="0"/>
+      <c r="PL17" s="0"/>
+      <c r="PM17" s="0"/>
+      <c r="PN17" s="0"/>
+      <c r="PO17" s="0"/>
+      <c r="PP17" s="0"/>
+      <c r="PQ17" s="0"/>
+      <c r="PR17" s="0"/>
+      <c r="PS17" s="0"/>
+      <c r="PT17" s="0"/>
+      <c r="PU17" s="0"/>
+      <c r="PV17" s="0"/>
+      <c r="PW17" s="0"/>
+      <c r="PX17" s="0"/>
+      <c r="PY17" s="0"/>
+      <c r="PZ17" s="0"/>
+      <c r="QA17" s="0"/>
+      <c r="QB17" s="0"/>
+      <c r="QC17" s="0"/>
+      <c r="QD17" s="0"/>
+      <c r="QE17" s="0"/>
+      <c r="QF17" s="0"/>
+      <c r="QG17" s="0"/>
+      <c r="QH17" s="0"/>
+      <c r="QI17" s="0"/>
+      <c r="QJ17" s="0"/>
+      <c r="QK17" s="0"/>
+      <c r="QL17" s="0"/>
+      <c r="QM17" s="0"/>
+      <c r="QN17" s="0"/>
+      <c r="QO17" s="0"/>
+      <c r="QP17" s="0"/>
+      <c r="QQ17" s="0"/>
+      <c r="QR17" s="0"/>
+      <c r="QS17" s="0"/>
+      <c r="QT17" s="0"/>
+      <c r="QU17" s="0"/>
+      <c r="QV17" s="0"/>
+      <c r="QW17" s="0"/>
+      <c r="QX17" s="0"/>
+      <c r="QY17" s="0"/>
+      <c r="QZ17" s="0"/>
+      <c r="RA17" s="0"/>
+      <c r="RB17" s="0"/>
+      <c r="RC17" s="0"/>
+      <c r="RD17" s="0"/>
+      <c r="RE17" s="0"/>
+      <c r="RF17" s="0"/>
+      <c r="RG17" s="0"/>
+      <c r="RH17" s="0"/>
+      <c r="RI17" s="0"/>
+      <c r="RJ17" s="0"/>
+      <c r="RK17" s="0"/>
+      <c r="RL17" s="0"/>
+      <c r="RM17" s="0"/>
+      <c r="RN17" s="0"/>
+      <c r="RO17" s="0"/>
+      <c r="RP17" s="0"/>
+      <c r="RQ17" s="0"/>
+      <c r="RR17" s="0"/>
+      <c r="RS17" s="0"/>
+      <c r="RT17" s="0"/>
+      <c r="RU17" s="0"/>
+      <c r="RV17" s="0"/>
+      <c r="RW17" s="0"/>
+      <c r="RX17" s="0"/>
+      <c r="RY17" s="0"/>
+      <c r="RZ17" s="0"/>
+      <c r="SA17" s="0"/>
+      <c r="SB17" s="0"/>
+      <c r="SC17" s="0"/>
+      <c r="SD17" s="0"/>
+      <c r="SE17" s="0"/>
+      <c r="SF17" s="0"/>
+      <c r="SG17" s="0"/>
+      <c r="SH17" s="0"/>
+      <c r="SI17" s="0"/>
+      <c r="SJ17" s="0"/>
+      <c r="SK17" s="0"/>
+      <c r="SL17" s="0"/>
+      <c r="SM17" s="0"/>
+      <c r="SN17" s="0"/>
+      <c r="SO17" s="0"/>
+      <c r="SP17" s="0"/>
+      <c r="SQ17" s="0"/>
+      <c r="SR17" s="0"/>
+      <c r="SS17" s="0"/>
+      <c r="ST17" s="0"/>
+      <c r="SU17" s="0"/>
+      <c r="SV17" s="0"/>
+      <c r="SW17" s="0"/>
+      <c r="SX17" s="0"/>
+      <c r="SY17" s="0"/>
+      <c r="SZ17" s="0"/>
+      <c r="TA17" s="0"/>
+      <c r="TB17" s="0"/>
+      <c r="TC17" s="0"/>
+      <c r="TD17" s="0"/>
+      <c r="TE17" s="0"/>
+      <c r="TF17" s="0"/>
+      <c r="TG17" s="0"/>
+      <c r="TH17" s="0"/>
+      <c r="TI17" s="0"/>
+      <c r="TJ17" s="0"/>
+      <c r="TK17" s="0"/>
+      <c r="TL17" s="0"/>
+      <c r="TM17" s="0"/>
+      <c r="TN17" s="0"/>
+      <c r="TO17" s="0"/>
+      <c r="TP17" s="0"/>
+      <c r="TQ17" s="0"/>
+      <c r="TR17" s="0"/>
+      <c r="TS17" s="0"/>
+      <c r="TT17" s="0"/>
+      <c r="TU17" s="0"/>
+      <c r="TV17" s="0"/>
+      <c r="TW17" s="0"/>
+      <c r="TX17" s="0"/>
+      <c r="TY17" s="0"/>
+      <c r="TZ17" s="0"/>
+      <c r="UA17" s="0"/>
+      <c r="UB17" s="0"/>
+      <c r="UC17" s="0"/>
+      <c r="UD17" s="0"/>
+      <c r="UE17" s="0"/>
+      <c r="UF17" s="0"/>
+      <c r="UG17" s="0"/>
+      <c r="UH17" s="0"/>
+      <c r="UI17" s="0"/>
+      <c r="UJ17" s="0"/>
+      <c r="UK17" s="0"/>
+      <c r="UL17" s="0"/>
+      <c r="UM17" s="0"/>
+      <c r="UN17" s="0"/>
+      <c r="UO17" s="0"/>
+      <c r="UP17" s="0"/>
+      <c r="UQ17" s="0"/>
+      <c r="UR17" s="0"/>
+      <c r="US17" s="0"/>
+      <c r="UT17" s="0"/>
+      <c r="UU17" s="0"/>
+      <c r="UV17" s="0"/>
+      <c r="UW17" s="0"/>
+      <c r="UX17" s="0"/>
+      <c r="UY17" s="0"/>
+      <c r="UZ17" s="0"/>
+      <c r="VA17" s="0"/>
+      <c r="VB17" s="0"/>
+      <c r="VC17" s="0"/>
+      <c r="VD17" s="0"/>
+      <c r="VE17" s="0"/>
+      <c r="VF17" s="0"/>
+      <c r="VG17" s="0"/>
+      <c r="VH17" s="0"/>
+      <c r="VI17" s="0"/>
+      <c r="VJ17" s="0"/>
+      <c r="VK17" s="0"/>
+      <c r="VL17" s="0"/>
+      <c r="VM17" s="0"/>
+      <c r="VN17" s="0"/>
+      <c r="VO17" s="0"/>
+      <c r="VP17" s="0"/>
+      <c r="VQ17" s="0"/>
+      <c r="VR17" s="0"/>
+      <c r="VS17" s="0"/>
+      <c r="VT17" s="0"/>
+      <c r="VU17" s="0"/>
+      <c r="VV17" s="0"/>
+      <c r="VW17" s="0"/>
+      <c r="VX17" s="0"/>
+      <c r="VY17" s="0"/>
+      <c r="VZ17" s="0"/>
+      <c r="WA17" s="0"/>
+      <c r="WB17" s="0"/>
+      <c r="WC17" s="0"/>
+      <c r="WD17" s="0"/>
+      <c r="WE17" s="0"/>
+      <c r="WF17" s="0"/>
+      <c r="WG17" s="0"/>
+      <c r="WH17" s="0"/>
+      <c r="WI17" s="0"/>
+      <c r="WJ17" s="0"/>
+      <c r="WK17" s="0"/>
+      <c r="WL17" s="0"/>
+      <c r="WM17" s="0"/>
+      <c r="WN17" s="0"/>
+      <c r="WO17" s="0"/>
+      <c r="WP17" s="0"/>
+      <c r="WQ17" s="0"/>
+      <c r="WR17" s="0"/>
+      <c r="WS17" s="0"/>
+      <c r="WT17" s="0"/>
+      <c r="WU17" s="0"/>
+      <c r="WV17" s="0"/>
+      <c r="WW17" s="0"/>
+      <c r="WX17" s="0"/>
+      <c r="WY17" s="0"/>
+      <c r="WZ17" s="0"/>
+      <c r="XA17" s="0"/>
+      <c r="XB17" s="0"/>
+      <c r="XC17" s="0"/>
+      <c r="XD17" s="0"/>
+      <c r="XE17" s="0"/>
+      <c r="XF17" s="0"/>
+      <c r="XG17" s="0"/>
+      <c r="XH17" s="0"/>
+      <c r="XI17" s="0"/>
+      <c r="XJ17" s="0"/>
+      <c r="XK17" s="0"/>
+      <c r="XL17" s="0"/>
+      <c r="XM17" s="0"/>
+      <c r="XN17" s="0"/>
+      <c r="XO17" s="0"/>
+      <c r="XP17" s="0"/>
+      <c r="XQ17" s="0"/>
+      <c r="XR17" s="0"/>
+      <c r="XS17" s="0"/>
+      <c r="XT17" s="0"/>
+      <c r="XU17" s="0"/>
+      <c r="XV17" s="0"/>
+      <c r="XW17" s="0"/>
+      <c r="XX17" s="0"/>
+      <c r="XY17" s="0"/>
+      <c r="XZ17" s="0"/>
+      <c r="YA17" s="0"/>
+      <c r="YB17" s="0"/>
+      <c r="YC17" s="0"/>
+      <c r="YD17" s="0"/>
+      <c r="YE17" s="0"/>
+      <c r="YF17" s="0"/>
+      <c r="YG17" s="0"/>
+      <c r="YH17" s="0"/>
+      <c r="YI17" s="0"/>
+      <c r="YJ17" s="0"/>
+      <c r="YK17" s="0"/>
+      <c r="YL17" s="0"/>
+      <c r="YM17" s="0"/>
+      <c r="YN17" s="0"/>
+      <c r="YO17" s="0"/>
+      <c r="YP17" s="0"/>
+      <c r="YQ17" s="0"/>
+      <c r="YR17" s="0"/>
+      <c r="YS17" s="0"/>
+      <c r="YT17" s="0"/>
+      <c r="YU17" s="0"/>
+      <c r="YV17" s="0"/>
+      <c r="YW17" s="0"/>
+      <c r="YX17" s="0"/>
+      <c r="YY17" s="0"/>
+      <c r="YZ17" s="0"/>
+      <c r="ZA17" s="0"/>
+      <c r="ZB17" s="0"/>
+      <c r="ZC17" s="0"/>
+      <c r="ZD17" s="0"/>
+      <c r="ZE17" s="0"/>
+      <c r="ZF17" s="0"/>
+      <c r="ZG17" s="0"/>
+      <c r="ZH17" s="0"/>
+      <c r="ZI17" s="0"/>
+      <c r="ZJ17" s="0"/>
+      <c r="ZK17" s="0"/>
+      <c r="ZL17" s="0"/>
+      <c r="ZM17" s="0"/>
+      <c r="ZN17" s="0"/>
+      <c r="ZO17" s="0"/>
+      <c r="ZP17" s="0"/>
+      <c r="ZQ17" s="0"/>
+      <c r="ZR17" s="0"/>
+      <c r="ZS17" s="0"/>
+      <c r="ZT17" s="0"/>
+      <c r="ZU17" s="0"/>
+      <c r="ZV17" s="0"/>
+      <c r="ZW17" s="0"/>
+      <c r="ZX17" s="0"/>
+      <c r="ZY17" s="0"/>
+      <c r="ZZ17" s="0"/>
+      <c r="AAA17" s="0"/>
+      <c r="AAB17" s="0"/>
+      <c r="AAC17" s="0"/>
+      <c r="AAD17" s="0"/>
+      <c r="AAE17" s="0"/>
+      <c r="AAF17" s="0"/>
+      <c r="AAG17" s="0"/>
+      <c r="AAH17" s="0"/>
+      <c r="AAI17" s="0"/>
+      <c r="AAJ17" s="0"/>
+      <c r="AAK17" s="0"/>
+      <c r="AAL17" s="0"/>
+      <c r="AAM17" s="0"/>
+      <c r="AAN17" s="0"/>
+      <c r="AAO17" s="0"/>
+      <c r="AAP17" s="0"/>
+      <c r="AAQ17" s="0"/>
+      <c r="AAR17" s="0"/>
+      <c r="AAS17" s="0"/>
+      <c r="AAT17" s="0"/>
+      <c r="AAU17" s="0"/>
+      <c r="AAV17" s="0"/>
+      <c r="AAW17" s="0"/>
+      <c r="AAX17" s="0"/>
+      <c r="AAY17" s="0"/>
+      <c r="AAZ17" s="0"/>
+      <c r="ABA17" s="0"/>
+      <c r="ABB17" s="0"/>
+      <c r="ABC17" s="0"/>
+      <c r="ABD17" s="0"/>
+      <c r="ABE17" s="0"/>
+      <c r="ABF17" s="0"/>
+      <c r="ABG17" s="0"/>
+      <c r="ABH17" s="0"/>
+      <c r="ABI17" s="0"/>
+      <c r="ABJ17" s="0"/>
+      <c r="ABK17" s="0"/>
+      <c r="ABL17" s="0"/>
+      <c r="ABM17" s="0"/>
+      <c r="ABN17" s="0"/>
+      <c r="ABO17" s="0"/>
+      <c r="ABP17" s="0"/>
+      <c r="ABQ17" s="0"/>
+      <c r="ABR17" s="0"/>
+      <c r="ABS17" s="0"/>
+      <c r="ABT17" s="0"/>
+      <c r="ABU17" s="0"/>
+      <c r="ABV17" s="0"/>
+      <c r="ABW17" s="0"/>
+      <c r="ABX17" s="0"/>
+      <c r="ABY17" s="0"/>
+      <c r="ABZ17" s="0"/>
+      <c r="ACA17" s="0"/>
+      <c r="ACB17" s="0"/>
+      <c r="ACC17" s="0"/>
+      <c r="ACD17" s="0"/>
+      <c r="ACE17" s="0"/>
+      <c r="ACF17" s="0"/>
+      <c r="ACG17" s="0"/>
+      <c r="ACH17" s="0"/>
+      <c r="ACI17" s="0"/>
+      <c r="ACJ17" s="0"/>
+      <c r="ACK17" s="0"/>
+      <c r="ACL17" s="0"/>
+      <c r="ACM17" s="0"/>
+      <c r="ACN17" s="0"/>
+      <c r="ACO17" s="0"/>
+      <c r="ACP17" s="0"/>
+      <c r="ACQ17" s="0"/>
+      <c r="ACR17" s="0"/>
+      <c r="ACS17" s="0"/>
+      <c r="ACT17" s="0"/>
+      <c r="ACU17" s="0"/>
+      <c r="ACV17" s="0"/>
+      <c r="ACW17" s="0"/>
+      <c r="ACX17" s="0"/>
+      <c r="ACY17" s="0"/>
+      <c r="ACZ17" s="0"/>
+      <c r="ADA17" s="0"/>
+      <c r="ADB17" s="0"/>
+      <c r="ADC17" s="0"/>
+      <c r="ADD17" s="0"/>
+      <c r="ADE17" s="0"/>
+      <c r="ADF17" s="0"/>
+      <c r="ADG17" s="0"/>
+      <c r="ADH17" s="0"/>
+      <c r="ADI17" s="0"/>
+      <c r="ADJ17" s="0"/>
+      <c r="ADK17" s="0"/>
+      <c r="ADL17" s="0"/>
+      <c r="ADM17" s="0"/>
+      <c r="ADN17" s="0"/>
+      <c r="ADO17" s="0"/>
+      <c r="ADP17" s="0"/>
+      <c r="ADQ17" s="0"/>
+      <c r="ADR17" s="0"/>
+      <c r="ADS17" s="0"/>
+      <c r="ADT17" s="0"/>
+      <c r="ADU17" s="0"/>
+      <c r="ADV17" s="0"/>
+      <c r="ADW17" s="0"/>
+      <c r="ADX17" s="0"/>
+      <c r="ADY17" s="0"/>
+      <c r="ADZ17" s="0"/>
+      <c r="AEA17" s="0"/>
+      <c r="AEB17" s="0"/>
+      <c r="AEC17" s="0"/>
+      <c r="AED17" s="0"/>
+      <c r="AEE17" s="0"/>
+      <c r="AEF17" s="0"/>
+      <c r="AEG17" s="0"/>
+      <c r="AEH17" s="0"/>
+      <c r="AEI17" s="0"/>
+      <c r="AEJ17" s="0"/>
+      <c r="AEK17" s="0"/>
+      <c r="AEL17" s="0"/>
+      <c r="AEM17" s="0"/>
+      <c r="AEN17" s="0"/>
+      <c r="AEO17" s="0"/>
+      <c r="AEP17" s="0"/>
+      <c r="AEQ17" s="0"/>
+      <c r="AER17" s="0"/>
+      <c r="AES17" s="0"/>
+      <c r="AET17" s="0"/>
+      <c r="AEU17" s="0"/>
+      <c r="AEV17" s="0"/>
+      <c r="AEW17" s="0"/>
+      <c r="AEX17" s="0"/>
+      <c r="AEY17" s="0"/>
+      <c r="AEZ17" s="0"/>
+      <c r="AFA17" s="0"/>
+      <c r="AFB17" s="0"/>
+      <c r="AFC17" s="0"/>
+      <c r="AFD17" s="0"/>
+      <c r="AFE17" s="0"/>
+      <c r="AFF17" s="0"/>
+      <c r="AFG17" s="0"/>
+      <c r="AFH17" s="0"/>
+      <c r="AFI17" s="0"/>
+      <c r="AFJ17" s="0"/>
+      <c r="AFK17" s="0"/>
+      <c r="AFL17" s="0"/>
+      <c r="AFM17" s="0"/>
+      <c r="AFN17" s="0"/>
+      <c r="AFO17" s="0"/>
+      <c r="AFP17" s="0"/>
+      <c r="AFQ17" s="0"/>
+      <c r="AFR17" s="0"/>
+      <c r="AFS17" s="0"/>
+      <c r="AFT17" s="0"/>
+      <c r="AFU17" s="0"/>
+      <c r="AFV17" s="0"/>
+      <c r="AFW17" s="0"/>
+      <c r="AFX17" s="0"/>
+      <c r="AFY17" s="0"/>
+      <c r="AFZ17" s="0"/>
+      <c r="AGA17" s="0"/>
+      <c r="AGB17" s="0"/>
+      <c r="AGC17" s="0"/>
+      <c r="AGD17" s="0"/>
+      <c r="AGE17" s="0"/>
+      <c r="AGF17" s="0"/>
+      <c r="AGG17" s="0"/>
+      <c r="AGH17" s="0"/>
+      <c r="AGI17" s="0"/>
+      <c r="AGJ17" s="0"/>
+      <c r="AGK17" s="0"/>
+      <c r="AGL17" s="0"/>
+      <c r="AGM17" s="0"/>
+      <c r="AGN17" s="0"/>
+      <c r="AGO17" s="0"/>
+      <c r="AGP17" s="0"/>
+      <c r="AGQ17" s="0"/>
+      <c r="AGR17" s="0"/>
+      <c r="AGS17" s="0"/>
+      <c r="AGT17" s="0"/>
+      <c r="AGU17" s="0"/>
+      <c r="AGV17" s="0"/>
+      <c r="AGW17" s="0"/>
+      <c r="AGX17" s="0"/>
+      <c r="AGY17" s="0"/>
+      <c r="AGZ17" s="0"/>
+      <c r="AHA17" s="0"/>
+      <c r="AHB17" s="0"/>
+      <c r="AHC17" s="0"/>
+      <c r="AHD17" s="0"/>
+      <c r="AHE17" s="0"/>
+      <c r="AHF17" s="0"/>
+      <c r="AHG17" s="0"/>
+      <c r="AHH17" s="0"/>
+      <c r="AHI17" s="0"/>
+      <c r="AHJ17" s="0"/>
+      <c r="AHK17" s="0"/>
+      <c r="AHL17" s="0"/>
+      <c r="AHM17" s="0"/>
+      <c r="AHN17" s="0"/>
+      <c r="AHO17" s="0"/>
+      <c r="AHP17" s="0"/>
+      <c r="AHQ17" s="0"/>
+      <c r="AHR17" s="0"/>
+      <c r="AHS17" s="0"/>
+      <c r="AHT17" s="0"/>
+      <c r="AHU17" s="0"/>
+      <c r="AHV17" s="0"/>
+      <c r="AHW17" s="0"/>
+      <c r="AHX17" s="0"/>
+      <c r="AHY17" s="0"/>
+      <c r="AHZ17" s="0"/>
+      <c r="AIA17" s="0"/>
+      <c r="AIB17" s="0"/>
+      <c r="AIC17" s="0"/>
+      <c r="AID17" s="0"/>
+      <c r="AIE17" s="0"/>
+      <c r="AIF17" s="0"/>
+      <c r="AIG17" s="0"/>
+      <c r="AIH17" s="0"/>
+      <c r="AII17" s="0"/>
+      <c r="AIJ17" s="0"/>
+      <c r="AIK17" s="0"/>
+      <c r="AIL17" s="0"/>
+      <c r="AIM17" s="0"/>
+      <c r="AIN17" s="0"/>
+      <c r="AIO17" s="0"/>
+      <c r="AIP17" s="0"/>
+      <c r="AIQ17" s="0"/>
+      <c r="AIR17" s="0"/>
+      <c r="AIS17" s="0"/>
+      <c r="AIT17" s="0"/>
+      <c r="AIU17" s="0"/>
+      <c r="AIV17" s="0"/>
+      <c r="AIW17" s="0"/>
+      <c r="AIX17" s="0"/>
+      <c r="AIY17" s="0"/>
+      <c r="AIZ17" s="0"/>
+      <c r="AJA17" s="0"/>
+      <c r="AJB17" s="0"/>
+      <c r="AJC17" s="0"/>
+      <c r="AJD17" s="0"/>
+      <c r="AJE17" s="0"/>
+      <c r="AJF17" s="0"/>
+      <c r="AJG17" s="0"/>
+      <c r="AJH17" s="0"/>
+      <c r="AJI17" s="0"/>
+      <c r="AJJ17" s="0"/>
+      <c r="AJK17" s="0"/>
+      <c r="AJL17" s="0"/>
+      <c r="AJM17" s="0"/>
+      <c r="AJN17" s="0"/>
+      <c r="AJO17" s="0"/>
+      <c r="AJP17" s="0"/>
+      <c r="AJQ17" s="0"/>
+      <c r="AJR17" s="0"/>
+      <c r="AJS17" s="0"/>
+      <c r="AJT17" s="0"/>
+      <c r="AJU17" s="0"/>
+      <c r="AJV17" s="0"/>
+      <c r="AJW17" s="0"/>
+      <c r="AJX17" s="0"/>
+      <c r="AJY17" s="0"/>
+      <c r="AJZ17" s="0"/>
+      <c r="AKA17" s="0"/>
+      <c r="AKB17" s="0"/>
+      <c r="AKC17" s="0"/>
+      <c r="AKD17" s="0"/>
+      <c r="AKE17" s="0"/>
+      <c r="AKF17" s="0"/>
+      <c r="AKG17" s="0"/>
+      <c r="AKH17" s="0"/>
+      <c r="AKI17" s="0"/>
+      <c r="AKJ17" s="0"/>
+      <c r="AKK17" s="0"/>
+      <c r="AKL17" s="0"/>
+      <c r="AKM17" s="0"/>
+      <c r="AKN17" s="0"/>
+      <c r="AKO17" s="0"/>
+      <c r="AKP17" s="0"/>
+      <c r="AKQ17" s="0"/>
+      <c r="AKR17" s="0"/>
+      <c r="AKS17" s="0"/>
+      <c r="AKT17" s="0"/>
+      <c r="AKU17" s="0"/>
+      <c r="AKV17" s="0"/>
+      <c r="AKW17" s="0"/>
+      <c r="AKX17" s="0"/>
+      <c r="AKY17" s="0"/>
+      <c r="AKZ17" s="0"/>
+      <c r="ALA17" s="0"/>
+      <c r="ALB17" s="0"/>
+      <c r="ALC17" s="0"/>
+      <c r="ALD17" s="0"/>
+      <c r="ALE17" s="0"/>
+      <c r="ALF17" s="0"/>
+      <c r="ALG17" s="0"/>
+      <c r="ALH17" s="0"/>
+      <c r="ALI17" s="0"/>
+      <c r="ALJ17" s="0"/>
+      <c r="ALK17" s="0"/>
+      <c r="ALL17" s="0"/>
+      <c r="ALM17" s="0"/>
+      <c r="ALN17" s="0"/>
+      <c r="ALO17" s="0"/>
+      <c r="ALP17" s="0"/>
+      <c r="ALQ17" s="0"/>
+      <c r="ALR17" s="0"/>
+      <c r="ALS17" s="0"/>
+      <c r="ALT17" s="0"/>
+      <c r="ALU17" s="0"/>
+      <c r="ALV17" s="0"/>
+      <c r="ALW17" s="0"/>
+      <c r="ALX17" s="0"/>
+      <c r="ALY17" s="0"/>
+      <c r="ALZ17" s="0"/>
+      <c r="AMA17" s="0"/>
+      <c r="AMB17" s="0"/>
+      <c r="AMC17" s="0"/>
+      <c r="AMD17" s="0"/>
+      <c r="AME17" s="0"/>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14936,18 +19100,27 @@
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages"/>
     <hyperlink ref="F3" r:id="rId2" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages"/>
     <hyperlink ref="F4" r:id="rId3" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site"/>
     <hyperlink ref="F5" r:id="rId4" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours"/>
-    <hyperlink ref="F8" r:id="rId6" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
-    <hyperlink ref="F9" r:id="rId7" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible"/>
-    <hyperlink ref="F10" r:id="rId8" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
-    <hyperlink ref="F11" r:id="rId9" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
-    <hyperlink ref="F14" r:id="rId10" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours"/>
+    <hyperlink ref="F11" r:id="rId9" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible"/>
+    <hyperlink ref="F12" r:id="rId10" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F13" r:id="rId11" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F14" r:id="rId12" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label"/>
+    <hyperlink ref="F15" r:id="rId13" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F18" r:id="rId14" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -107,10 +107,16 @@
     <t xml:space="preserve">Les images sont trop volumineuses</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapter la taillle de l’image a la taille du contenant</t>
+    <t xml:space="preserve">Adapter la taillle de l’image a la taille </t>
   </si>
   <si>
     <t xml:space="preserve">https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMENSION des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter la DIMENSION de l’image au contenant</t>
   </si>
   <si>
     <t xml:space="preserve">Utilisation d’image pour du texte</t>
@@ -125,16 +131,22 @@
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Couleur du texte</t>
+    <t xml:space="preserve">Taille du texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le texte est trop petit pour etre lisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier les pixels a 14 pour &lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couleur du texte liens bas de pages</t>
   </si>
   <si>
     <t xml:space="preserve">le contraste n’est pas optimum en comparaison du background sur les liens et les textes</t>
   </si>
   <si>
     <t xml:space="preserve">Un contraste dont le ratio est de 4.5:1 pour les textes ,de 3:1 pour les grands textes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Couleur du texte liens bas de pages</t>
   </si>
   <si>
     <t xml:space="preserve">DIV CACHE </t>
@@ -192,6 +204,9 @@
   </si>
   <si>
     <t xml:space="preserve">MANQUE ETIQUETTE LABEL FORMULAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les contrôles de formulaire DOIVENT avoir des étiquettes (éléments &lt;label&gt;) pour le bénéfice des utilisateurs de lecteurs d'écran.</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label</t>
@@ -450,10 +465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4633,9 +4648,7 @@
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5658,7 +5671,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -5666,14 +5679,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
@@ -6694,22 +6709,24 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -7730,22 +7747,24 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -8766,24 +8785,22 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
@@ -9804,9 +9821,9 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -9817,9 +9834,11 @@
       <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
@@ -10840,9 +10859,9 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
@@ -10853,9 +10872,7 @@
       <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
@@ -11878,24 +11895,24 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -12916,12 +12933,12 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>48</v>
@@ -12933,7 +12950,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -13954,20 +13971,22 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -14988,24 +15007,22 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -16026,24 +16043,24 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -17064,24 +17081,24 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -18102,24 +18119,1059 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+      <c r="AF18" s="0"/>
+      <c r="AG18" s="0"/>
+      <c r="AH18" s="0"/>
+      <c r="AI18" s="0"/>
+      <c r="AJ18" s="0"/>
+      <c r="AK18" s="0"/>
+      <c r="AL18" s="0"/>
+      <c r="AM18" s="0"/>
+      <c r="AN18" s="0"/>
+      <c r="AO18" s="0"/>
+      <c r="AP18" s="0"/>
+      <c r="AQ18" s="0"/>
+      <c r="AR18" s="0"/>
+      <c r="AS18" s="0"/>
+      <c r="AT18" s="0"/>
+      <c r="AU18" s="0"/>
+      <c r="AV18" s="0"/>
+      <c r="AW18" s="0"/>
+      <c r="AX18" s="0"/>
+      <c r="AY18" s="0"/>
+      <c r="AZ18" s="0"/>
+      <c r="BA18" s="0"/>
+      <c r="BB18" s="0"/>
+      <c r="BC18" s="0"/>
+      <c r="BD18" s="0"/>
+      <c r="BE18" s="0"/>
+      <c r="BF18" s="0"/>
+      <c r="BG18" s="0"/>
+      <c r="BH18" s="0"/>
+      <c r="BI18" s="0"/>
+      <c r="BJ18" s="0"/>
+      <c r="BK18" s="0"/>
+      <c r="BL18" s="0"/>
+      <c r="BM18" s="0"/>
+      <c r="BN18" s="0"/>
+      <c r="BO18" s="0"/>
+      <c r="BP18" s="0"/>
+      <c r="BQ18" s="0"/>
+      <c r="BR18" s="0"/>
+      <c r="BS18" s="0"/>
+      <c r="BT18" s="0"/>
+      <c r="BU18" s="0"/>
+      <c r="BV18" s="0"/>
+      <c r="BW18" s="0"/>
+      <c r="BX18" s="0"/>
+      <c r="BY18" s="0"/>
+      <c r="BZ18" s="0"/>
+      <c r="CA18" s="0"/>
+      <c r="CB18" s="0"/>
+      <c r="CC18" s="0"/>
+      <c r="CD18" s="0"/>
+      <c r="CE18" s="0"/>
+      <c r="CF18" s="0"/>
+      <c r="CG18" s="0"/>
+      <c r="CH18" s="0"/>
+      <c r="CI18" s="0"/>
+      <c r="CJ18" s="0"/>
+      <c r="CK18" s="0"/>
+      <c r="CL18" s="0"/>
+      <c r="CM18" s="0"/>
+      <c r="CN18" s="0"/>
+      <c r="CO18" s="0"/>
+      <c r="CP18" s="0"/>
+      <c r="CQ18" s="0"/>
+      <c r="CR18" s="0"/>
+      <c r="CS18" s="0"/>
+      <c r="CT18" s="0"/>
+      <c r="CU18" s="0"/>
+      <c r="CV18" s="0"/>
+      <c r="CW18" s="0"/>
+      <c r="CX18" s="0"/>
+      <c r="CY18" s="0"/>
+      <c r="CZ18" s="0"/>
+      <c r="DA18" s="0"/>
+      <c r="DB18" s="0"/>
+      <c r="DC18" s="0"/>
+      <c r="DD18" s="0"/>
+      <c r="DE18" s="0"/>
+      <c r="DF18" s="0"/>
+      <c r="DG18" s="0"/>
+      <c r="DH18" s="0"/>
+      <c r="DI18" s="0"/>
+      <c r="DJ18" s="0"/>
+      <c r="DK18" s="0"/>
+      <c r="DL18" s="0"/>
+      <c r="DM18" s="0"/>
+      <c r="DN18" s="0"/>
+      <c r="DO18" s="0"/>
+      <c r="DP18" s="0"/>
+      <c r="DQ18" s="0"/>
+      <c r="DR18" s="0"/>
+      <c r="DS18" s="0"/>
+      <c r="DT18" s="0"/>
+      <c r="DU18" s="0"/>
+      <c r="DV18" s="0"/>
+      <c r="DW18" s="0"/>
+      <c r="DX18" s="0"/>
+      <c r="DY18" s="0"/>
+      <c r="DZ18" s="0"/>
+      <c r="EA18" s="0"/>
+      <c r="EB18" s="0"/>
+      <c r="EC18" s="0"/>
+      <c r="ED18" s="0"/>
+      <c r="EE18" s="0"/>
+      <c r="EF18" s="0"/>
+      <c r="EG18" s="0"/>
+      <c r="EH18" s="0"/>
+      <c r="EI18" s="0"/>
+      <c r="EJ18" s="0"/>
+      <c r="EK18" s="0"/>
+      <c r="EL18" s="0"/>
+      <c r="EM18" s="0"/>
+      <c r="EN18" s="0"/>
+      <c r="EO18" s="0"/>
+      <c r="EP18" s="0"/>
+      <c r="EQ18" s="0"/>
+      <c r="ER18" s="0"/>
+      <c r="ES18" s="0"/>
+      <c r="ET18" s="0"/>
+      <c r="EU18" s="0"/>
+      <c r="EV18" s="0"/>
+      <c r="EW18" s="0"/>
+      <c r="EX18" s="0"/>
+      <c r="EY18" s="0"/>
+      <c r="EZ18" s="0"/>
+      <c r="FA18" s="0"/>
+      <c r="FB18" s="0"/>
+      <c r="FC18" s="0"/>
+      <c r="FD18" s="0"/>
+      <c r="FE18" s="0"/>
+      <c r="FF18" s="0"/>
+      <c r="FG18" s="0"/>
+      <c r="FH18" s="0"/>
+      <c r="FI18" s="0"/>
+      <c r="FJ18" s="0"/>
+      <c r="FK18" s="0"/>
+      <c r="FL18" s="0"/>
+      <c r="FM18" s="0"/>
+      <c r="FN18" s="0"/>
+      <c r="FO18" s="0"/>
+      <c r="FP18" s="0"/>
+      <c r="FQ18" s="0"/>
+      <c r="FR18" s="0"/>
+      <c r="FS18" s="0"/>
+      <c r="FT18" s="0"/>
+      <c r="FU18" s="0"/>
+      <c r="FV18" s="0"/>
+      <c r="FW18" s="0"/>
+      <c r="FX18" s="0"/>
+      <c r="FY18" s="0"/>
+      <c r="FZ18" s="0"/>
+      <c r="GA18" s="0"/>
+      <c r="GB18" s="0"/>
+      <c r="GC18" s="0"/>
+      <c r="GD18" s="0"/>
+      <c r="GE18" s="0"/>
+      <c r="GF18" s="0"/>
+      <c r="GG18" s="0"/>
+      <c r="GH18" s="0"/>
+      <c r="GI18" s="0"/>
+      <c r="GJ18" s="0"/>
+      <c r="GK18" s="0"/>
+      <c r="GL18" s="0"/>
+      <c r="GM18" s="0"/>
+      <c r="GN18" s="0"/>
+      <c r="GO18" s="0"/>
+      <c r="GP18" s="0"/>
+      <c r="GQ18" s="0"/>
+      <c r="GR18" s="0"/>
+      <c r="GS18" s="0"/>
+      <c r="GT18" s="0"/>
+      <c r="GU18" s="0"/>
+      <c r="GV18" s="0"/>
+      <c r="GW18" s="0"/>
+      <c r="GX18" s="0"/>
+      <c r="GY18" s="0"/>
+      <c r="GZ18" s="0"/>
+      <c r="HA18" s="0"/>
+      <c r="HB18" s="0"/>
+      <c r="HC18" s="0"/>
+      <c r="HD18" s="0"/>
+      <c r="HE18" s="0"/>
+      <c r="HF18" s="0"/>
+      <c r="HG18" s="0"/>
+      <c r="HH18" s="0"/>
+      <c r="HI18" s="0"/>
+      <c r="HJ18" s="0"/>
+      <c r="HK18" s="0"/>
+      <c r="HL18" s="0"/>
+      <c r="HM18" s="0"/>
+      <c r="HN18" s="0"/>
+      <c r="HO18" s="0"/>
+      <c r="HP18" s="0"/>
+      <c r="HQ18" s="0"/>
+      <c r="HR18" s="0"/>
+      <c r="HS18" s="0"/>
+      <c r="HT18" s="0"/>
+      <c r="HU18" s="0"/>
+      <c r="HV18" s="0"/>
+      <c r="HW18" s="0"/>
+      <c r="HX18" s="0"/>
+      <c r="HY18" s="0"/>
+      <c r="HZ18" s="0"/>
+      <c r="IA18" s="0"/>
+      <c r="IB18" s="0"/>
+      <c r="IC18" s="0"/>
+      <c r="ID18" s="0"/>
+      <c r="IE18" s="0"/>
+      <c r="IF18" s="0"/>
+      <c r="IG18" s="0"/>
+      <c r="IH18" s="0"/>
+      <c r="II18" s="0"/>
+      <c r="IJ18" s="0"/>
+      <c r="IK18" s="0"/>
+      <c r="IL18" s="0"/>
+      <c r="IM18" s="0"/>
+      <c r="IN18" s="0"/>
+      <c r="IO18" s="0"/>
+      <c r="IP18" s="0"/>
+      <c r="IQ18" s="0"/>
+      <c r="IR18" s="0"/>
+      <c r="IS18" s="0"/>
+      <c r="IT18" s="0"/>
+      <c r="IU18" s="0"/>
+      <c r="IV18" s="0"/>
+      <c r="IW18" s="0"/>
+      <c r="IX18" s="0"/>
+      <c r="IY18" s="0"/>
+      <c r="IZ18" s="0"/>
+      <c r="JA18" s="0"/>
+      <c r="JB18" s="0"/>
+      <c r="JC18" s="0"/>
+      <c r="JD18" s="0"/>
+      <c r="JE18" s="0"/>
+      <c r="JF18" s="0"/>
+      <c r="JG18" s="0"/>
+      <c r="JH18" s="0"/>
+      <c r="JI18" s="0"/>
+      <c r="JJ18" s="0"/>
+      <c r="JK18" s="0"/>
+      <c r="JL18" s="0"/>
+      <c r="JM18" s="0"/>
+      <c r="JN18" s="0"/>
+      <c r="JO18" s="0"/>
+      <c r="JP18" s="0"/>
+      <c r="JQ18" s="0"/>
+      <c r="JR18" s="0"/>
+      <c r="JS18" s="0"/>
+      <c r="JT18" s="0"/>
+      <c r="JU18" s="0"/>
+      <c r="JV18" s="0"/>
+      <c r="JW18" s="0"/>
+      <c r="JX18" s="0"/>
+      <c r="JY18" s="0"/>
+      <c r="JZ18" s="0"/>
+      <c r="KA18" s="0"/>
+      <c r="KB18" s="0"/>
+      <c r="KC18" s="0"/>
+      <c r="KD18" s="0"/>
+      <c r="KE18" s="0"/>
+      <c r="KF18" s="0"/>
+      <c r="KG18" s="0"/>
+      <c r="KH18" s="0"/>
+      <c r="KI18" s="0"/>
+      <c r="KJ18" s="0"/>
+      <c r="KK18" s="0"/>
+      <c r="KL18" s="0"/>
+      <c r="KM18" s="0"/>
+      <c r="KN18" s="0"/>
+      <c r="KO18" s="0"/>
+      <c r="KP18" s="0"/>
+      <c r="KQ18" s="0"/>
+      <c r="KR18" s="0"/>
+      <c r="KS18" s="0"/>
+      <c r="KT18" s="0"/>
+      <c r="KU18" s="0"/>
+      <c r="KV18" s="0"/>
+      <c r="KW18" s="0"/>
+      <c r="KX18" s="0"/>
+      <c r="KY18" s="0"/>
+      <c r="KZ18" s="0"/>
+      <c r="LA18" s="0"/>
+      <c r="LB18" s="0"/>
+      <c r="LC18" s="0"/>
+      <c r="LD18" s="0"/>
+      <c r="LE18" s="0"/>
+      <c r="LF18" s="0"/>
+      <c r="LG18" s="0"/>
+      <c r="LH18" s="0"/>
+      <c r="LI18" s="0"/>
+      <c r="LJ18" s="0"/>
+      <c r="LK18" s="0"/>
+      <c r="LL18" s="0"/>
+      <c r="LM18" s="0"/>
+      <c r="LN18" s="0"/>
+      <c r="LO18" s="0"/>
+      <c r="LP18" s="0"/>
+      <c r="LQ18" s="0"/>
+      <c r="LR18" s="0"/>
+      <c r="LS18" s="0"/>
+      <c r="LT18" s="0"/>
+      <c r="LU18" s="0"/>
+      <c r="LV18" s="0"/>
+      <c r="LW18" s="0"/>
+      <c r="LX18" s="0"/>
+      <c r="LY18" s="0"/>
+      <c r="LZ18" s="0"/>
+      <c r="MA18" s="0"/>
+      <c r="MB18" s="0"/>
+      <c r="MC18" s="0"/>
+      <c r="MD18" s="0"/>
+      <c r="ME18" s="0"/>
+      <c r="MF18" s="0"/>
+      <c r="MG18" s="0"/>
+      <c r="MH18" s="0"/>
+      <c r="MI18" s="0"/>
+      <c r="MJ18" s="0"/>
+      <c r="MK18" s="0"/>
+      <c r="ML18" s="0"/>
+      <c r="MM18" s="0"/>
+      <c r="MN18" s="0"/>
+      <c r="MO18" s="0"/>
+      <c r="MP18" s="0"/>
+      <c r="MQ18" s="0"/>
+      <c r="MR18" s="0"/>
+      <c r="MS18" s="0"/>
+      <c r="MT18" s="0"/>
+      <c r="MU18" s="0"/>
+      <c r="MV18" s="0"/>
+      <c r="MW18" s="0"/>
+      <c r="MX18" s="0"/>
+      <c r="MY18" s="0"/>
+      <c r="MZ18" s="0"/>
+      <c r="NA18" s="0"/>
+      <c r="NB18" s="0"/>
+      <c r="NC18" s="0"/>
+      <c r="ND18" s="0"/>
+      <c r="NE18" s="0"/>
+      <c r="NF18" s="0"/>
+      <c r="NG18" s="0"/>
+      <c r="NH18" s="0"/>
+      <c r="NI18" s="0"/>
+      <c r="NJ18" s="0"/>
+      <c r="NK18" s="0"/>
+      <c r="NL18" s="0"/>
+      <c r="NM18" s="0"/>
+      <c r="NN18" s="0"/>
+      <c r="NO18" s="0"/>
+      <c r="NP18" s="0"/>
+      <c r="NQ18" s="0"/>
+      <c r="NR18" s="0"/>
+      <c r="NS18" s="0"/>
+      <c r="NT18" s="0"/>
+      <c r="NU18" s="0"/>
+      <c r="NV18" s="0"/>
+      <c r="NW18" s="0"/>
+      <c r="NX18" s="0"/>
+      <c r="NY18" s="0"/>
+      <c r="NZ18" s="0"/>
+      <c r="OA18" s="0"/>
+      <c r="OB18" s="0"/>
+      <c r="OC18" s="0"/>
+      <c r="OD18" s="0"/>
+      <c r="OE18" s="0"/>
+      <c r="OF18" s="0"/>
+      <c r="OG18" s="0"/>
+      <c r="OH18" s="0"/>
+      <c r="OI18" s="0"/>
+      <c r="OJ18" s="0"/>
+      <c r="OK18" s="0"/>
+      <c r="OL18" s="0"/>
+      <c r="OM18" s="0"/>
+      <c r="ON18" s="0"/>
+      <c r="OO18" s="0"/>
+      <c r="OP18" s="0"/>
+      <c r="OQ18" s="0"/>
+      <c r="OR18" s="0"/>
+      <c r="OS18" s="0"/>
+      <c r="OT18" s="0"/>
+      <c r="OU18" s="0"/>
+      <c r="OV18" s="0"/>
+      <c r="OW18" s="0"/>
+      <c r="OX18" s="0"/>
+      <c r="OY18" s="0"/>
+      <c r="OZ18" s="0"/>
+      <c r="PA18" s="0"/>
+      <c r="PB18" s="0"/>
+      <c r="PC18" s="0"/>
+      <c r="PD18" s="0"/>
+      <c r="PE18" s="0"/>
+      <c r="PF18" s="0"/>
+      <c r="PG18" s="0"/>
+      <c r="PH18" s="0"/>
+      <c r="PI18" s="0"/>
+      <c r="PJ18" s="0"/>
+      <c r="PK18" s="0"/>
+      <c r="PL18" s="0"/>
+      <c r="PM18" s="0"/>
+      <c r="PN18" s="0"/>
+      <c r="PO18" s="0"/>
+      <c r="PP18" s="0"/>
+      <c r="PQ18" s="0"/>
+      <c r="PR18" s="0"/>
+      <c r="PS18" s="0"/>
+      <c r="PT18" s="0"/>
+      <c r="PU18" s="0"/>
+      <c r="PV18" s="0"/>
+      <c r="PW18" s="0"/>
+      <c r="PX18" s="0"/>
+      <c r="PY18" s="0"/>
+      <c r="PZ18" s="0"/>
+      <c r="QA18" s="0"/>
+      <c r="QB18" s="0"/>
+      <c r="QC18" s="0"/>
+      <c r="QD18" s="0"/>
+      <c r="QE18" s="0"/>
+      <c r="QF18" s="0"/>
+      <c r="QG18" s="0"/>
+      <c r="QH18" s="0"/>
+      <c r="QI18" s="0"/>
+      <c r="QJ18" s="0"/>
+      <c r="QK18" s="0"/>
+      <c r="QL18" s="0"/>
+      <c r="QM18" s="0"/>
+      <c r="QN18" s="0"/>
+      <c r="QO18" s="0"/>
+      <c r="QP18" s="0"/>
+      <c r="QQ18" s="0"/>
+      <c r="QR18" s="0"/>
+      <c r="QS18" s="0"/>
+      <c r="QT18" s="0"/>
+      <c r="QU18" s="0"/>
+      <c r="QV18" s="0"/>
+      <c r="QW18" s="0"/>
+      <c r="QX18" s="0"/>
+      <c r="QY18" s="0"/>
+      <c r="QZ18" s="0"/>
+      <c r="RA18" s="0"/>
+      <c r="RB18" s="0"/>
+      <c r="RC18" s="0"/>
+      <c r="RD18" s="0"/>
+      <c r="RE18" s="0"/>
+      <c r="RF18" s="0"/>
+      <c r="RG18" s="0"/>
+      <c r="RH18" s="0"/>
+      <c r="RI18" s="0"/>
+      <c r="RJ18" s="0"/>
+      <c r="RK18" s="0"/>
+      <c r="RL18" s="0"/>
+      <c r="RM18" s="0"/>
+      <c r="RN18" s="0"/>
+      <c r="RO18" s="0"/>
+      <c r="RP18" s="0"/>
+      <c r="RQ18" s="0"/>
+      <c r="RR18" s="0"/>
+      <c r="RS18" s="0"/>
+      <c r="RT18" s="0"/>
+      <c r="RU18" s="0"/>
+      <c r="RV18" s="0"/>
+      <c r="RW18" s="0"/>
+      <c r="RX18" s="0"/>
+      <c r="RY18" s="0"/>
+      <c r="RZ18" s="0"/>
+      <c r="SA18" s="0"/>
+      <c r="SB18" s="0"/>
+      <c r="SC18" s="0"/>
+      <c r="SD18" s="0"/>
+      <c r="SE18" s="0"/>
+      <c r="SF18" s="0"/>
+      <c r="SG18" s="0"/>
+      <c r="SH18" s="0"/>
+      <c r="SI18" s="0"/>
+      <c r="SJ18" s="0"/>
+      <c r="SK18" s="0"/>
+      <c r="SL18" s="0"/>
+      <c r="SM18" s="0"/>
+      <c r="SN18" s="0"/>
+      <c r="SO18" s="0"/>
+      <c r="SP18" s="0"/>
+      <c r="SQ18" s="0"/>
+      <c r="SR18" s="0"/>
+      <c r="SS18" s="0"/>
+      <c r="ST18" s="0"/>
+      <c r="SU18" s="0"/>
+      <c r="SV18" s="0"/>
+      <c r="SW18" s="0"/>
+      <c r="SX18" s="0"/>
+      <c r="SY18" s="0"/>
+      <c r="SZ18" s="0"/>
+      <c r="TA18" s="0"/>
+      <c r="TB18" s="0"/>
+      <c r="TC18" s="0"/>
+      <c r="TD18" s="0"/>
+      <c r="TE18" s="0"/>
+      <c r="TF18" s="0"/>
+      <c r="TG18" s="0"/>
+      <c r="TH18" s="0"/>
+      <c r="TI18" s="0"/>
+      <c r="TJ18" s="0"/>
+      <c r="TK18" s="0"/>
+      <c r="TL18" s="0"/>
+      <c r="TM18" s="0"/>
+      <c r="TN18" s="0"/>
+      <c r="TO18" s="0"/>
+      <c r="TP18" s="0"/>
+      <c r="TQ18" s="0"/>
+      <c r="TR18" s="0"/>
+      <c r="TS18" s="0"/>
+      <c r="TT18" s="0"/>
+      <c r="TU18" s="0"/>
+      <c r="TV18" s="0"/>
+      <c r="TW18" s="0"/>
+      <c r="TX18" s="0"/>
+      <c r="TY18" s="0"/>
+      <c r="TZ18" s="0"/>
+      <c r="UA18" s="0"/>
+      <c r="UB18" s="0"/>
+      <c r="UC18" s="0"/>
+      <c r="UD18" s="0"/>
+      <c r="UE18" s="0"/>
+      <c r="UF18" s="0"/>
+      <c r="UG18" s="0"/>
+      <c r="UH18" s="0"/>
+      <c r="UI18" s="0"/>
+      <c r="UJ18" s="0"/>
+      <c r="UK18" s="0"/>
+      <c r="UL18" s="0"/>
+      <c r="UM18" s="0"/>
+      <c r="UN18" s="0"/>
+      <c r="UO18" s="0"/>
+      <c r="UP18" s="0"/>
+      <c r="UQ18" s="0"/>
+      <c r="UR18" s="0"/>
+      <c r="US18" s="0"/>
+      <c r="UT18" s="0"/>
+      <c r="UU18" s="0"/>
+      <c r="UV18" s="0"/>
+      <c r="UW18" s="0"/>
+      <c r="UX18" s="0"/>
+      <c r="UY18" s="0"/>
+      <c r="UZ18" s="0"/>
+      <c r="VA18" s="0"/>
+      <c r="VB18" s="0"/>
+      <c r="VC18" s="0"/>
+      <c r="VD18" s="0"/>
+      <c r="VE18" s="0"/>
+      <c r="VF18" s="0"/>
+      <c r="VG18" s="0"/>
+      <c r="VH18" s="0"/>
+      <c r="VI18" s="0"/>
+      <c r="VJ18" s="0"/>
+      <c r="VK18" s="0"/>
+      <c r="VL18" s="0"/>
+      <c r="VM18" s="0"/>
+      <c r="VN18" s="0"/>
+      <c r="VO18" s="0"/>
+      <c r="VP18" s="0"/>
+      <c r="VQ18" s="0"/>
+      <c r="VR18" s="0"/>
+      <c r="VS18" s="0"/>
+      <c r="VT18" s="0"/>
+      <c r="VU18" s="0"/>
+      <c r="VV18" s="0"/>
+      <c r="VW18" s="0"/>
+      <c r="VX18" s="0"/>
+      <c r="VY18" s="0"/>
+      <c r="VZ18" s="0"/>
+      <c r="WA18" s="0"/>
+      <c r="WB18" s="0"/>
+      <c r="WC18" s="0"/>
+      <c r="WD18" s="0"/>
+      <c r="WE18" s="0"/>
+      <c r="WF18" s="0"/>
+      <c r="WG18" s="0"/>
+      <c r="WH18" s="0"/>
+      <c r="WI18" s="0"/>
+      <c r="WJ18" s="0"/>
+      <c r="WK18" s="0"/>
+      <c r="WL18" s="0"/>
+      <c r="WM18" s="0"/>
+      <c r="WN18" s="0"/>
+      <c r="WO18" s="0"/>
+      <c r="WP18" s="0"/>
+      <c r="WQ18" s="0"/>
+      <c r="WR18" s="0"/>
+      <c r="WS18" s="0"/>
+      <c r="WT18" s="0"/>
+      <c r="WU18" s="0"/>
+      <c r="WV18" s="0"/>
+      <c r="WW18" s="0"/>
+      <c r="WX18" s="0"/>
+      <c r="WY18" s="0"/>
+      <c r="WZ18" s="0"/>
+      <c r="XA18" s="0"/>
+      <c r="XB18" s="0"/>
+      <c r="XC18" s="0"/>
+      <c r="XD18" s="0"/>
+      <c r="XE18" s="0"/>
+      <c r="XF18" s="0"/>
+      <c r="XG18" s="0"/>
+      <c r="XH18" s="0"/>
+      <c r="XI18" s="0"/>
+      <c r="XJ18" s="0"/>
+      <c r="XK18" s="0"/>
+      <c r="XL18" s="0"/>
+      <c r="XM18" s="0"/>
+      <c r="XN18" s="0"/>
+      <c r="XO18" s="0"/>
+      <c r="XP18" s="0"/>
+      <c r="XQ18" s="0"/>
+      <c r="XR18" s="0"/>
+      <c r="XS18" s="0"/>
+      <c r="XT18" s="0"/>
+      <c r="XU18" s="0"/>
+      <c r="XV18" s="0"/>
+      <c r="XW18" s="0"/>
+      <c r="XX18" s="0"/>
+      <c r="XY18" s="0"/>
+      <c r="XZ18" s="0"/>
+      <c r="YA18" s="0"/>
+      <c r="YB18" s="0"/>
+      <c r="YC18" s="0"/>
+      <c r="YD18" s="0"/>
+      <c r="YE18" s="0"/>
+      <c r="YF18" s="0"/>
+      <c r="YG18" s="0"/>
+      <c r="YH18" s="0"/>
+      <c r="YI18" s="0"/>
+      <c r="YJ18" s="0"/>
+      <c r="YK18" s="0"/>
+      <c r="YL18" s="0"/>
+      <c r="YM18" s="0"/>
+      <c r="YN18" s="0"/>
+      <c r="YO18" s="0"/>
+      <c r="YP18" s="0"/>
+      <c r="YQ18" s="0"/>
+      <c r="YR18" s="0"/>
+      <c r="YS18" s="0"/>
+      <c r="YT18" s="0"/>
+      <c r="YU18" s="0"/>
+      <c r="YV18" s="0"/>
+      <c r="YW18" s="0"/>
+      <c r="YX18" s="0"/>
+      <c r="YY18" s="0"/>
+      <c r="YZ18" s="0"/>
+      <c r="ZA18" s="0"/>
+      <c r="ZB18" s="0"/>
+      <c r="ZC18" s="0"/>
+      <c r="ZD18" s="0"/>
+      <c r="ZE18" s="0"/>
+      <c r="ZF18" s="0"/>
+      <c r="ZG18" s="0"/>
+      <c r="ZH18" s="0"/>
+      <c r="ZI18" s="0"/>
+      <c r="ZJ18" s="0"/>
+      <c r="ZK18" s="0"/>
+      <c r="ZL18" s="0"/>
+      <c r="ZM18" s="0"/>
+      <c r="ZN18" s="0"/>
+      <c r="ZO18" s="0"/>
+      <c r="ZP18" s="0"/>
+      <c r="ZQ18" s="0"/>
+      <c r="ZR18" s="0"/>
+      <c r="ZS18" s="0"/>
+      <c r="ZT18" s="0"/>
+      <c r="ZU18" s="0"/>
+      <c r="ZV18" s="0"/>
+      <c r="ZW18" s="0"/>
+      <c r="ZX18" s="0"/>
+      <c r="ZY18" s="0"/>
+      <c r="ZZ18" s="0"/>
+      <c r="AAA18" s="0"/>
+      <c r="AAB18" s="0"/>
+      <c r="AAC18" s="0"/>
+      <c r="AAD18" s="0"/>
+      <c r="AAE18" s="0"/>
+      <c r="AAF18" s="0"/>
+      <c r="AAG18" s="0"/>
+      <c r="AAH18" s="0"/>
+      <c r="AAI18" s="0"/>
+      <c r="AAJ18" s="0"/>
+      <c r="AAK18" s="0"/>
+      <c r="AAL18" s="0"/>
+      <c r="AAM18" s="0"/>
+      <c r="AAN18" s="0"/>
+      <c r="AAO18" s="0"/>
+      <c r="AAP18" s="0"/>
+      <c r="AAQ18" s="0"/>
+      <c r="AAR18" s="0"/>
+      <c r="AAS18" s="0"/>
+      <c r="AAT18" s="0"/>
+      <c r="AAU18" s="0"/>
+      <c r="AAV18" s="0"/>
+      <c r="AAW18" s="0"/>
+      <c r="AAX18" s="0"/>
+      <c r="AAY18" s="0"/>
+      <c r="AAZ18" s="0"/>
+      <c r="ABA18" s="0"/>
+      <c r="ABB18" s="0"/>
+      <c r="ABC18" s="0"/>
+      <c r="ABD18" s="0"/>
+      <c r="ABE18" s="0"/>
+      <c r="ABF18" s="0"/>
+      <c r="ABG18" s="0"/>
+      <c r="ABH18" s="0"/>
+      <c r="ABI18" s="0"/>
+      <c r="ABJ18" s="0"/>
+      <c r="ABK18" s="0"/>
+      <c r="ABL18" s="0"/>
+      <c r="ABM18" s="0"/>
+      <c r="ABN18" s="0"/>
+      <c r="ABO18" s="0"/>
+      <c r="ABP18" s="0"/>
+      <c r="ABQ18" s="0"/>
+      <c r="ABR18" s="0"/>
+      <c r="ABS18" s="0"/>
+      <c r="ABT18" s="0"/>
+      <c r="ABU18" s="0"/>
+      <c r="ABV18" s="0"/>
+      <c r="ABW18" s="0"/>
+      <c r="ABX18" s="0"/>
+      <c r="ABY18" s="0"/>
+      <c r="ABZ18" s="0"/>
+      <c r="ACA18" s="0"/>
+      <c r="ACB18" s="0"/>
+      <c r="ACC18" s="0"/>
+      <c r="ACD18" s="0"/>
+      <c r="ACE18" s="0"/>
+      <c r="ACF18" s="0"/>
+      <c r="ACG18" s="0"/>
+      <c r="ACH18" s="0"/>
+      <c r="ACI18" s="0"/>
+      <c r="ACJ18" s="0"/>
+      <c r="ACK18" s="0"/>
+      <c r="ACL18" s="0"/>
+      <c r="ACM18" s="0"/>
+      <c r="ACN18" s="0"/>
+      <c r="ACO18" s="0"/>
+      <c r="ACP18" s="0"/>
+      <c r="ACQ18" s="0"/>
+      <c r="ACR18" s="0"/>
+      <c r="ACS18" s="0"/>
+      <c r="ACT18" s="0"/>
+      <c r="ACU18" s="0"/>
+      <c r="ACV18" s="0"/>
+      <c r="ACW18" s="0"/>
+      <c r="ACX18" s="0"/>
+      <c r="ACY18" s="0"/>
+      <c r="ACZ18" s="0"/>
+      <c r="ADA18" s="0"/>
+      <c r="ADB18" s="0"/>
+      <c r="ADC18" s="0"/>
+      <c r="ADD18" s="0"/>
+      <c r="ADE18" s="0"/>
+      <c r="ADF18" s="0"/>
+      <c r="ADG18" s="0"/>
+      <c r="ADH18" s="0"/>
+      <c r="ADI18" s="0"/>
+      <c r="ADJ18" s="0"/>
+      <c r="ADK18" s="0"/>
+      <c r="ADL18" s="0"/>
+      <c r="ADM18" s="0"/>
+      <c r="ADN18" s="0"/>
+      <c r="ADO18" s="0"/>
+      <c r="ADP18" s="0"/>
+      <c r="ADQ18" s="0"/>
+      <c r="ADR18" s="0"/>
+      <c r="ADS18" s="0"/>
+      <c r="ADT18" s="0"/>
+      <c r="ADU18" s="0"/>
+      <c r="ADV18" s="0"/>
+      <c r="ADW18" s="0"/>
+      <c r="ADX18" s="0"/>
+      <c r="ADY18" s="0"/>
+      <c r="ADZ18" s="0"/>
+      <c r="AEA18" s="0"/>
+      <c r="AEB18" s="0"/>
+      <c r="AEC18" s="0"/>
+      <c r="AED18" s="0"/>
+      <c r="AEE18" s="0"/>
+      <c r="AEF18" s="0"/>
+      <c r="AEG18" s="0"/>
+      <c r="AEH18" s="0"/>
+      <c r="AEI18" s="0"/>
+      <c r="AEJ18" s="0"/>
+      <c r="AEK18" s="0"/>
+      <c r="AEL18" s="0"/>
+      <c r="AEM18" s="0"/>
+      <c r="AEN18" s="0"/>
+      <c r="AEO18" s="0"/>
+      <c r="AEP18" s="0"/>
+      <c r="AEQ18" s="0"/>
+      <c r="AER18" s="0"/>
+      <c r="AES18" s="0"/>
+      <c r="AET18" s="0"/>
+      <c r="AEU18" s="0"/>
+      <c r="AEV18" s="0"/>
+      <c r="AEW18" s="0"/>
+      <c r="AEX18" s="0"/>
+      <c r="AEY18" s="0"/>
+      <c r="AEZ18" s="0"/>
+      <c r="AFA18" s="0"/>
+      <c r="AFB18" s="0"/>
+      <c r="AFC18" s="0"/>
+      <c r="AFD18" s="0"/>
+      <c r="AFE18" s="0"/>
+      <c r="AFF18" s="0"/>
+      <c r="AFG18" s="0"/>
+      <c r="AFH18" s="0"/>
+      <c r="AFI18" s="0"/>
+      <c r="AFJ18" s="0"/>
+      <c r="AFK18" s="0"/>
+      <c r="AFL18" s="0"/>
+      <c r="AFM18" s="0"/>
+      <c r="AFN18" s="0"/>
+      <c r="AFO18" s="0"/>
+      <c r="AFP18" s="0"/>
+      <c r="AFQ18" s="0"/>
+      <c r="AFR18" s="0"/>
+      <c r="AFS18" s="0"/>
+      <c r="AFT18" s="0"/>
+      <c r="AFU18" s="0"/>
+      <c r="AFV18" s="0"/>
+      <c r="AFW18" s="0"/>
+      <c r="AFX18" s="0"/>
+      <c r="AFY18" s="0"/>
+      <c r="AFZ18" s="0"/>
+      <c r="AGA18" s="0"/>
+      <c r="AGB18" s="0"/>
+      <c r="AGC18" s="0"/>
+      <c r="AGD18" s="0"/>
+      <c r="AGE18" s="0"/>
+      <c r="AGF18" s="0"/>
+      <c r="AGG18" s="0"/>
+      <c r="AGH18" s="0"/>
+      <c r="AGI18" s="0"/>
+      <c r="AGJ18" s="0"/>
+      <c r="AGK18" s="0"/>
+      <c r="AGL18" s="0"/>
+      <c r="AGM18" s="0"/>
+      <c r="AGN18" s="0"/>
+      <c r="AGO18" s="0"/>
+      <c r="AGP18" s="0"/>
+      <c r="AGQ18" s="0"/>
+      <c r="AGR18" s="0"/>
+      <c r="AGS18" s="0"/>
+      <c r="AGT18" s="0"/>
+      <c r="AGU18" s="0"/>
+      <c r="AGV18" s="0"/>
+      <c r="AGW18" s="0"/>
+      <c r="AGX18" s="0"/>
+      <c r="AGY18" s="0"/>
+      <c r="AGZ18" s="0"/>
+      <c r="AHA18" s="0"/>
+      <c r="AHB18" s="0"/>
+      <c r="AHC18" s="0"/>
+      <c r="AHD18" s="0"/>
+      <c r="AHE18" s="0"/>
+      <c r="AHF18" s="0"/>
+      <c r="AHG18" s="0"/>
+      <c r="AHH18" s="0"/>
+      <c r="AHI18" s="0"/>
+      <c r="AHJ18" s="0"/>
+      <c r="AHK18" s="0"/>
+      <c r="AHL18" s="0"/>
+      <c r="AHM18" s="0"/>
+      <c r="AHN18" s="0"/>
+      <c r="AHO18" s="0"/>
+      <c r="AHP18" s="0"/>
+      <c r="AHQ18" s="0"/>
+      <c r="AHR18" s="0"/>
+      <c r="AHS18" s="0"/>
+      <c r="AHT18" s="0"/>
+      <c r="AHU18" s="0"/>
+      <c r="AHV18" s="0"/>
+      <c r="AHW18" s="0"/>
+      <c r="AHX18" s="0"/>
+      <c r="AHY18" s="0"/>
+      <c r="AHZ18" s="0"/>
+      <c r="AIA18" s="0"/>
+      <c r="AIB18" s="0"/>
+      <c r="AIC18" s="0"/>
+      <c r="AID18" s="0"/>
+      <c r="AIE18" s="0"/>
+      <c r="AIF18" s="0"/>
+      <c r="AIG18" s="0"/>
+      <c r="AIH18" s="0"/>
+      <c r="AII18" s="0"/>
+      <c r="AIJ18" s="0"/>
+      <c r="AIK18" s="0"/>
+      <c r="AIL18" s="0"/>
+      <c r="AIM18" s="0"/>
+      <c r="AIN18" s="0"/>
+      <c r="AIO18" s="0"/>
+      <c r="AIP18" s="0"/>
+      <c r="AIQ18" s="0"/>
+      <c r="AIR18" s="0"/>
+      <c r="AIS18" s="0"/>
+      <c r="AIT18" s="0"/>
+      <c r="AIU18" s="0"/>
+      <c r="AIV18" s="0"/>
+      <c r="AIW18" s="0"/>
+      <c r="AIX18" s="0"/>
+      <c r="AIY18" s="0"/>
+      <c r="AIZ18" s="0"/>
+      <c r="AJA18" s="0"/>
+      <c r="AJB18" s="0"/>
+      <c r="AJC18" s="0"/>
+      <c r="AJD18" s="0"/>
+      <c r="AJE18" s="0"/>
+      <c r="AJF18" s="0"/>
+      <c r="AJG18" s="0"/>
+      <c r="AJH18" s="0"/>
+      <c r="AJI18" s="0"/>
+      <c r="AJJ18" s="0"/>
+      <c r="AJK18" s="0"/>
+      <c r="AJL18" s="0"/>
+      <c r="AJM18" s="0"/>
+      <c r="AJN18" s="0"/>
+      <c r="AJO18" s="0"/>
+      <c r="AJP18" s="0"/>
+      <c r="AJQ18" s="0"/>
+      <c r="AJR18" s="0"/>
+      <c r="AJS18" s="0"/>
+      <c r="AJT18" s="0"/>
+      <c r="AJU18" s="0"/>
+      <c r="AJV18" s="0"/>
+      <c r="AJW18" s="0"/>
+      <c r="AJX18" s="0"/>
+      <c r="AJY18" s="0"/>
+      <c r="AJZ18" s="0"/>
+      <c r="AKA18" s="0"/>
+      <c r="AKB18" s="0"/>
+      <c r="AKC18" s="0"/>
+      <c r="AKD18" s="0"/>
+      <c r="AKE18" s="0"/>
+      <c r="AKF18" s="0"/>
+      <c r="AKG18" s="0"/>
+      <c r="AKH18" s="0"/>
+      <c r="AKI18" s="0"/>
+      <c r="AKJ18" s="0"/>
+      <c r="AKK18" s="0"/>
+      <c r="AKL18" s="0"/>
+      <c r="AKM18" s="0"/>
+      <c r="AKN18" s="0"/>
+      <c r="AKO18" s="0"/>
+      <c r="AKP18" s="0"/>
+      <c r="AKQ18" s="0"/>
+      <c r="AKR18" s="0"/>
+      <c r="AKS18" s="0"/>
+      <c r="AKT18" s="0"/>
+      <c r="AKU18" s="0"/>
+      <c r="AKV18" s="0"/>
+      <c r="AKW18" s="0"/>
+      <c r="AKX18" s="0"/>
+      <c r="AKY18" s="0"/>
+      <c r="AKZ18" s="0"/>
+      <c r="ALA18" s="0"/>
+      <c r="ALB18" s="0"/>
+      <c r="ALC18" s="0"/>
+      <c r="ALD18" s="0"/>
+      <c r="ALE18" s="0"/>
+      <c r="ALF18" s="0"/>
+      <c r="ALG18" s="0"/>
+      <c r="ALH18" s="0"/>
+      <c r="ALI18" s="0"/>
+      <c r="ALJ18" s="0"/>
+      <c r="ALK18" s="0"/>
+      <c r="ALL18" s="0"/>
+      <c r="ALM18" s="0"/>
+      <c r="ALN18" s="0"/>
+      <c r="ALO18" s="0"/>
+      <c r="ALP18" s="0"/>
+      <c r="ALQ18" s="0"/>
+      <c r="ALR18" s="0"/>
+      <c r="ALS18" s="0"/>
+      <c r="ALT18" s="0"/>
+      <c r="ALU18" s="0"/>
+      <c r="ALV18" s="0"/>
+      <c r="ALW18" s="0"/>
+      <c r="ALX18" s="0"/>
+      <c r="ALY18" s="0"/>
+      <c r="ALZ18" s="0"/>
+      <c r="AMA18" s="0"/>
+      <c r="AMB18" s="0"/>
+      <c r="AMC18" s="0"/>
+      <c r="AMD18" s="0"/>
+      <c r="AME18" s="0"/>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>46</v>
+      <c r="F19" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19104,23 +20156,24 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages"/>
     <hyperlink ref="F3" r:id="rId2" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages"/>
     <hyperlink ref="F4" r:id="rId3" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site"/>
     <hyperlink ref="F5" r:id="rId4" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours"/>
     <hyperlink ref="F7" r:id="rId6" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
     <hyperlink ref="F8" r:id="rId7" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours"/>
-    <hyperlink ref="F11" r:id="rId9" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible"/>
-    <hyperlink ref="F12" r:id="rId10" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/5922633-tirez-le-maximum-de-ce-cours"/>
+    <hyperlink ref="F12" r:id="rId10" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible"/>
     <hyperlink ref="F13" r:id="rId11" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
-    <hyperlink ref="F14" r:id="rId12" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label"/>
-    <hyperlink ref="F15" r:id="rId13" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
-    <hyperlink ref="F18" r:id="rId14" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F14" r:id="rId12" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F15" r:id="rId13" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label"/>
+    <hyperlink ref="F16" r:id="rId14" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
+    <hyperlink ref="F19" r:id="rId15" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -258,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -303,12 +303,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -359,7 +353,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -382,10 +376,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -467,13 +457,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.61"/>
@@ -6725,7 +6715,7 @@
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="0"/>
@@ -7763,7 +7753,7 @@
       <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="0"/>
@@ -8799,7 +8789,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="0"/>
